--- a/Figure Generating/data/RNA_Biofilm_Trans_Defense_Coverage.xlsx
+++ b/Figure Generating/data/RNA_Biofilm_Trans_Defense_Coverage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin Juntao\Desktop\transposase-deep-ocean\Figure Generating\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1873A4EB-EE6D-451A-A391-6879DFD32DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7634D976-ECCF-42F4-8D11-B35EE1E1A41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
   <si>
     <t>TARA_X100000009</t>
   </si>
@@ -619,6 +619,9 @@
   </si>
   <si>
     <t>RNA_Transposase</t>
+  </si>
+  <si>
+    <t>RNA_CAZenzyme</t>
   </si>
 </sst>
 </file>
@@ -936,10 +939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H188"/>
+  <dimension ref="A1:I188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -951,9 +954,10 @@
     <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5546875" customWidth="1"/>
+    <col min="9" max="9" width="28.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>187</v>
       </c>
@@ -978,8 +982,11 @@
       <c r="H1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -996,19 +1003,22 @@
         <v>77594720</v>
       </c>
       <c r="F2">
-        <f>B2/E2</f>
+        <f t="shared" ref="F2:F33" si="0">B2/E2</f>
         <v>3.3382152129613201E-5</v>
       </c>
       <c r="G2">
-        <f>C2/E2</f>
+        <f t="shared" ref="G2:G33" si="1">C2/E2</f>
         <v>4.657840600614346E-5</v>
       </c>
       <c r="H2">
-        <f>D2/E2</f>
+        <f t="shared" ref="H2:H33" si="2">D2/E2</f>
         <v>6.2563312470354947E-4</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2">
+        <v>9.4989363558074698E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1025,19 +1035,22 @@
         <v>264247497</v>
       </c>
       <c r="F3">
-        <f>B3/E3</f>
+        <f t="shared" si="0"/>
         <v>7.3158838727737131E-5</v>
       </c>
       <c r="G3">
-        <f>C3/E3</f>
+        <f t="shared" si="1"/>
         <v>1.140830142563095E-4</v>
       </c>
       <c r="H3">
-        <f>D3/E3</f>
+        <f t="shared" si="2"/>
         <v>1.8255337361507762E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3">
+        <v>1.5386391959003499E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1054,19 +1067,22 @@
         <v>214004727</v>
       </c>
       <c r="F4">
-        <f>B4/E4</f>
+        <f t="shared" si="0"/>
         <v>3.3069932503548719E-4</v>
       </c>
       <c r="G4">
-        <f>C4/E4</f>
+        <f t="shared" si="1"/>
         <v>2.6144568403938667E-4</v>
       </c>
       <c r="H4">
-        <f>D4/E4</f>
+        <f t="shared" si="2"/>
         <v>2.6994552122292328E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4">
+        <v>6.7310594379989194E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1083,19 +1099,22 @@
         <v>248704686</v>
       </c>
       <c r="F5">
-        <f>B5/E5</f>
+        <f t="shared" si="0"/>
         <v>1.1075323689953313E-4</v>
       </c>
       <c r="G5">
-        <f>C5/E5</f>
+        <f t="shared" si="1"/>
         <v>1.6383492839118196E-4</v>
       </c>
       <c r="H5">
-        <f>D5/E5</f>
+        <f t="shared" si="2"/>
         <v>2.2916488432541599E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <v>3.4573982504569001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1112,19 +1131,22 @@
         <v>276738619</v>
       </c>
       <c r="F6">
-        <f>B6/E6</f>
+        <f t="shared" si="0"/>
         <v>6.5390639041084829E-5</v>
       </c>
       <c r="G6">
-        <f>C6/E6</f>
+        <f t="shared" si="1"/>
         <v>2.754840038329739E-5</v>
       </c>
       <c r="H6">
-        <f>D6/E6</f>
+        <f t="shared" si="2"/>
         <v>2.4440975108340479E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6">
+        <v>7.3248925650740607E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1141,19 +1163,22 @@
         <v>283189283</v>
       </c>
       <c r="F7">
-        <f>B7/E7</f>
+        <f t="shared" si="0"/>
         <v>1.1619150009880071E-4</v>
       </c>
       <c r="G7">
-        <f>C7/E7</f>
+        <f t="shared" si="1"/>
         <v>9.1487610491034366E-5</v>
       </c>
       <c r="H7">
-        <f>D7/E7</f>
+        <f t="shared" si="2"/>
         <v>3.3039292710112093E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7">
+        <v>2.7811568623293301E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1170,19 +1195,22 @@
         <v>266034035</v>
       </c>
       <c r="F8">
-        <f>B8/E8</f>
+        <f t="shared" si="0"/>
         <v>1.3006484824451691E-4</v>
       </c>
       <c r="G8">
-        <f>C8/E8</f>
+        <f t="shared" si="1"/>
         <v>2.0388275729533138E-4</v>
       </c>
       <c r="H8">
-        <f>D8/E8</f>
+        <f t="shared" si="2"/>
         <v>3.1431551670976499E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8">
+        <v>3.0532013901306498E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1199,19 +1227,22 @@
         <v>381457164</v>
       </c>
       <c r="F9">
-        <f>B9/E9</f>
+        <f t="shared" si="0"/>
         <v>5.6903285353099569E-4</v>
       </c>
       <c r="G9">
-        <f>C9/E9</f>
+        <f t="shared" si="1"/>
         <v>2.379143919593677E-3</v>
       </c>
       <c r="H9">
-        <f>D9/E9</f>
+        <f t="shared" si="2"/>
         <v>6.6707820999666956E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9">
+        <v>3.1939831447169803E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1228,19 +1259,22 @@
         <v>344640365</v>
       </c>
       <c r="F10">
-        <f>B10/E10</f>
+        <f t="shared" si="0"/>
         <v>4.4125154129862591E-4</v>
       </c>
       <c r="G10">
-        <f>C10/E10</f>
+        <f t="shared" si="1"/>
         <v>3.7580995407380965E-4</v>
       </c>
       <c r="H10">
-        <f>D10/E10</f>
+        <f t="shared" si="2"/>
         <v>3.2841292775992446E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10">
+        <v>3.8388076019695197E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1257,19 +1291,22 @@
         <v>357550409</v>
       </c>
       <c r="F11">
-        <f>B11/E11</f>
+        <f t="shared" si="0"/>
         <v>8.909000782921185E-5</v>
       </c>
       <c r="G11">
-        <f>C11/E11</f>
+        <f t="shared" si="1"/>
         <v>6.0532078379076893E-5</v>
       </c>
       <c r="H11">
-        <f>D11/E11</f>
+        <f t="shared" si="2"/>
         <v>2.5478067730023068E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11">
+        <v>3.5548526459626299E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1286,19 +1323,22 @@
         <v>303665320</v>
       </c>
       <c r="F12">
-        <f>B12/E12</f>
+        <f t="shared" si="0"/>
         <v>7.1285770665312719E-4</v>
       </c>
       <c r="G12">
-        <f>C12/E12</f>
+        <f t="shared" si="1"/>
         <v>1.3116757141359012E-3</v>
       </c>
       <c r="H12">
-        <f>D12/E12</f>
+        <f t="shared" si="2"/>
         <v>6.8053472472642583E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12">
+        <v>3.7304882361871301E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1315,19 +1355,22 @@
         <v>234494627</v>
       </c>
       <c r="F13">
-        <f>B13/E13</f>
+        <f t="shared" si="0"/>
         <v>2.1962087551835293E-4</v>
       </c>
       <c r="G13">
-        <f>C13/E13</f>
+        <f t="shared" si="1"/>
         <v>5.2403982109147434E-4</v>
       </c>
       <c r="H13">
-        <f>D13/E13</f>
+        <f t="shared" si="2"/>
         <v>3.7812256715339322E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I13">
+        <v>5.1925117036093399E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1344,19 +1387,22 @@
         <v>1064527710</v>
       </c>
       <c r="F14">
-        <f>B14/E14</f>
+        <f t="shared" si="0"/>
         <v>1.3467818178739094E-4</v>
       </c>
       <c r="G14">
-        <f>C14/E14</f>
+        <f t="shared" si="1"/>
         <v>2.0877677052552067E-4</v>
       </c>
       <c r="H14">
-        <f>D14/E14</f>
+        <f t="shared" si="2"/>
         <v>6.4045724634080496E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14">
+        <v>2.31979813975643E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1373,19 +1419,22 @@
         <v>221263526</v>
       </c>
       <c r="F15">
-        <f>B15/E15</f>
+        <f t="shared" si="0"/>
         <v>2.4497048226105824E-4</v>
       </c>
       <c r="G15">
-        <f>C15/E15</f>
+        <f t="shared" si="1"/>
         <v>1.6734812712011333E-3</v>
       </c>
       <c r="H15">
-        <f>D15/E15</f>
+        <f t="shared" si="2"/>
         <v>6.5018107822667976E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I15">
+        <v>1.60504297457995E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1402,19 +1451,22 @@
         <v>243128289</v>
       </c>
       <c r="F16">
-        <f>B16/E16</f>
+        <f t="shared" si="0"/>
         <v>1.603947125312678E-4</v>
       </c>
       <c r="G16">
-        <f>C16/E16</f>
+        <f t="shared" si="1"/>
         <v>9.1053118183995031E-5</v>
       </c>
       <c r="H16">
-        <f>D16/E16</f>
+        <f t="shared" si="2"/>
         <v>2.392744176702967E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16">
+        <v>4.0756656705499501E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1431,19 +1483,22 @@
         <v>292998252</v>
       </c>
       <c r="F17">
-        <f>B17/E17</f>
+        <f t="shared" si="0"/>
         <v>6.7718120428789111E-5</v>
       </c>
       <c r="G17">
-        <f>C17/E17</f>
+        <f t="shared" si="1"/>
         <v>1.2341753190681153E-4</v>
       </c>
       <c r="H17">
-        <f>D17/E17</f>
+        <f t="shared" si="2"/>
         <v>2.2019292856598821E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17">
+        <v>1.95065167203608E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1460,19 +1515,22 @@
         <v>247215334</v>
       </c>
       <c r="F18">
-        <f>B18/E18</f>
+        <f t="shared" si="0"/>
         <v>8.0548138306692977E-5</v>
       </c>
       <c r="G18">
-        <f>C18/E18</f>
+        <f t="shared" si="1"/>
         <v>7.1949292647606559E-5</v>
       </c>
       <c r="H18">
-        <f>D18/E18</f>
+        <f t="shared" si="2"/>
         <v>1.9679149107503418E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18">
+        <v>3.1310135568525403E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1489,19 +1547,22 @@
         <v>286145283</v>
       </c>
       <c r="F19">
-        <f>B19/E19</f>
+        <f t="shared" si="0"/>
         <v>1.1120665438959936E-4</v>
       </c>
       <c r="G19">
-        <f>C19/E19</f>
+        <f t="shared" si="1"/>
         <v>1.3849507893075839E-4</v>
       </c>
       <c r="H19">
-        <f>D19/E19</f>
+        <f t="shared" si="2"/>
         <v>2.1136832040750679E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I19">
+        <v>3.2598592102787101E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -1518,19 +1579,22 @@
         <v>248400663</v>
       </c>
       <c r="F20">
-        <f>B20/E20</f>
+        <f t="shared" si="0"/>
         <v>1.0951105271035731E-4</v>
       </c>
       <c r="G20">
-        <f>C20/E20</f>
+        <f t="shared" si="1"/>
         <v>1.4167042807745444E-4</v>
       </c>
       <c r="H20">
-        <f>D20/E20</f>
+        <f t="shared" si="2"/>
         <v>2.1656208848074812E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I20">
+        <v>3.3380280672896598E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -1547,19 +1611,22 @@
         <v>290740814</v>
       </c>
       <c r="F21">
-        <f>B21/E21</f>
+        <f t="shared" si="0"/>
         <v>4.7052165461101034E-5</v>
       </c>
       <c r="G21">
-        <f>C21/E21</f>
+        <f t="shared" si="1"/>
         <v>1.7835987176376515E-3</v>
       </c>
       <c r="H21">
-        <f>D21/E21</f>
+        <f t="shared" si="2"/>
         <v>1.6911797796804475E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I21">
+        <v>5.4384259331017697E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1576,19 +1643,22 @@
         <v>372774442</v>
       </c>
       <c r="F22">
-        <f>B22/E22</f>
+        <f t="shared" si="0"/>
         <v>5.9577546881432923E-5</v>
       </c>
       <c r="G22">
-        <f>C22/E22</f>
+        <f t="shared" si="1"/>
         <v>5.1474814856910449E-4</v>
       </c>
       <c r="H22">
-        <f>D22/E22</f>
+        <f t="shared" si="2"/>
         <v>3.2573387554233127E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I22">
+        <v>3.1015212557219798E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1605,19 +1675,22 @@
         <v>254949173</v>
       </c>
       <c r="F23">
-        <f>B23/E23</f>
+        <f t="shared" si="0"/>
         <v>5.535445440561402E-5</v>
       </c>
       <c r="G23">
-        <f>C23/E23</f>
+        <f t="shared" si="1"/>
         <v>1.089799802692084E-4</v>
       </c>
       <c r="H23">
-        <f>D23/E23</f>
+        <f t="shared" si="2"/>
         <v>1.9109678804562586E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I23">
+        <v>1.9435635680405301E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1634,19 +1707,22 @@
         <v>333858766</v>
       </c>
       <c r="F24">
-        <f>B24/E24</f>
+        <f t="shared" si="0"/>
         <v>9.0733858728385465E-5</v>
       </c>
       <c r="G24">
-        <f>C24/E24</f>
+        <f t="shared" si="1"/>
         <v>3.2442430669464881E-4</v>
       </c>
       <c r="H24">
-        <f>D24/E24</f>
+        <f t="shared" si="2"/>
         <v>3.0056933072812892E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I24">
+        <v>9.7959572047813803E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1663,19 +1739,22 @@
         <v>268651985</v>
       </c>
       <c r="F25">
-        <f>B25/E25</f>
+        <f t="shared" si="0"/>
         <v>1.0991016104583445E-4</v>
       </c>
       <c r="G25">
-        <f>C25/E25</f>
+        <f t="shared" si="1"/>
         <v>5.7759272866292428E-5</v>
       </c>
       <c r="H25">
-        <f>D25/E25</f>
+        <f t="shared" si="2"/>
         <v>2.1867005312205903E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I25">
+        <v>2.9006164810417099E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1692,19 +1771,22 @@
         <v>329496557</v>
       </c>
       <c r="F26">
-        <f>B26/E26</f>
+        <f t="shared" si="0"/>
         <v>7.110424269038053E-5</v>
       </c>
       <c r="G26">
-        <f>C26/E26</f>
+        <f t="shared" si="1"/>
         <v>1.2821739998427448E-4</v>
       </c>
       <c r="H26">
-        <f>D26/E26</f>
+        <f t="shared" si="2"/>
         <v>1.8260876992760291E-3</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I26">
+        <v>3.5584883003346703E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -1721,19 +1803,22 @@
         <v>379764377</v>
       </c>
       <c r="F27">
-        <f>B27/E27</f>
+        <f t="shared" si="0"/>
         <v>2.2830393029771905E-4</v>
       </c>
       <c r="G27">
-        <f>C27/E27</f>
+        <f t="shared" si="1"/>
         <v>1.7851003647417464E-4</v>
       </c>
       <c r="H27">
-        <f>D27/E27</f>
+        <f t="shared" si="2"/>
         <v>3.2286630534070077E-3</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I27">
+        <v>4.7139396521838003E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -1750,19 +1835,22 @@
         <v>360109965</v>
       </c>
       <c r="F28">
-        <f>B28/E28</f>
+        <f t="shared" si="0"/>
         <v>3.2663601679412842E-4</v>
       </c>
       <c r="G28">
-        <f>C28/E28</f>
+        <f t="shared" si="1"/>
         <v>7.3247530122058689E-4</v>
       </c>
       <c r="H28">
-        <f>D28/E28</f>
+        <f t="shared" si="2"/>
         <v>9.8980865557621815E-3</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I28">
+        <v>2.94305701564407E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -1779,19 +1867,22 @@
         <v>406547227</v>
       </c>
       <c r="F29">
-        <f>B29/E29</f>
+        <f t="shared" si="0"/>
         <v>1.5676580043064617E-4</v>
       </c>
       <c r="G29">
-        <f>C29/E29</f>
+        <f t="shared" si="1"/>
         <v>1.5633639283742452E-3</v>
       </c>
       <c r="H29">
-        <f>D29/E29</f>
+        <f t="shared" si="2"/>
         <v>2.1102035388137182E-3</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I29">
+        <v>1.6140083195109099E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1808,19 +1899,22 @@
         <v>198137012</v>
       </c>
       <c r="F30">
-        <f>B30/E30</f>
+        <f t="shared" si="0"/>
         <v>6.3244613202763448E-5</v>
       </c>
       <c r="G30">
-        <f>C30/E30</f>
+        <f t="shared" si="1"/>
         <v>9.2822640008144463E-5</v>
       </c>
       <c r="H30">
-        <f>D30/E30</f>
+        <f t="shared" si="2"/>
         <v>1.8929791538949722E-3</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I30">
+        <v>6.3200848274608701E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1837,19 +1931,22 @@
         <v>253247958</v>
       </c>
       <c r="F31">
-        <f>B31/E31</f>
+        <f t="shared" si="0"/>
         <v>6.0822908405287124E-5</v>
       </c>
       <c r="G31">
-        <f>C31/E31</f>
+        <f t="shared" si="1"/>
         <v>1.5234353309897882E-4</v>
       </c>
       <c r="H31">
-        <f>D31/E31</f>
+        <f t="shared" si="2"/>
         <v>1.2752609170669246E-3</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I31">
+        <v>1.8602561206741301E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -1866,19 +1963,22 @@
         <v>101426752</v>
       </c>
       <c r="F32">
-        <f>B32/E32</f>
+        <f t="shared" si="0"/>
         <v>2.0101301859376706E-4</v>
       </c>
       <c r="G32">
-        <f>C32/E32</f>
+        <f t="shared" si="1"/>
         <v>4.722742075972294E-4</v>
       </c>
       <c r="H32">
-        <f>D32/E32</f>
+        <f t="shared" si="2"/>
         <v>2.8684000901407648E-3</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I32">
+        <v>2.5349072386983799E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -1895,19 +1995,22 @@
         <v>203142728</v>
       </c>
       <c r="F33">
-        <f>B33/E33</f>
+        <f t="shared" si="0"/>
         <v>1.8239069891025979E-4</v>
       </c>
       <c r="G33">
-        <f>C33/E33</f>
+        <f t="shared" si="1"/>
         <v>3.150433364563717E-4</v>
       </c>
       <c r="H33">
-        <f>D33/E33</f>
+        <f t="shared" si="2"/>
         <v>1.904098502964433E-3</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I33">
+        <v>2.4006128084000499E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -1924,19 +2027,22 @@
         <v>199342794</v>
       </c>
       <c r="F34">
-        <f>B34/E34</f>
+        <f t="shared" ref="F34:F65" si="3">B34/E34</f>
         <v>1.5210158461492819E-4</v>
       </c>
       <c r="G34">
-        <f>C34/E34</f>
+        <f t="shared" ref="G34:G65" si="4">C34/E34</f>
         <v>1.3561452365997288E-4</v>
       </c>
       <c r="H34">
-        <f>D34/E34</f>
+        <f t="shared" ref="H34:H65" si="5">D34/E34</f>
         <v>2.5416182089895911E-3</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I34">
+        <v>4.35784951139764E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -1953,19 +2059,22 @@
         <v>265480342</v>
       </c>
       <c r="F35">
-        <f>B35/E35</f>
+        <f t="shared" si="3"/>
         <v>4.4048950794642642E-4</v>
       </c>
       <c r="G35">
-        <f>C35/E35</f>
+        <f t="shared" si="4"/>
         <v>1.3305403911301388E-3</v>
       </c>
       <c r="H35">
-        <f>D35/E35</f>
+        <f t="shared" si="5"/>
         <v>4.3383590284522457E-3</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I35">
+        <v>3.4576750436657103E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -1982,19 +2091,22 @@
         <v>165343726</v>
       </c>
       <c r="F36">
-        <f>B36/E36</f>
+        <f t="shared" si="3"/>
         <v>1.545289969297837E-4</v>
       </c>
       <c r="G36">
-        <f>C36/E36</f>
+        <f t="shared" si="4"/>
         <v>1.9931856754775381E-4</v>
       </c>
       <c r="H36">
-        <f>D36/E36</f>
+        <f t="shared" si="5"/>
         <v>2.6485868099613286E-3</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I36">
+        <v>3.6805632086990198E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2011,19 +2123,22 @@
         <v>194715216</v>
       </c>
       <c r="F37">
-        <f>B37/E37</f>
+        <f t="shared" si="3"/>
         <v>1.1070946345082553E-4</v>
       </c>
       <c r="G37">
-        <f>C37/E37</f>
+        <f t="shared" si="4"/>
         <v>8.9731322632152696E-5</v>
       </c>
       <c r="H37">
-        <f>D37/E37</f>
+        <f t="shared" si="5"/>
         <v>2.5510053968233327E-3</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I37">
+        <v>8.3307566630839894E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>34</v>
       </c>
@@ -2040,19 +2155,22 @@
         <v>242577159</v>
       </c>
       <c r="F38">
-        <f>B38/E38</f>
+        <f t="shared" si="3"/>
         <v>2.0351468280568985E-4</v>
       </c>
       <c r="G38">
-        <f>C38/E38</f>
+        <f t="shared" si="4"/>
         <v>3.786674954564304E-4</v>
       </c>
       <c r="H38">
-        <f>D38/E38</f>
+        <f t="shared" si="5"/>
         <v>9.1288191245712871E-3</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I38">
+        <v>5.91436179364608E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>33</v>
       </c>
@@ -2069,19 +2187,22 @@
         <v>155876239</v>
       </c>
       <c r="F39">
-        <f>B39/E39</f>
+        <f t="shared" si="3"/>
         <v>1.3298378341150443E-4</v>
       </c>
       <c r="G39">
-        <f>C39/E39</f>
+        <f t="shared" si="4"/>
         <v>3.8146828747971586E-5</v>
       </c>
       <c r="H39">
-        <f>D39/E39</f>
+        <f t="shared" si="5"/>
         <v>2.3094817177594529E-3</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I39">
+        <v>3.7780535121182797E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -2098,19 +2219,22 @@
         <v>227326165</v>
       </c>
       <c r="F40">
-        <f>B40/E40</f>
+        <f t="shared" si="3"/>
         <v>9.8237525390207497E-5</v>
       </c>
       <c r="G40">
-        <f>C40/E40</f>
+        <f t="shared" si="4"/>
         <v>5.3663069992701009E-4</v>
       </c>
       <c r="H40">
-        <f>D40/E40</f>
+        <f t="shared" si="5"/>
         <v>2.3180424386901083E-3</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I40">
+        <v>4.3081923015253501E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -2127,19 +2251,22 @@
         <v>198996548</v>
       </c>
       <c r="F41">
-        <f>B41/E41</f>
+        <f t="shared" si="3"/>
         <v>1.3764652054847604E-4</v>
       </c>
       <c r="G41">
-        <f>C41/E41</f>
+        <f t="shared" si="4"/>
         <v>2.0059115285954256E-4</v>
       </c>
       <c r="H41">
-        <f>D41/E41</f>
+        <f t="shared" si="5"/>
         <v>2.2485257936294954E-3</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I41">
+        <v>1.4936182205775601E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -2156,19 +2283,22 @@
         <v>188010395</v>
       </c>
       <c r="F42">
-        <f>B42/E42</f>
+        <f t="shared" si="3"/>
         <v>5.0400258573530892E-5</v>
       </c>
       <c r="G42">
-        <f>C42/E42</f>
+        <f t="shared" si="4"/>
         <v>1.4492512856356267E-4</v>
       </c>
       <c r="H42">
-        <f>D42/E42</f>
+        <f t="shared" si="5"/>
         <v>1.7799877357819974E-3</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I42">
+        <v>5.5263874611240403E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -2185,19 +2315,22 @@
         <v>302300119</v>
       </c>
       <c r="F43">
-        <f>B43/E43</f>
+        <f t="shared" si="3"/>
         <v>6.4743559938343589E-5</v>
       </c>
       <c r="G43">
-        <f>C43/E43</f>
+        <f t="shared" si="4"/>
         <v>4.5765934235843288E-5</v>
       </c>
       <c r="H43">
-        <f>D43/E43</f>
+        <f t="shared" si="5"/>
         <v>1.5072922244317344E-3</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I43">
+        <v>1.81659746070961E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>57</v>
       </c>
@@ -2214,19 +2347,22 @@
         <v>211718785</v>
       </c>
       <c r="F44">
-        <f>B44/E44</f>
+        <f t="shared" si="3"/>
         <v>6.6550628795939381E-5</v>
       </c>
       <c r="G44">
-        <f>C44/E44</f>
+        <f t="shared" si="4"/>
         <v>7.0354110002749637E-5</v>
       </c>
       <c r="H44">
-        <f>D44/E44</f>
+        <f t="shared" si="5"/>
         <v>2.65389485630874E-3</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I44">
+        <v>4.4835099071042599E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>90</v>
       </c>
@@ -2243,19 +2379,22 @@
         <v>270046469</v>
       </c>
       <c r="F45">
-        <f>B45/E45</f>
+        <f t="shared" si="3"/>
         <v>5.7085312984560821E-5</v>
       </c>
       <c r="G45">
-        <f>C45/E45</f>
+        <f t="shared" si="4"/>
         <v>1.5949010601854304E-4</v>
       </c>
       <c r="H45">
-        <f>D45/E45</f>
+        <f t="shared" si="5"/>
         <v>2.1368815575531965E-3</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I45">
+        <v>4.4187253886032798E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>89</v>
       </c>
@@ -2272,19 +2411,22 @@
         <v>264491758</v>
       </c>
       <c r="F46">
-        <f>B46/E46</f>
+        <f t="shared" si="3"/>
         <v>5.4450111461989299E-5</v>
       </c>
       <c r="G46">
-        <f>C46/E46</f>
+        <f t="shared" si="4"/>
         <v>2.4448715820680241E-4</v>
       </c>
       <c r="H46">
-        <f>D46/E46</f>
+        <f t="shared" si="5"/>
         <v>2.0231839927509804E-3</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I46">
+        <v>2.45311327762055E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -2301,19 +2443,22 @@
         <v>134794655</v>
       </c>
       <c r="F47">
-        <f>B47/E47</f>
+        <f t="shared" si="3"/>
         <v>1.2522703396076427E-4</v>
       </c>
       <c r="G47">
-        <f>C47/E47</f>
+        <f t="shared" si="4"/>
         <v>1.5351895596096152E-4</v>
       </c>
       <c r="H47">
-        <f>D47/E47</f>
+        <f t="shared" si="5"/>
         <v>2.7930133534260614E-3</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I47">
+        <v>2.09262769212353E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>106</v>
       </c>
@@ -2330,19 +2475,22 @@
         <v>205351653</v>
       </c>
       <c r="F48">
-        <f>B48/E48</f>
+        <f t="shared" si="3"/>
         <v>5.0344797974756013E-5</v>
       </c>
       <c r="G48">
-        <f>C48/E48</f>
+        <f t="shared" si="4"/>
         <v>7.8594958844105826E-5</v>
       </c>
       <c r="H48">
-        <f>D48/E48</f>
+        <f t="shared" si="5"/>
         <v>2.1140421706500948E-3</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I48">
+        <v>7.7161096906239707E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>105</v>
       </c>
@@ -2359,19 +2507,22 @@
         <v>264590527</v>
       </c>
       <c r="F49">
-        <f>B49/E49</f>
+        <f t="shared" si="3"/>
         <v>1.700246746645102E-4</v>
       </c>
       <c r="G49">
-        <f>C49/E49</f>
+        <f t="shared" si="4"/>
         <v>1.5682330722288859E-4</v>
       </c>
       <c r="H49">
-        <f>D49/E49</f>
+        <f t="shared" si="5"/>
         <v>2.6774731084499978E-3</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I49">
+        <v>3.6533561719083202E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>108</v>
       </c>
@@ -2388,19 +2539,22 @@
         <v>274262559</v>
       </c>
       <c r="F50">
-        <f>B50/E50</f>
+        <f t="shared" si="3"/>
         <v>2.3023521228934349E-4</v>
       </c>
       <c r="G50">
-        <f>C50/E50</f>
+        <f t="shared" si="4"/>
         <v>6.5517990112853874E-4</v>
       </c>
       <c r="H50">
-        <f>D50/E50</f>
+        <f t="shared" si="5"/>
         <v>2.4954195220930394E-3</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I50">
+        <v>3.4924505588712997E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>107</v>
       </c>
@@ -2417,19 +2571,22 @@
         <v>225903500</v>
       </c>
       <c r="F51">
-        <f>B51/E51</f>
+        <f t="shared" si="3"/>
         <v>1.4630502984603382E-4</v>
       </c>
       <c r="G51">
-        <f>C51/E51</f>
+        <f t="shared" si="4"/>
         <v>6.035098310833121E-4</v>
       </c>
       <c r="H51">
-        <f>D51/E51</f>
+        <f t="shared" si="5"/>
         <v>1.738452614110286E-3</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I51">
+        <v>1.41084594277412E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>111</v>
       </c>
@@ -2446,19 +2603,22 @@
         <v>274386816</v>
       </c>
       <c r="F52">
-        <f>B52/E52</f>
+        <f t="shared" si="3"/>
         <v>4.9312954757971317E-5</v>
       </c>
       <c r="G52">
-        <f>C52/E52</f>
+        <f t="shared" si="4"/>
         <v>4.7203932888301752E-5</v>
       </c>
       <c r="H52">
-        <f>D52/E52</f>
+        <f t="shared" si="5"/>
         <v>1.6075453961655541E-3</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I52">
+        <v>3.9224233888560098E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>109</v>
       </c>
@@ -2475,19 +2635,22 @@
         <v>298456081</v>
       </c>
       <c r="F53">
-        <f>B53/E53</f>
+        <f t="shared" si="3"/>
         <v>9.9514841379037605E-5</v>
       </c>
       <c r="G53">
-        <f>C53/E53</f>
+        <f t="shared" si="4"/>
         <v>2.6904691688249235E-4</v>
       </c>
       <c r="H53">
-        <f>D53/E53</f>
+        <f t="shared" si="5"/>
         <v>1.2843583149687674E-3</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I53">
+        <v>1.0226162620577999E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>110</v>
       </c>
@@ -2504,19 +2667,22 @@
         <v>288933336</v>
       </c>
       <c r="F54">
-        <f>B54/E54</f>
+        <f t="shared" si="3"/>
         <v>2.0809404454673862E-4</v>
       </c>
       <c r="G54">
-        <f>C54/E54</f>
+        <f t="shared" si="4"/>
         <v>9.9170404013057198E-4</v>
       </c>
       <c r="H54">
-        <f>D54/E54</f>
+        <f t="shared" si="5"/>
         <v>2.4066880065509262E-3</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I54">
+        <v>1.05146421188661E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>114</v>
       </c>
@@ -2533,19 +2699,22 @@
         <v>220667248</v>
       </c>
       <c r="F55">
-        <f>B55/E55</f>
+        <f t="shared" si="3"/>
         <v>5.7605472123673735E-5</v>
       </c>
       <c r="G55">
-        <f>C55/E55</f>
+        <f t="shared" si="4"/>
         <v>4.226716573991642E-5</v>
       </c>
       <c r="H55">
-        <f>D55/E55</f>
+        <f t="shared" si="5"/>
         <v>1.1970668925111081E-3</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I55">
+        <v>1.5735225453780401E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>112</v>
       </c>
@@ -2562,19 +2731,22 @@
         <v>183888911</v>
       </c>
       <c r="F56">
-        <f>B56/E56</f>
+        <f t="shared" si="3"/>
         <v>7.6691482191637979E-5</v>
       </c>
       <c r="G56">
-        <f>C56/E56</f>
+        <f t="shared" si="4"/>
         <v>1.5081552559703613E-4</v>
       </c>
       <c r="H56">
-        <f>D56/E56</f>
+        <f t="shared" si="5"/>
         <v>1.2935775369899711E-3</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I56">
+        <v>1.3966771289849699E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>100</v>
       </c>
@@ -2591,19 +2763,22 @@
         <v>206364947</v>
       </c>
       <c r="F57">
-        <f>B57/E57</f>
+        <f t="shared" si="3"/>
         <v>4.7789279004416039E-5</v>
       </c>
       <c r="G57">
-        <f>C57/E57</f>
+        <f t="shared" si="4"/>
         <v>3.0590222436833279E-5</v>
       </c>
       <c r="H57">
-        <f>D57/E57</f>
+        <f t="shared" si="5"/>
         <v>1.4581218442245377E-3</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I57">
+        <v>6.3335923045665501E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>99</v>
       </c>
@@ -2620,19 +2795,22 @@
         <v>334359430</v>
       </c>
       <c r="F58">
-        <f>B58/E58</f>
+        <f t="shared" si="3"/>
         <v>1.4498417903376675E-4</v>
       </c>
       <c r="G58">
-        <f>C58/E58</f>
+        <f t="shared" si="4"/>
         <v>3.9099151936867457E-4</v>
       </c>
       <c r="H58">
-        <f>D58/E58</f>
+        <f t="shared" si="5"/>
         <v>1.9248304807144368E-3</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I58">
+        <v>1.5489071884850301E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>95</v>
       </c>
@@ -2649,19 +2827,22 @@
         <v>407546955</v>
       </c>
       <c r="F59">
-        <f>B59/E59</f>
+        <f t="shared" si="3"/>
         <v>7.2551976515986233E-4</v>
       </c>
       <c r="G59">
-        <f>C59/E59</f>
+        <f t="shared" si="4"/>
         <v>1.7442821946415867E-3</v>
       </c>
       <c r="H59">
-        <f>D59/E59</f>
+        <f t="shared" si="5"/>
         <v>4.8270040018466827E-3</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I59">
+        <v>3.9828388248801201E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>98</v>
       </c>
@@ -2678,19 +2859,22 @@
         <v>215968900</v>
       </c>
       <c r="F60">
-        <f>B60/E60</f>
+        <f t="shared" si="3"/>
         <v>4.9308492939736226E-5</v>
       </c>
       <c r="G60">
-        <f>C60/E60</f>
+        <f t="shared" si="4"/>
         <v>4.9331215530830595E-5</v>
       </c>
       <c r="H60">
-        <f>D60/E60</f>
+        <f t="shared" si="5"/>
         <v>2.1700922607281281E-3</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I60">
+        <v>4.66408851389351E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>97</v>
       </c>
@@ -2707,19 +2891,22 @@
         <v>353444061</v>
       </c>
       <c r="F61">
-        <f>B61/E61</f>
+        <f t="shared" si="3"/>
         <v>1.2333767510809893E-4</v>
       </c>
       <c r="G61">
-        <f>C61/E61</f>
+        <f t="shared" si="4"/>
         <v>9.5940063643791139E-4</v>
       </c>
       <c r="H61">
-        <f>D61/E61</f>
+        <f t="shared" si="5"/>
         <v>4.7257101236181757E-3</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I61">
+        <v>1.69140994624833E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>94</v>
       </c>
@@ -2736,19 +2923,22 @@
         <v>387585432</v>
       </c>
       <c r="F62">
-        <f>B62/E62</f>
+        <f t="shared" si="3"/>
         <v>1.8663416580376579E-4</v>
       </c>
       <c r="G62">
-        <f>C62/E62</f>
+        <f t="shared" si="4"/>
         <v>1.2342645903558108E-3</v>
       </c>
       <c r="H62">
-        <f>D62/E62</f>
+        <f t="shared" si="5"/>
         <v>4.8048183105437511E-3</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I62">
+        <v>2.09195418760675E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>46</v>
       </c>
@@ -2765,19 +2955,22 @@
         <v>209774688</v>
       </c>
       <c r="F63">
-        <f>B63/E63</f>
+        <f t="shared" si="3"/>
         <v>8.1021655900898789E-5</v>
       </c>
       <c r="G63">
-        <f>C63/E63</f>
+        <f t="shared" si="4"/>
         <v>1.4787668019110103E-5</v>
       </c>
       <c r="H63">
-        <f>D63/E63</f>
+        <f t="shared" si="5"/>
         <v>2.1543468556823211E-3</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I63">
+        <v>3.6961916956247599E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>42</v>
       </c>
@@ -2794,19 +2987,22 @@
         <v>208490145</v>
       </c>
       <c r="F64">
-        <f>B64/E64</f>
+        <f t="shared" si="3"/>
         <v>4.2802080001458294E-4</v>
       </c>
       <c r="G64">
-        <f>C64/E64</f>
+        <f t="shared" si="4"/>
         <v>1.1865592626281736E-3</v>
       </c>
       <c r="H64">
-        <f>D64/E64</f>
+        <f t="shared" si="5"/>
         <v>4.5794300728615109E-3</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I64">
+        <v>1.49232795542566E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>51</v>
       </c>
@@ -2823,19 +3019,22 @@
         <v>178945402</v>
       </c>
       <c r="F65">
-        <f>B65/E65</f>
+        <f t="shared" si="3"/>
         <v>1.821281826875004E-4</v>
       </c>
       <c r="G65">
-        <f>C65/E65</f>
+        <f t="shared" si="4"/>
         <v>4.8427613639682791E-5</v>
       </c>
       <c r="H65">
-        <f>D65/E65</f>
+        <f t="shared" si="5"/>
         <v>3.5363396820314668E-3</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I65">
+        <v>3.2240925156384298E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>49</v>
       </c>
@@ -2852,19 +3051,22 @@
         <v>221516962</v>
       </c>
       <c r="F66">
-        <f>B66/E66</f>
+        <f t="shared" ref="F66:F97" si="6">B66/E66</f>
         <v>1.3181718182260282E-4</v>
       </c>
       <c r="G66">
-        <f>C66/E66</f>
+        <f t="shared" ref="G66:G97" si="7">C66/E66</f>
         <v>1.8347191798463407E-4</v>
       </c>
       <c r="H66">
-        <f>D66/E66</f>
+        <f t="shared" ref="H66:H97" si="8">D66/E66</f>
         <v>2.4025796741969628E-3</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I66">
+        <v>5.1451453674886703E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>50</v>
       </c>
@@ -2881,19 +3083,22 @@
         <v>159339848</v>
       </c>
       <c r="F67">
-        <f>B67/E67</f>
+        <f t="shared" si="6"/>
         <v>1.4048119439141803E-4</v>
       </c>
       <c r="G67">
-        <f>C67/E67</f>
+        <f t="shared" si="7"/>
         <v>1.3864430287229094E-4</v>
       </c>
       <c r="H67">
-        <f>D67/E67</f>
+        <f t="shared" si="8"/>
         <v>2.9140425886797759E-3</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I67">
+        <v>6.2926592606822596E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>52</v>
       </c>
@@ -2910,19 +3115,22 @@
         <v>213962639</v>
       </c>
       <c r="F68">
-        <f>B68/E68</f>
+        <f t="shared" si="6"/>
         <v>3.2586451135311382E-5</v>
       </c>
       <c r="G68">
-        <f>C68/E68</f>
+        <f t="shared" si="7"/>
         <v>1.8370056236545389E-4</v>
       </c>
       <c r="H68">
-        <f>D68/E68</f>
+        <f t="shared" si="8"/>
         <v>2.1645490143078483E-3</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I68">
+        <v>2.48352124848009E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>54</v>
       </c>
@@ -2939,19 +3147,22 @@
         <v>191355857</v>
       </c>
       <c r="F69">
-        <f>B69/E69</f>
+        <f t="shared" si="6"/>
         <v>4.3158324564821446E-5</v>
       </c>
       <c r="G69">
-        <f>C69/E69</f>
+        <f t="shared" si="7"/>
         <v>1.9972427947670659E-4</v>
       </c>
       <c r="H69">
-        <f>D69/E69</f>
+        <f t="shared" si="8"/>
         <v>1.7752757684968328E-3</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I69">
+        <v>2.6728630328554E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>53</v>
       </c>
@@ -2968,19 +3179,22 @@
         <v>127615714</v>
       </c>
       <c r="F70">
-        <f>B70/E70</f>
+        <f t="shared" si="6"/>
         <v>5.4489930877511839E-5</v>
       </c>
       <c r="G70">
-        <f>C70/E70</f>
+        <f t="shared" si="7"/>
         <v>1.3069247013316245E-4</v>
       </c>
       <c r="H70">
-        <f>D70/E70</f>
+        <f t="shared" si="8"/>
         <v>1.8774760731550661E-3</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I70">
+        <v>3.0793461439600999E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>60</v>
       </c>
@@ -2997,19 +3211,22 @@
         <v>143616088</v>
       </c>
       <c r="F71">
-        <f>B71/E71</f>
+        <f t="shared" si="6"/>
         <v>9.5019928130943797E-5</v>
       </c>
       <c r="G71">
-        <f>C71/E71</f>
+        <f t="shared" si="7"/>
         <v>2.002521256267933E-5</v>
       </c>
       <c r="H71">
-        <f>D71/E71</f>
+        <f t="shared" si="8"/>
         <v>2.2791642468049053E-3</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I71">
+        <v>2.50564776472177E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>56</v>
       </c>
@@ -3026,19 +3243,22 @@
         <v>221907464</v>
       </c>
       <c r="F72">
-        <f>B72/E72</f>
+        <f t="shared" si="6"/>
         <v>4.4690833244239544E-5</v>
       </c>
       <c r="G72">
-        <f>C72/E72</f>
+        <f t="shared" si="7"/>
         <v>2.2804391958368693E-5</v>
       </c>
       <c r="H72">
-        <f>D72/E72</f>
+        <f t="shared" si="8"/>
         <v>2.0888391402585495E-3</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I72">
+        <v>1.7214952642249599E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>55</v>
       </c>
@@ -3055,19 +3275,22 @@
         <v>110164227</v>
       </c>
       <c r="F73">
-        <f>B73/E73</f>
+        <f t="shared" si="6"/>
         <v>1.6733266646240525E-4</v>
       </c>
       <c r="G73">
-        <f>C73/E73</f>
+        <f t="shared" si="7"/>
         <v>3.2104783280787876E-5</v>
       </c>
       <c r="H73">
-        <f>D73/E73</f>
+        <f t="shared" si="8"/>
         <v>3.1113575719217816E-3</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I73">
+        <v>2.5162924723191499E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>48</v>
       </c>
@@ -3084,19 +3307,22 @@
         <v>124043396</v>
       </c>
       <c r="F74">
-        <f>B74/E74</f>
+        <f t="shared" si="6"/>
         <v>7.3215268113577519E-5</v>
       </c>
       <c r="G74">
-        <f>C74/E74</f>
+        <f t="shared" si="7"/>
         <v>1.7271353599252717E-5</v>
       </c>
       <c r="H74">
-        <f>D74/E74</f>
+        <f t="shared" si="8"/>
         <v>4.181321321399166E-3</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I74">
+        <v>3.6142707063145499E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>47</v>
       </c>
@@ -3113,19 +3339,22 @@
         <v>196340040</v>
       </c>
       <c r="F75">
-        <f>B75/E75</f>
+        <f t="shared" si="6"/>
         <v>1.0233640541016035E-4</v>
       </c>
       <c r="G75">
-        <f>C75/E75</f>
+        <f t="shared" si="7"/>
         <v>3.430432818802421E-5</v>
       </c>
       <c r="H75">
-        <f>D75/E75</f>
+        <f t="shared" si="8"/>
         <v>3.3023925009426354E-3</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I75">
+        <v>2.4374880765251902E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>58</v>
       </c>
@@ -3142,19 +3371,22 @@
         <v>198932377</v>
       </c>
       <c r="F76">
-        <f>B76/E76</f>
+        <f t="shared" si="6"/>
         <v>6.7839003509935939E-5</v>
       </c>
       <c r="G76">
-        <f>C76/E76</f>
+        <f t="shared" si="7"/>
         <v>4.1769299807944434E-5</v>
       </c>
       <c r="H76">
-        <f>D76/E76</f>
+        <f t="shared" si="8"/>
         <v>1.9855817564897894E-3</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I76">
+        <v>7.5439069381209395E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>59</v>
       </c>
@@ -3171,19 +3403,22 @@
         <v>217138014</v>
       </c>
       <c r="F77">
-        <f>B77/E77</f>
+        <f t="shared" si="6"/>
         <v>1.0266039081328384E-4</v>
       </c>
       <c r="G77">
-        <f>C77/E77</f>
+        <f t="shared" si="7"/>
         <v>4.1089313880163837E-5</v>
       </c>
       <c r="H77">
-        <f>D77/E77</f>
+        <f t="shared" si="8"/>
         <v>2.3205318508386194E-3</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I77">
+        <v>4.00507001394379E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>61</v>
       </c>
@@ -3200,19 +3435,22 @@
         <v>112102052</v>
       </c>
       <c r="F78">
-        <f>B78/E78</f>
+        <f t="shared" si="6"/>
         <v>8.7317130520560943E-5</v>
       </c>
       <c r="G78">
-        <f>C78/E78</f>
+        <f t="shared" si="7"/>
         <v>5.5024621214218812E-5</v>
       </c>
       <c r="H78">
-        <f>D78/E78</f>
+        <f t="shared" si="8"/>
         <v>1.8924891314516261E-3</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I78">
+        <v>2.4461285920208499E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>62</v>
       </c>
@@ -3229,19 +3467,22 @@
         <v>166422541</v>
       </c>
       <c r="F79">
-        <f>B79/E79</f>
+        <f t="shared" si="6"/>
         <v>1.2761966761486775E-4</v>
       </c>
       <c r="G79">
-        <f>C79/E79</f>
+        <f t="shared" si="7"/>
         <v>3.0926321993954173E-5</v>
       </c>
       <c r="H79">
-        <f>D79/E79</f>
+        <f t="shared" si="8"/>
         <v>2.8236771726052904E-3</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I79">
+        <v>1.7899943887834498E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>73</v>
       </c>
@@ -3258,19 +3499,22 @@
         <v>268920360</v>
       </c>
       <c r="F80">
-        <f>B80/E80</f>
+        <f t="shared" si="6"/>
         <v>1.4607839448142827E-4</v>
       </c>
       <c r="G80">
-        <f>C80/E80</f>
+        <f t="shared" si="7"/>
         <v>5.1950782170714026E-4</v>
       </c>
       <c r="H80">
-        <f>D80/E80</f>
+        <f t="shared" si="8"/>
         <v>4.3563507526907224E-3</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I80">
+        <v>3.1750240302920403E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -3287,19 +3531,22 @@
         <v>252497298</v>
       </c>
       <c r="F81">
-        <f>B81/E81</f>
+        <f t="shared" si="6"/>
         <v>3.6712408809206102E-5</v>
       </c>
       <c r="G81">
-        <f>C81/E81</f>
+        <f t="shared" si="7"/>
         <v>1.478810823627768E-4</v>
       </c>
       <c r="H81">
-        <f>D81/E81</f>
+        <f t="shared" si="8"/>
         <v>1.3100563730103439E-3</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I81">
+        <v>4.5708423502022498E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>77</v>
       </c>
@@ -3316,19 +3563,22 @@
         <v>251568804</v>
       </c>
       <c r="F82">
-        <f>B82/E82</f>
+        <f t="shared" si="6"/>
         <v>6.3289463842954467E-5</v>
       </c>
       <c r="G82">
-        <f>C82/E82</f>
+        <f t="shared" si="7"/>
         <v>3.9227126996170281E-4</v>
       </c>
       <c r="H82">
-        <f>D82/E82</f>
+        <f t="shared" si="8"/>
         <v>1.5145441437122943E-3</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I82">
+        <v>2.0518279507343001E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -3345,19 +3595,22 @@
         <v>150393192</v>
       </c>
       <c r="F83">
-        <f>B83/E83</f>
+        <f t="shared" si="6"/>
         <v>1.0624315506765425E-4</v>
       </c>
       <c r="G83">
-        <f>C83/E83</f>
+        <f t="shared" si="7"/>
         <v>2.0161012397941925E-4</v>
       </c>
       <c r="H83">
-        <f>D83/E83</f>
+        <f t="shared" si="8"/>
         <v>1.9660569472537363E-3</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I83">
+        <v>2.1206280560609098E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>80</v>
       </c>
@@ -3374,19 +3627,22 @@
         <v>158214503</v>
       </c>
       <c r="F84">
-        <f>B84/E84</f>
+        <f t="shared" si="6"/>
         <v>7.9554946511798603E-5</v>
       </c>
       <c r="G84">
-        <f>C84/E84</f>
+        <f t="shared" si="7"/>
         <v>1.6143698215885112E-4</v>
       </c>
       <c r="H84">
-        <f>D84/E84</f>
+        <f t="shared" si="8"/>
         <v>1.4056600472493663E-3</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I84">
+        <v>1.9692856312584401E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>81</v>
       </c>
@@ -3403,19 +3659,22 @@
         <v>259806433</v>
       </c>
       <c r="F85">
-        <f>B85/E85</f>
+        <f t="shared" si="6"/>
         <v>2.7103321880126194E-4</v>
       </c>
       <c r="G85">
-        <f>C85/E85</f>
+        <f t="shared" si="7"/>
         <v>9.9478525905382807E-4</v>
       </c>
       <c r="H85">
-        <f>D85/E85</f>
+        <f t="shared" si="8"/>
         <v>3.2540169300408471E-3</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I85">
+        <v>1.1791397014337301E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -3432,19 +3691,22 @@
         <v>198246250</v>
       </c>
       <c r="F86">
-        <f>B86/E86</f>
+        <f t="shared" si="6"/>
         <v>5.6909985401274928E-5</v>
       </c>
       <c r="G86">
-        <f>C86/E86</f>
+        <f t="shared" si="7"/>
         <v>5.6150229432818023E-5</v>
       </c>
       <c r="H86">
-        <f>D86/E86</f>
+        <f t="shared" si="8"/>
         <v>1.7361924493616754E-3</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I86">
+        <v>4.7602242512724102E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>83</v>
       </c>
@@ -3461,19 +3723,22 @@
         <v>246762914</v>
       </c>
       <c r="F87">
-        <f>B87/E87</f>
+        <f t="shared" si="6"/>
         <v>6.9417418009656433E-5</v>
       </c>
       <c r="G87">
-        <f>C87/E87</f>
+        <f t="shared" si="7"/>
         <v>1.9622346087191044E-4</v>
       </c>
       <c r="H87">
-        <f>D87/E87</f>
+        <f t="shared" si="8"/>
         <v>1.9787498392852742E-3</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I87">
+        <v>1.7149558409863701E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>84</v>
       </c>
@@ -3490,19 +3755,22 @@
         <v>344757307</v>
       </c>
       <c r="F88">
-        <f>B88/E88</f>
+        <f t="shared" si="6"/>
         <v>9.1026682965763498E-4</v>
       </c>
       <c r="G88">
-        <f>C88/E88</f>
+        <f t="shared" si="7"/>
         <v>3.4280124463648858E-3</v>
       </c>
       <c r="H88">
-        <f>D88/E88</f>
+        <f t="shared" si="8"/>
         <v>5.1412409860081077E-3</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I88">
+        <v>4.0083509689725703E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>92</v>
       </c>
@@ -3519,19 +3787,22 @@
         <v>175238058</v>
       </c>
       <c r="F89">
-        <f>B89/E89</f>
+        <f t="shared" si="6"/>
         <v>1.2023829369460828E-4</v>
       </c>
       <c r="G89">
-        <f>C89/E89</f>
+        <f t="shared" si="7"/>
         <v>3.149942252094736E-4</v>
       </c>
       <c r="H89">
-        <f>D89/E89</f>
+        <f t="shared" si="8"/>
         <v>2.0878144780094861E-3</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I89">
+        <v>2.1691216281188801E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>91</v>
       </c>
@@ -3548,19 +3819,22 @@
         <v>219166679</v>
       </c>
       <c r="F90">
-        <f>B90/E90</f>
+        <f t="shared" si="6"/>
         <v>4.049990416485893E-5</v>
       </c>
       <c r="G90">
-        <f>C90/E90</f>
+        <f t="shared" si="7"/>
         <v>8.272748298389601E-5</v>
       </c>
       <c r="H90">
-        <f>D90/E90</f>
+        <f t="shared" si="8"/>
         <v>1.2503314157317502E-3</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I90">
+        <v>6.1811525747185103E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>78</v>
       </c>
@@ -3577,19 +3851,22 @@
         <v>303923905</v>
       </c>
       <c r="F91">
-        <f>B91/E91</f>
+        <f t="shared" si="6"/>
         <v>2.7802399840381391E-4</v>
       </c>
       <c r="G91">
-        <f>C91/E91</f>
+        <f t="shared" si="7"/>
         <v>1.6602401251222441E-3</v>
       </c>
       <c r="H91">
-        <f>D91/E91</f>
+        <f t="shared" si="8"/>
         <v>3.7094556969183125E-3</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I91">
+        <v>2.8930579071709098E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>75</v>
       </c>
@@ -3606,19 +3883,22 @@
         <v>282885949</v>
       </c>
       <c r="F92">
-        <f>B92/E92</f>
+        <f t="shared" si="6"/>
         <v>4.8240342570541033E-4</v>
       </c>
       <c r="G92">
-        <f>C92/E92</f>
+        <f t="shared" si="7"/>
         <v>2.0262825747483872E-3</v>
       </c>
       <c r="H92">
-        <f>D92/E92</f>
+        <f t="shared" si="8"/>
         <v>4.615106744496277E-3</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I92">
+        <v>3.23283931594626E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>76</v>
       </c>
@@ -3635,19 +3915,22 @@
         <v>240256335</v>
       </c>
       <c r="F93">
-        <f>B93/E93</f>
+        <f t="shared" si="6"/>
         <v>4.7297760318433638E-5</v>
       </c>
       <c r="G93">
-        <f>C93/E93</f>
+        <f t="shared" si="7"/>
         <v>2.5667502404311504E-4</v>
       </c>
       <c r="H93">
-        <f>D93/E93</f>
+        <f t="shared" si="8"/>
         <v>1.2879082434331358E-3</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I93">
+        <v>2.6113520355478301E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>74</v>
       </c>
@@ -3664,19 +3947,22 @@
         <v>260699888</v>
       </c>
       <c r="F94">
-        <f>B94/E94</f>
+        <f t="shared" si="6"/>
         <v>3.1598423682131809E-4</v>
       </c>
       <c r="G94">
-        <f>C94/E94</f>
+        <f t="shared" si="7"/>
         <v>1.3488863085442445E-3</v>
       </c>
       <c r="H94">
-        <f>D94/E94</f>
+        <f t="shared" si="8"/>
         <v>3.371882052719754E-3</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I94">
+        <v>4.4463910944853198E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>67</v>
       </c>
@@ -3693,19 +3979,22 @@
         <v>239210159</v>
       </c>
       <c r="F95">
-        <f>B95/E95</f>
+        <f t="shared" si="6"/>
         <v>6.5058906311220259E-5</v>
       </c>
       <c r="G95">
-        <f>C95/E95</f>
+        <f t="shared" si="7"/>
         <v>4.8587685926253238E-4</v>
       </c>
       <c r="H95">
-        <f>D95/E95</f>
+        <f t="shared" si="8"/>
         <v>2.6191634738151107E-3</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I95">
+        <v>1.3427040283565599E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>66</v>
       </c>
@@ -3722,19 +4011,22 @@
         <v>220245992</v>
       </c>
       <c r="F96">
-        <f>B96/E96</f>
+        <f t="shared" si="6"/>
         <v>6.6066679621310428E-5</v>
       </c>
       <c r="G96">
-        <f>C96/E96</f>
+        <f t="shared" si="7"/>
         <v>5.5397025925420703E-5</v>
       </c>
       <c r="H96">
-        <f>D96/E96</f>
+        <f t="shared" si="8"/>
         <v>1.7423380416795053E-3</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I96">
+        <v>2.0085752899915599E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>65</v>
       </c>
@@ -3751,19 +4043,22 @@
         <v>183251506</v>
       </c>
       <c r="F97">
-        <f>B97/E97</f>
+        <f t="shared" si="6"/>
         <v>5.2673166737233905E-5</v>
       </c>
       <c r="G97">
-        <f>C97/E97</f>
+        <f t="shared" si="7"/>
         <v>7.4763246598162194E-5</v>
       </c>
       <c r="H97">
-        <f>D97/E97</f>
+        <f t="shared" si="8"/>
         <v>1.2408992142117512E-3</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I97">
+        <v>1.9848540654254E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>69</v>
       </c>
@@ -3780,19 +4075,22 @@
         <v>151417967</v>
       </c>
       <c r="F98">
-        <f>B98/E98</f>
+        <f t="shared" ref="F98:F129" si="9">B98/E98</f>
         <v>6.619729512686826E-5</v>
       </c>
       <c r="G98">
-        <f>C98/E98</f>
+        <f t="shared" ref="G98:G129" si="10">C98/E98</f>
         <v>1.3015319974582013E-4</v>
       </c>
       <c r="H98">
-        <f>D98/E98</f>
+        <f t="shared" ref="H98:H129" si="11">D98/E98</f>
         <v>2.538949288146439E-3</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I98">
+        <v>2.43998544047981E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>68</v>
       </c>
@@ -3809,19 +4107,22 @@
         <v>259050170</v>
       </c>
       <c r="F99">
-        <f>B99/E99</f>
+        <f t="shared" si="9"/>
         <v>1.9692228211481622E-4</v>
       </c>
       <c r="G99">
-        <f>C99/E99</f>
+        <f t="shared" si="10"/>
         <v>1.0930337551164665E-3</v>
       </c>
       <c r="H99">
-        <f>D99/E99</f>
+        <f t="shared" si="11"/>
         <v>2.7607768483129892E-3</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I99">
+        <v>1.6034700720822699E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>71</v>
       </c>
@@ -3838,19 +4139,22 @@
         <v>279980358</v>
       </c>
       <c r="F100">
-        <f>B100/E100</f>
+        <f t="shared" si="9"/>
         <v>2.6243104788367189E-4</v>
       </c>
       <c r="G100">
-        <f>C100/E100</f>
+        <f t="shared" si="10"/>
         <v>1.689410515051013E-3</v>
       </c>
       <c r="H100">
-        <f>D100/E100</f>
+        <f t="shared" si="11"/>
         <v>5.0991504341300975E-3</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I100">
+        <v>1.9586327441675901E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>72</v>
       </c>
@@ -3867,19 +4171,22 @@
         <v>203218697</v>
       </c>
       <c r="F101">
-        <f>B101/E101</f>
+        <f t="shared" si="9"/>
         <v>3.6319590452772954E-5</v>
       </c>
       <c r="G101">
-        <f>C101/E101</f>
+        <f t="shared" si="10"/>
         <v>2.5049169336484529E-4</v>
       </c>
       <c r="H101">
-        <f>D101/E101</f>
+        <f t="shared" si="11"/>
         <v>2.2297699423878994E-3</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I101">
+        <v>1.31686911673608E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>70</v>
       </c>
@@ -3896,19 +4203,22 @@
         <v>218954924</v>
       </c>
       <c r="F102">
-        <f>B102/E102</f>
+        <f t="shared" si="9"/>
         <v>4.4859109001806372E-5</v>
       </c>
       <c r="G102">
-        <f>C102/E102</f>
+        <f t="shared" si="10"/>
         <v>7.5329543478901175E-5</v>
       </c>
       <c r="H102">
-        <f>D102/E102</f>
+        <f t="shared" si="11"/>
         <v>1.3634201597659938E-3</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I102">
+        <v>1.88476645899192E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>63</v>
       </c>
@@ -3925,19 +4235,22 @@
         <v>249679566</v>
       </c>
       <c r="F103">
-        <f>B103/E103</f>
+        <f t="shared" si="9"/>
         <v>7.7674462362561935E-5</v>
       </c>
       <c r="G103">
-        <f>C103/E103</f>
+        <f t="shared" si="10"/>
         <v>9.3389784446655511E-5</v>
       </c>
       <c r="H103">
-        <f>D103/E103</f>
+        <f t="shared" si="11"/>
         <v>2.9354186342656729E-3</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I103">
+        <v>2.2263318882176399E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>64</v>
       </c>
@@ -3954,19 +4267,22 @@
         <v>172743448</v>
       </c>
       <c r="F104">
-        <f>B104/E104</f>
+        <f t="shared" si="9"/>
         <v>7.7173099979761897E-5</v>
       </c>
       <c r="G104">
-        <f>C104/E104</f>
+        <f t="shared" si="10"/>
         <v>6.4651922736138164E-5</v>
       </c>
       <c r="H104">
-        <f>D104/E104</f>
+        <f t="shared" si="11"/>
         <v>2.8878680819287338E-3</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I104">
+        <v>2.4993013750217299E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>87</v>
       </c>
@@ -3983,19 +4299,22 @@
         <v>177171197</v>
       </c>
       <c r="F105">
-        <f>B105/E105</f>
+        <f t="shared" si="9"/>
         <v>5.3129270943017167E-4</v>
       </c>
       <c r="G105">
-        <f>C105/E105</f>
+        <f t="shared" si="10"/>
         <v>2.2250967105578341E-3</v>
       </c>
       <c r="H105">
-        <f>D105/E105</f>
+        <f t="shared" si="11"/>
         <v>3.4869775427807601E-3</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I105">
+        <v>1.6959035581411399E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>116</v>
       </c>
@@ -4012,19 +4331,22 @@
         <v>270877282</v>
       </c>
       <c r="F106">
-        <f>B106/E106</f>
+        <f t="shared" si="9"/>
         <v>1.8827054400335092E-4</v>
       </c>
       <c r="G106">
-        <f>C106/E106</f>
+        <f t="shared" si="10"/>
         <v>6.22890123914718E-5</v>
       </c>
       <c r="H106">
-        <f>D106/E106</f>
+        <f t="shared" si="11"/>
         <v>2.8325527248519236E-3</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I106">
+        <v>4.33766051558198E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>115</v>
       </c>
@@ -4041,19 +4363,22 @@
         <v>355171301</v>
       </c>
       <c r="F107">
-        <f>B107/E107</f>
+        <f t="shared" si="9"/>
         <v>8.3906564501112947E-5</v>
       </c>
       <c r="G107">
-        <f>C107/E107</f>
+        <f t="shared" si="10"/>
         <v>1.2284936319691662E-4</v>
       </c>
       <c r="H107">
-        <f>D107/E107</f>
+        <f t="shared" si="11"/>
         <v>2.0389192870483644E-3</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I107">
+        <v>1.9411720070739599E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>88</v>
       </c>
@@ -4070,19 +4395,22 @@
         <v>163415598</v>
       </c>
       <c r="F108">
-        <f>B108/E108</f>
+        <f t="shared" si="9"/>
         <v>2.0761827590156114E-5</v>
       </c>
       <c r="G108">
-        <f>C108/E108</f>
+        <f t="shared" si="10"/>
         <v>4.1911888871226907E-5</v>
       </c>
       <c r="H108">
-        <f>D108/E108</f>
+        <f t="shared" si="11"/>
         <v>5.6072881092681748E-4</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I108">
+        <v>1.09134958149773E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>86</v>
       </c>
@@ -4099,19 +4427,22 @@
         <v>123041084</v>
       </c>
       <c r="F109">
-        <f>B109/E109</f>
+        <f t="shared" si="9"/>
         <v>7.7754757491947966E-5</v>
       </c>
       <c r="G109">
-        <f>C109/E109</f>
+        <f t="shared" si="10"/>
         <v>1.8950232616411766E-4</v>
       </c>
       <c r="H109">
-        <f>D109/E109</f>
+        <f t="shared" si="11"/>
         <v>3.2356460621195599E-3</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I109">
+        <v>1.9214420289335801E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>96</v>
       </c>
@@ -4128,19 +4459,22 @@
         <v>231001921</v>
       </c>
       <c r="F110">
-        <f>B110/E110</f>
+        <f t="shared" si="9"/>
         <v>3.6147499755910257E-5</v>
       </c>
       <c r="G110">
-        <f>C110/E110</f>
+        <f t="shared" si="10"/>
         <v>5.0294710110261381E-5</v>
       </c>
       <c r="H110">
-        <f>D110/E110</f>
+        <f t="shared" si="11"/>
         <v>2.0487336808430652E-3</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I110">
+        <v>7.3294968907626296E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>102</v>
       </c>
@@ -4157,19 +4491,22 @@
         <v>245065556</v>
       </c>
       <c r="F111">
-        <f>B111/E111</f>
+        <f t="shared" si="9"/>
         <v>8.5565652990606314E-5</v>
       </c>
       <c r="G111">
-        <f>C111/E111</f>
+        <f t="shared" si="10"/>
         <v>9.5808532830888327E-5</v>
       </c>
       <c r="H111">
-        <f>D111/E111</f>
+        <f t="shared" si="11"/>
         <v>2.1689622103232575E-3</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I111">
+        <v>6.0588055716698799E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>101</v>
       </c>
@@ -4186,19 +4523,22 @@
         <v>351133123</v>
       </c>
       <c r="F112">
-        <f>B112/E112</f>
+        <f t="shared" si="9"/>
         <v>6.5851228182938469E-4</v>
       </c>
       <c r="G112">
-        <f>C112/E112</f>
+        <f t="shared" si="10"/>
         <v>1.0353118349597169E-3</v>
       </c>
       <c r="H112">
-        <f>D112/E112</f>
+        <f t="shared" si="11"/>
         <v>3.6710244505303762E-3</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I112">
+        <v>1.6762770021710501E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>137</v>
       </c>
@@ -4215,19 +4555,22 @@
         <v>316403681</v>
       </c>
       <c r="F113">
-        <f>B113/E113</f>
+        <f t="shared" si="9"/>
         <v>9.191533125510351E-5</v>
       </c>
       <c r="G113">
-        <f>C113/E113</f>
+        <f t="shared" si="10"/>
         <v>8.2087475960237018E-5</v>
       </c>
       <c r="H113">
-        <f>D113/E113</f>
+        <f t="shared" si="11"/>
         <v>2.6264761608361786E-3</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I113">
+        <v>3.8905825262654202E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>136</v>
       </c>
@@ -4244,19 +4587,22 @@
         <v>51865276</v>
       </c>
       <c r="F114">
-        <f>B114/E114</f>
+        <f t="shared" si="9"/>
         <v>1.273870515739652E-4</v>
       </c>
       <c r="G114">
-        <f>C114/E114</f>
+        <f t="shared" si="10"/>
         <v>6.6536302734627691E-4</v>
       </c>
       <c r="H114">
-        <f>D114/E114</f>
+        <f t="shared" si="11"/>
         <v>1.3644392197207202E-3</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I114">
+        <v>5.7649569319201E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>138</v>
       </c>
@@ -4273,19 +4619,22 @@
         <v>225948330</v>
       </c>
       <c r="F115">
-        <f>B115/E115</f>
+        <f t="shared" si="9"/>
         <v>6.3343535394602384E-5</v>
       </c>
       <c r="G115">
-        <f>C115/E115</f>
+        <f t="shared" si="10"/>
         <v>2.1770882494003075E-4</v>
       </c>
       <c r="H115">
-        <f>D115/E115</f>
+        <f t="shared" si="11"/>
         <v>1.8651318480638957E-3</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I115">
+        <v>5.4767290278688201E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>147</v>
       </c>
@@ -4302,19 +4651,22 @@
         <v>1105582114</v>
       </c>
       <c r="F116">
-        <f>B116/E116</f>
+        <f t="shared" si="9"/>
         <v>9.5285238808038455E-5</v>
       </c>
       <c r="G116">
-        <f>C116/E116</f>
+        <f t="shared" si="10"/>
         <v>1.7286419757296922E-4</v>
       </c>
       <c r="H116">
-        <f>D116/E116</f>
+        <f t="shared" si="11"/>
         <v>2.0907869387880853E-3</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I116">
+        <v>2.1311863416280899E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>135</v>
       </c>
@@ -4331,19 +4683,22 @@
         <v>339497667</v>
       </c>
       <c r="F117">
-        <f>B117/E117</f>
+        <f t="shared" si="9"/>
         <v>9.5082782140094358E-5</v>
       </c>
       <c r="G117">
-        <f>C117/E117</f>
+        <f t="shared" si="10"/>
         <v>1.8902691497143511E-4</v>
       </c>
       <c r="H117">
-        <f>D117/E117</f>
+        <f t="shared" si="11"/>
         <v>1.5172480877855723E-3</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I117">
+        <v>1.4609936808737499E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>134</v>
       </c>
@@ -4360,19 +4715,22 @@
         <v>427715448</v>
       </c>
       <c r="F118">
-        <f>B118/E118</f>
+        <f t="shared" si="9"/>
         <v>1.0120964413434536E-4</v>
       </c>
       <c r="G118">
-        <f>C118/E118</f>
+        <f t="shared" si="10"/>
         <v>2.4792889747647363E-4</v>
       </c>
       <c r="H118">
-        <f>D118/E118</f>
+        <f t="shared" si="11"/>
         <v>2.3317461969937009E-3</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I118">
+        <v>2.7622724868488699E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>133</v>
       </c>
@@ -4389,19 +4747,22 @@
         <v>205137897</v>
       </c>
       <c r="F119">
-        <f>B119/E119</f>
+        <f t="shared" si="9"/>
         <v>1.2827584335648181E-4</v>
       </c>
       <c r="G119">
-        <f>C119/E119</f>
+        <f t="shared" si="10"/>
         <v>5.0160756288488231E-4</v>
       </c>
       <c r="H119">
-        <f>D119/E119</f>
+        <f t="shared" si="11"/>
         <v>4.8624277022682799E-3</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I119">
+        <v>1.6792973479377499E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>104</v>
       </c>
@@ -4418,19 +4779,22 @@
         <v>278679634</v>
       </c>
       <c r="F120">
-        <f>B120/E120</f>
+        <f t="shared" si="9"/>
         <v>8.7578273627198029E-5</v>
       </c>
       <c r="G120">
-        <f>C120/E120</f>
+        <f t="shared" si="10"/>
         <v>1.7807499921540659E-4</v>
       </c>
       <c r="H120">
-        <f>D120/E120</f>
+        <f t="shared" si="11"/>
         <v>2.3532663752337353E-3</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I120">
+        <v>4.8517274294887003E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>103</v>
       </c>
@@ -4447,19 +4811,22 @@
         <v>246944301</v>
       </c>
       <c r="F121">
-        <f>B121/E121</f>
+        <f t="shared" si="9"/>
         <v>2.3631277047151577E-4</v>
       </c>
       <c r="G121">
-        <f>C121/E121</f>
+        <f t="shared" si="10"/>
         <v>4.9011758319833423E-4</v>
       </c>
       <c r="H121">
-        <f>D121/E121</f>
+        <f t="shared" si="11"/>
         <v>7.4554941834545111E-3</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I121">
+        <v>1.26318072990581E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>113</v>
       </c>
@@ -4476,19 +4843,22 @@
         <v>347539966</v>
       </c>
       <c r="F122">
-        <f>B122/E122</f>
+        <f t="shared" si="9"/>
         <v>2.2394978255862262E-4</v>
       </c>
       <c r="G122">
-        <f>C122/E122</f>
+        <f t="shared" si="10"/>
         <v>1.0469117557982295E-3</v>
       </c>
       <c r="H122">
-        <f>D122/E122</f>
+        <f t="shared" si="11"/>
         <v>4.2227250646220361E-3</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I122">
+        <v>1.5299101540630701E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>117</v>
       </c>
@@ -4505,19 +4875,22 @@
         <v>238553827</v>
       </c>
       <c r="F123">
-        <f>B123/E123</f>
+        <f t="shared" si="9"/>
         <v>2.2307493553168275E-4</v>
       </c>
       <c r="G123">
-        <f>C123/E123</f>
+        <f t="shared" si="10"/>
         <v>5.0983619488738699E-4</v>
       </c>
       <c r="H123">
-        <f>D123/E123</f>
+        <f t="shared" si="11"/>
         <v>2.5790153036626701E-3</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I123">
+        <v>2.9109070250165601E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>118</v>
       </c>
@@ -4534,19 +4907,22 @@
         <v>307524077</v>
       </c>
       <c r="F124">
-        <f>B124/E124</f>
+        <f t="shared" si="9"/>
         <v>8.6504065240317106E-5</v>
       </c>
       <c r="G124">
-        <f>C124/E124</f>
+        <f t="shared" si="10"/>
         <v>9.5312430956368978E-5</v>
       </c>
       <c r="H124">
-        <f>D124/E124</f>
+        <f t="shared" si="11"/>
         <v>2.561596020869156E-3</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I124">
+        <v>2.2820709302071002E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>119</v>
       </c>
@@ -4563,19 +4939,22 @@
         <v>263340676</v>
       </c>
       <c r="F125">
-        <f>B125/E125</f>
+        <f t="shared" si="9"/>
         <v>2.5063283645339774E-4</v>
       </c>
       <c r="G125">
-        <f>C125/E125</f>
+        <f t="shared" si="10"/>
         <v>3.6953082358938958E-4</v>
       </c>
       <c r="H125">
-        <f>D125/E125</f>
+        <f t="shared" si="11"/>
         <v>2.5886513281946424E-3</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I125">
+        <v>2.5185845945431801E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>123</v>
       </c>
@@ -4592,19 +4971,22 @@
         <v>231031969</v>
       </c>
       <c r="F126">
-        <f>B126/E126</f>
+        <f t="shared" si="9"/>
         <v>8.6085538979508932E-5</v>
       </c>
       <c r="G126">
-        <f>C126/E126</f>
+        <f t="shared" si="10"/>
         <v>2.4334736270848343E-4</v>
       </c>
       <c r="H126">
-        <f>D126/E126</f>
+        <f t="shared" si="11"/>
         <v>1.7102913542160478E-3</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I126">
+        <v>3.25093288668643E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>148</v>
       </c>
@@ -4621,19 +5003,22 @@
         <v>225978877</v>
       </c>
       <c r="F127">
-        <f>B127/E127</f>
+        <f t="shared" si="9"/>
         <v>9.8588976894752427E-5</v>
       </c>
       <c r="G127">
-        <f>C127/E127</f>
+        <f t="shared" si="10"/>
         <v>3.476670720103114E-5</v>
       </c>
       <c r="H127">
-        <f>D127/E127</f>
+        <f t="shared" si="11"/>
         <v>2.2544041591615088E-3</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I127">
+        <v>4.5294619843974003E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>145</v>
       </c>
@@ -4650,19 +5035,22 @@
         <v>293800009</v>
       </c>
       <c r="F128">
-        <f>B128/E128</f>
+        <f t="shared" si="9"/>
         <v>8.6798209327938113E-5</v>
       </c>
       <c r="G128">
-        <f>C128/E128</f>
+        <f t="shared" si="10"/>
         <v>1.3028599011149792E-4</v>
       </c>
       <c r="H128">
-        <f>D128/E128</f>
+        <f t="shared" si="11"/>
         <v>1.6407857937325353E-3</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I128">
+        <v>1.31703669466131E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>146</v>
       </c>
@@ -4679,19 +5067,22 @@
         <v>372681787</v>
       </c>
       <c r="F129">
-        <f>B129/E129</f>
+        <f t="shared" si="9"/>
         <v>8.7184952078220824E-5</v>
       </c>
       <c r="G129">
-        <f>C129/E129</f>
+        <f t="shared" si="10"/>
         <v>1.0830134654422622E-4</v>
       </c>
       <c r="H129">
-        <f>D129/E129</f>
+        <f t="shared" si="11"/>
         <v>2.0480255497932662E-3</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I129">
+        <v>6.1755612729238303E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>140</v>
       </c>
@@ -4708,19 +5099,22 @@
         <v>368263433</v>
       </c>
       <c r="F130">
-        <f>B130/E130</f>
+        <f t="shared" ref="F130:F161" si="12">B130/E130</f>
         <v>7.1244784225376232E-5</v>
       </c>
       <c r="G130">
-        <f>C130/E130</f>
+        <f t="shared" ref="G130:G161" si="13">C130/E130</f>
         <v>6.5361425147939951E-5</v>
       </c>
       <c r="H130">
-        <f>D130/E130</f>
+        <f t="shared" ref="H130:H161" si="14">D130/E130</f>
         <v>2.2622698658202375E-3</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I130">
+        <v>3.7474147062387997E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>139</v>
       </c>
@@ -4737,19 +5131,22 @@
         <v>319301079</v>
       </c>
       <c r="F131">
-        <f>B131/E131</f>
+        <f t="shared" si="12"/>
         <v>2.8710045943926076E-4</v>
       </c>
       <c r="G131">
-        <f>C131/E131</f>
+        <f t="shared" si="13"/>
         <v>8.8280582918621141E-4</v>
       </c>
       <c r="H131">
-        <f>D131/E131</f>
+        <f t="shared" si="14"/>
         <v>3.2470317575326139E-3</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I131">
+        <v>1.4496908540554699E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>142</v>
       </c>
@@ -4766,19 +5163,22 @@
         <v>294815368</v>
       </c>
       <c r="F132">
-        <f>B132/E132</f>
+        <f t="shared" si="12"/>
         <v>9.4099854255125535E-5</v>
       </c>
       <c r="G132">
-        <f>C132/E132</f>
+        <f t="shared" si="13"/>
         <v>1.2074968794314515E-4</v>
       </c>
       <c r="H132">
-        <f>D132/E132</f>
+        <f t="shared" si="14"/>
         <v>1.856908674453341E-3</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I132">
+        <v>2.9328447814076401E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>141</v>
       </c>
@@ -4795,19 +5195,22 @@
         <v>325859594</v>
       </c>
       <c r="F133">
-        <f>B133/E133</f>
+        <f t="shared" si="12"/>
         <v>2.8056053668830541E-4</v>
       </c>
       <c r="G133">
-        <f>C133/E133</f>
+        <f t="shared" si="13"/>
         <v>1.0989048711209895E-3</v>
       </c>
       <c r="H133">
-        <f>D133/E133</f>
+        <f t="shared" si="14"/>
         <v>2.6002377805093933E-3</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I133">
+        <v>1.349027948429E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>144</v>
       </c>
@@ -4824,19 +5227,22 @@
         <v>357794052</v>
       </c>
       <c r="F134">
-        <f>B134/E134</f>
+        <f t="shared" si="12"/>
         <v>1.6055806082947434E-4</v>
       </c>
       <c r="G134">
-        <f>C134/E134</f>
+        <f t="shared" si="13"/>
         <v>2.8457303090596658E-4</v>
       </c>
       <c r="H134">
-        <f>D134/E134</f>
+        <f t="shared" si="14"/>
         <v>2.3820584901411636E-3</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I134">
+        <v>5.4022013274781101E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>143</v>
       </c>
@@ -4853,19 +5259,22 @@
         <v>284405550</v>
       </c>
       <c r="F135">
-        <f>B135/E135</f>
+        <f t="shared" si="12"/>
         <v>1.1851512729158871E-4</v>
       </c>
       <c r="G135">
-        <f>C135/E135</f>
+        <f t="shared" si="13"/>
         <v>3.6474624444027552E-4</v>
       </c>
       <c r="H135">
-        <f>D135/E135</f>
+        <f t="shared" si="14"/>
         <v>1.9842490783924084E-3</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I135">
+        <v>5.1021827394940697E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>129</v>
       </c>
@@ -4882,19 +5291,22 @@
         <v>493882935</v>
       </c>
       <c r="F136">
-        <f>B136/E136</f>
+        <f t="shared" si="12"/>
         <v>1.4664529799855283E-4</v>
       </c>
       <c r="G136">
-        <f>C136/E136</f>
+        <f t="shared" si="13"/>
         <v>1.0431962746669735E-4</v>
       </c>
       <c r="H136">
-        <f>D136/E136</f>
+        <f t="shared" si="14"/>
         <v>2.4041244025012122E-3</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I136">
+        <v>2.4018565716750501E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>121</v>
       </c>
@@ -4911,19 +5323,22 @@
         <v>294488097</v>
       </c>
       <c r="F137">
-        <f>B137/E137</f>
+        <f t="shared" si="12"/>
         <v>1.961480603142931E-4</v>
       </c>
       <c r="G137">
-        <f>C137/E137</f>
+        <f t="shared" si="13"/>
         <v>1.590868828252437E-3</v>
       </c>
       <c r="H137">
-        <f>D137/E137</f>
+        <f t="shared" si="14"/>
         <v>3.3716996698212698E-3</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I137">
+        <v>4.6946192613125701E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>122</v>
       </c>
@@ -4940,19 +5355,22 @@
         <v>309226736</v>
       </c>
       <c r="F138">
-        <f>B138/E138</f>
+        <f t="shared" si="12"/>
         <v>3.0801994026151023E-4</v>
       </c>
       <c r="G138">
-        <f>C138/E138</f>
+        <f t="shared" si="13"/>
         <v>1.6789825871037231E-3</v>
       </c>
       <c r="H138">
-        <f>D138/E138</f>
+        <f t="shared" si="14"/>
         <v>5.7193651153018676E-3</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I138">
+        <v>3.4113112496266799E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>120</v>
       </c>
@@ -4969,19 +5387,22 @@
         <v>285692059</v>
       </c>
       <c r="F139">
-        <f>B139/E139</f>
+        <f t="shared" si="12"/>
         <v>6.5112418271164824E-5</v>
       </c>
       <c r="G139">
-        <f>C139/E139</f>
+        <f t="shared" si="13"/>
         <v>4.5536911883546963E-5</v>
       </c>
       <c r="H139">
-        <f>D139/E139</f>
+        <f t="shared" si="14"/>
         <v>1.7160621119921503E-3</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I139">
+        <v>5.1386085381193602E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>126</v>
       </c>
@@ -4998,19 +5419,22 @@
         <v>227910343</v>
       </c>
       <c r="F140">
-        <f>B140/E140</f>
+        <f t="shared" si="12"/>
         <v>8.7198029735981744E-5</v>
       </c>
       <c r="G140">
-        <f>C140/E140</f>
+        <f t="shared" si="13"/>
         <v>4.4731342901211811E-4</v>
       </c>
       <c r="H140">
-        <f>D140/E140</f>
+        <f t="shared" si="14"/>
         <v>1.684989409746415E-3</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I140">
+        <v>2.34070969289343E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>124</v>
       </c>
@@ -5027,19 +5451,22 @@
         <v>250831658</v>
       </c>
       <c r="F141">
-        <f>B141/E141</f>
+        <f t="shared" si="12"/>
         <v>8.2010882421167897E-5</v>
       </c>
       <c r="G141">
-        <f>C141/E141</f>
+        <f t="shared" si="13"/>
         <v>3.9240004569209561E-4</v>
       </c>
       <c r="H141">
-        <f>D141/E141</f>
+        <f t="shared" si="14"/>
         <v>3.6429807137331087E-3</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I141">
+        <v>2.14571600394062E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>125</v>
       </c>
@@ -5056,19 +5483,22 @@
         <v>270871162</v>
       </c>
       <c r="F142">
-        <f>B142/E142</f>
+        <f t="shared" si="12"/>
         <v>2.2159724954170276E-4</v>
       </c>
       <c r="G142">
-        <f>C142/E142</f>
+        <f t="shared" si="13"/>
         <v>1.0505994162146098E-3</v>
       </c>
       <c r="H142">
-        <f>D142/E142</f>
+        <f t="shared" si="14"/>
         <v>7.0018245049783857E-3</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I142">
+        <v>2.61577120544981E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>127</v>
       </c>
@@ -5085,19 +5515,22 @@
         <v>280468845</v>
       </c>
       <c r="F143">
-        <f>B143/E143</f>
+        <f t="shared" si="12"/>
         <v>8.6839311940700931E-5</v>
       </c>
       <c r="G143">
-        <f>C143/E143</f>
+        <f t="shared" si="13"/>
         <v>6.359622115945214E-5</v>
       </c>
       <c r="H143">
-        <f>D143/E143</f>
+        <f t="shared" si="14"/>
         <v>2.5103284293745247E-3</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I143">
+        <v>2.4049400156261301E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>128</v>
       </c>
@@ -5114,19 +5547,22 @@
         <v>267382038</v>
       </c>
       <c r="F144">
-        <f>B144/E144</f>
+        <f t="shared" si="12"/>
         <v>3.3616031918103003E-4</v>
       </c>
       <c r="G144">
-        <f>C144/E144</f>
+        <f t="shared" si="13"/>
         <v>3.6661267097181413E-4</v>
       </c>
       <c r="H144">
-        <f>D144/E144</f>
+        <f t="shared" si="14"/>
         <v>2.9037670025657673E-3</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I144">
+        <v>2.8526501553008E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>149</v>
       </c>
@@ -5143,19 +5579,22 @@
         <v>498084112</v>
       </c>
       <c r="F145">
-        <f>B145/E145</f>
+        <f t="shared" si="12"/>
         <v>1.7745839528501321E-4</v>
       </c>
       <c r="G145">
-        <f>C145/E145</f>
+        <f t="shared" si="13"/>
         <v>3.1129567388712048E-4</v>
       </c>
       <c r="H145">
-        <f>D145/E145</f>
+        <f t="shared" si="14"/>
         <v>2.9984926149222964E-3</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I145">
+        <v>3.31079011888646E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>131</v>
       </c>
@@ -5172,19 +5611,22 @@
         <v>311052227</v>
       </c>
       <c r="F146">
-        <f>B146/E146</f>
+        <f t="shared" si="12"/>
         <v>4.0346855658517761E-4</v>
       </c>
       <c r="G146">
-        <f>C146/E146</f>
+        <f t="shared" si="13"/>
         <v>9.2424819554972682E-4</v>
       </c>
       <c r="H146">
-        <f>D146/E146</f>
+        <f t="shared" si="14"/>
         <v>4.2931036663304131E-3</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I146">
+        <v>1.7625973698628401E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>132</v>
       </c>
@@ -5201,19 +5643,22 @@
         <v>272587937</v>
       </c>
       <c r="F147">
-        <f>B147/E147</f>
+        <f t="shared" si="12"/>
         <v>1.2262645445700556E-4</v>
       </c>
       <c r="G147">
-        <f>C147/E147</f>
+        <f t="shared" si="13"/>
         <v>1.8805119350428592E-4</v>
       </c>
       <c r="H147">
-        <f>D147/E147</f>
+        <f t="shared" si="14"/>
         <v>4.5007189919808515E-3</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I147">
+        <v>1.92522568019136E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>130</v>
       </c>
@@ -5230,19 +5675,22 @@
         <v>276004415</v>
       </c>
       <c r="F148">
-        <f>B148/E148</f>
+        <f t="shared" si="12"/>
         <v>1.6708892797547787E-4</v>
       </c>
       <c r="G148">
-        <f>C148/E148</f>
+        <f t="shared" si="13"/>
         <v>2.1163802524702259E-4</v>
       </c>
       <c r="H148">
-        <f>D148/E148</f>
+        <f t="shared" si="14"/>
         <v>2.7710741696385546E-3</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I148">
+        <v>2.2258619409673799E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>158</v>
       </c>
@@ -5259,19 +5707,22 @@
         <v>229445360</v>
       </c>
       <c r="F149">
-        <f>B149/E149</f>
+        <f t="shared" si="12"/>
         <v>1.8635570735983677E-4</v>
       </c>
       <c r="G149">
-        <f>C149/E149</f>
+        <f t="shared" si="13"/>
         <v>3.563463375438122E-5</v>
       </c>
       <c r="H149">
-        <f>D149/E149</f>
+        <f t="shared" si="14"/>
         <v>5.418780620845067E-3</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I149">
+        <v>1.8988336562499101E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>157</v>
       </c>
@@ -5288,19 +5739,22 @@
         <v>160090923</v>
       </c>
       <c r="F150">
-        <f>B150/E150</f>
+        <f t="shared" si="12"/>
         <v>1.9712814732049548E-4</v>
       </c>
       <c r="G150">
-        <f>C150/E150</f>
+        <f t="shared" si="13"/>
         <v>7.8307773115002282E-5</v>
       </c>
       <c r="H150">
-        <f>D150/E150</f>
+        <f t="shared" si="14"/>
         <v>3.4278710229547244E-3</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I150">
+        <v>1.78708517038637E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>156</v>
       </c>
@@ -5317,19 +5771,22 @@
         <v>215748775</v>
       </c>
       <c r="F151">
-        <f>B151/E151</f>
+        <f t="shared" si="12"/>
         <v>5.5524615232942112E-4</v>
       </c>
       <c r="G151">
-        <f>C151/E151</f>
+        <f t="shared" si="13"/>
         <v>1.8570350002202564E-4</v>
       </c>
       <c r="H151">
-        <f>D151/E151</f>
+        <f t="shared" si="14"/>
         <v>3.1910825111933451E-3</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I151">
+        <v>3.0228675893122399E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>160</v>
       </c>
@@ -5346,19 +5803,22 @@
         <v>211400400</v>
       </c>
       <c r="F152">
-        <f>B152/E152</f>
+        <f t="shared" si="12"/>
         <v>1.7289715326931451E-4</v>
       </c>
       <c r="G152">
-        <f>C152/E152</f>
+        <f t="shared" si="13"/>
         <v>7.3148620269595992E-5</v>
       </c>
       <c r="H152">
-        <f>D152/E152</f>
+        <f t="shared" si="14"/>
         <v>4.5152733190855646E-3</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I152">
+        <v>2.83551784556242E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>159</v>
       </c>
@@ -5375,19 +5835,22 @@
         <v>236912365</v>
       </c>
       <c r="F153">
-        <f>B153/E153</f>
+        <f t="shared" si="12"/>
         <v>2.3080765483680222E-4</v>
       </c>
       <c r="G153">
-        <f>C153/E153</f>
+        <f t="shared" si="13"/>
         <v>1.8888506322038318E-4</v>
       </c>
       <c r="H153">
-        <f>D153/E153</f>
+        <f t="shared" si="14"/>
         <v>2.9933936649489401E-3</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I153">
+        <v>3.1013359643812199E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>162</v>
       </c>
@@ -5404,19 +5867,22 @@
         <v>264833169</v>
       </c>
       <c r="F154">
-        <f>B154/E154</f>
+        <f t="shared" si="12"/>
         <v>2.8756325923681562E-4</v>
       </c>
       <c r="G154">
-        <f>C154/E154</f>
+        <f t="shared" si="13"/>
         <v>3.7513560504467287E-5</v>
       </c>
       <c r="H154">
-        <f>D154/E154</f>
+        <f t="shared" si="14"/>
         <v>3.7539389442315173E-3</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I154">
+        <v>6.3215961228171594E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>163</v>
       </c>
@@ -5433,19 +5899,22 @@
         <v>229531388</v>
       </c>
       <c r="F155">
-        <f>B155/E155</f>
+        <f t="shared" si="12"/>
         <v>9.5067033991044398E-5</v>
       </c>
       <c r="G155">
-        <f>C155/E155</f>
+        <f t="shared" si="13"/>
         <v>1.3900009586582251E-4</v>
       </c>
       <c r="H155">
-        <f>D155/E155</f>
+        <f t="shared" si="14"/>
         <v>2.2863218739245239E-3</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I155">
+        <v>1.9480991428850899E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>161</v>
       </c>
@@ -5462,19 +5931,22 @@
         <v>194415764</v>
       </c>
       <c r="F156">
-        <f>B156/E156</f>
+        <f t="shared" si="12"/>
         <v>1.8816497485290852E-4</v>
       </c>
       <c r="G156">
-        <f>C156/E156</f>
+        <f t="shared" si="13"/>
         <v>5.5253962932921423E-5</v>
       </c>
       <c r="H156">
-        <f>D156/E156</f>
+        <f t="shared" si="14"/>
         <v>4.3743434876490107E-3</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I156">
+        <v>3.57200285082689E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>154</v>
       </c>
@@ -5491,19 +5963,22 @@
         <v>205115460</v>
       </c>
       <c r="F157">
-        <f>B157/E157</f>
+        <f t="shared" si="12"/>
         <v>9.2881620699336378E-5</v>
       </c>
       <c r="G157">
-        <f>C157/E157</f>
+        <f t="shared" si="13"/>
         <v>3.9632703310208257E-4</v>
       </c>
       <c r="H157">
-        <f>D157/E157</f>
+        <f t="shared" si="14"/>
         <v>2.145793990013098E-3</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I157">
+        <v>1.03111237578864E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>164</v>
       </c>
@@ -5520,19 +5995,22 @@
         <v>214900526</v>
       </c>
       <c r="F158">
-        <f>B158/E158</f>
+        <f t="shared" si="12"/>
         <v>1.7015104631806625E-4</v>
       </c>
       <c r="G158">
-        <f>C158/E158</f>
+        <f t="shared" si="13"/>
         <v>8.2228405417033277E-5</v>
       </c>
       <c r="H158">
-        <f>D158/E158</f>
+        <f t="shared" si="14"/>
         <v>3.1070456713931868E-3</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I158">
+        <v>4.6072256551097999E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>166</v>
       </c>
@@ -5549,19 +6027,22 @@
         <v>187487146</v>
       </c>
       <c r="F159">
-        <f>B159/E159</f>
+        <f t="shared" si="12"/>
         <v>2.4263556455620376E-4</v>
       </c>
       <c r="G159">
-        <f>C159/E159</f>
+        <f t="shared" si="13"/>
         <v>4.3986327231952747E-4</v>
       </c>
       <c r="H159">
-        <f>D159/E159</f>
+        <f t="shared" si="14"/>
         <v>2.990515307168231E-3</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I159">
+        <v>2.2835374075357202E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>168</v>
       </c>
@@ -5578,19 +6059,22 @@
         <v>256419395</v>
       </c>
       <c r="F160">
-        <f>B160/E160</f>
+        <f t="shared" si="12"/>
         <v>1.4519823583165111E-4</v>
       </c>
       <c r="G160">
-        <f>C160/E160</f>
+        <f t="shared" si="13"/>
         <v>4.0797205363016708E-5</v>
       </c>
       <c r="H160">
-        <f>D160/E160</f>
+        <f t="shared" si="14"/>
         <v>3.1552324508377617E-3</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I160">
+        <v>5.7114322879491398E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>167</v>
       </c>
@@ -5607,19 +6091,22 @@
         <v>279107359</v>
       </c>
       <c r="F161">
-        <f>B161/E161</f>
+        <f t="shared" si="12"/>
         <v>1.3624671209366964E-4</v>
       </c>
       <c r="G161">
-        <f>C161/E161</f>
+        <f t="shared" si="13"/>
         <v>1.0005644251812256E-4</v>
       </c>
       <c r="H161">
-        <f>D161/E161</f>
+        <f t="shared" si="14"/>
         <v>2.2126446505032209E-3</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I161">
+        <v>5.4502943267079003E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>170</v>
       </c>
@@ -5636,19 +6123,22 @@
         <v>270173168</v>
       </c>
       <c r="F162">
-        <f>B162/E162</f>
+        <f t="shared" ref="F162:F193" si="15">B162/E162</f>
         <v>7.2761011278481597E-5</v>
       </c>
       <c r="G162">
-        <f>C162/E162</f>
+        <f t="shared" ref="G162:G188" si="16">C162/E162</f>
         <v>3.1796981622366256E-5</v>
       </c>
       <c r="H162">
-        <f>D162/E162</f>
+        <f t="shared" ref="H162:H188" si="17">D162/E162</f>
         <v>2.2068554358629427E-3</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I162">
+        <v>4.7979615860539102E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>169</v>
       </c>
@@ -5665,19 +6155,22 @@
         <v>259782864</v>
       </c>
       <c r="F163">
-        <f>B163/E163</f>
+        <f t="shared" si="15"/>
         <v>7.1897035320832406E-5</v>
       </c>
       <c r="G163">
-        <f>C163/E163</f>
+        <f t="shared" si="16"/>
         <v>3.4076435728123508E-5</v>
       </c>
       <c r="H163">
-        <f>D163/E163</f>
+        <f t="shared" si="17"/>
         <v>1.7508347588608348E-3</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I163">
+        <v>4.1920035491133302E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>171</v>
       </c>
@@ -5694,19 +6187,22 @@
         <v>183487972</v>
       </c>
       <c r="F164">
-        <f>B164/E164</f>
+        <f t="shared" si="15"/>
         <v>4.9678441785243724E-5</v>
       </c>
       <c r="G164">
-        <f>C164/E164</f>
+        <f t="shared" si="16"/>
         <v>1.4802134746114639E-4</v>
       </c>
       <c r="H164">
-        <f>D164/E164</f>
+        <f t="shared" si="17"/>
         <v>1.3244122508500121E-3</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I164">
+        <v>7.4184585051258701E-3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>172</v>
       </c>
@@ -5723,19 +6219,22 @@
         <v>165533115</v>
       </c>
       <c r="F165">
-        <f>B165/E165</f>
+        <f t="shared" si="15"/>
         <v>1.0983940890740504E-4</v>
       </c>
       <c r="G165">
-        <f>C165/E165</f>
+        <f t="shared" si="16"/>
         <v>1.6972114822243211E-4</v>
       </c>
       <c r="H165">
-        <f>D165/E165</f>
+        <f t="shared" si="17"/>
         <v>2.2535655234068304E-3</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I165">
+        <v>2.0047457472093799E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>176</v>
       </c>
@@ -5752,19 +6251,22 @@
         <v>221178186</v>
       </c>
       <c r="F166">
-        <f>B166/E166</f>
+        <f t="shared" si="15"/>
         <v>4.5408676118668867E-5</v>
       </c>
       <c r="G166">
-        <f>C166/E166</f>
+        <f t="shared" si="16"/>
         <v>7.3069706768519213E-5</v>
       </c>
       <c r="H166">
-        <f>D166/E166</f>
+        <f t="shared" si="17"/>
         <v>1.5870748348852178E-3</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I166">
+        <v>5.0396877114560097E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>185</v>
       </c>
@@ -5781,19 +6283,22 @@
         <v>191250673</v>
       </c>
       <c r="F167">
-        <f>B167/E167</f>
+        <f t="shared" si="15"/>
         <v>2.1491611754855157E-4</v>
       </c>
       <c r="G167">
-        <f>C167/E167</f>
+        <f t="shared" si="16"/>
         <v>1.7975057471335487E-4</v>
       </c>
       <c r="H167">
-        <f>D167/E167</f>
+        <f t="shared" si="17"/>
         <v>4.33130378411287E-3</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I167">
+        <v>1.8520179913976701E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>186</v>
       </c>
@@ -5810,19 +6315,22 @@
         <v>151605219</v>
       </c>
       <c r="F168">
-        <f>B168/E168</f>
+        <f t="shared" si="15"/>
         <v>6.7569575396961106E-5</v>
       </c>
       <c r="G168">
-        <f>C168/E168</f>
+        <f t="shared" si="16"/>
         <v>5.5355810089491379E-5</v>
       </c>
       <c r="H168">
-        <f>D168/E168</f>
+        <f t="shared" si="17"/>
         <v>1.5612335473313553E-3</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I168">
+        <v>2.35376154373661E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>184</v>
       </c>
@@ -5839,19 +6347,22 @@
         <v>209346502</v>
       </c>
       <c r="F169">
-        <f>B169/E169</f>
+        <f t="shared" si="15"/>
         <v>5.0667600179921801E-5</v>
       </c>
       <c r="G169">
-        <f>C169/E169</f>
+        <f t="shared" si="16"/>
         <v>4.2864100098275488E-5</v>
       </c>
       <c r="H169">
-        <f>D169/E169</f>
+        <f t="shared" si="17"/>
         <v>1.8958650675415965E-3</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I169">
+        <v>3.9312564167139998E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>183</v>
       </c>
@@ -5868,19 +6379,22 @@
         <v>174137249</v>
       </c>
       <c r="F170">
-        <f>B170/E170</f>
+        <f t="shared" si="15"/>
         <v>4.5826894726879945E-5</v>
       </c>
       <c r="G170">
-        <f>C170/E170</f>
+        <f t="shared" si="16"/>
         <v>5.9666573472353407E-5</v>
       </c>
       <c r="H170">
-        <f>D170/E170</f>
+        <f t="shared" si="17"/>
         <v>1.1648049213944113E-3</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I170">
+        <v>6.4748973145906498E-3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>181</v>
       </c>
@@ -5897,19 +6411,22 @@
         <v>247834754</v>
       </c>
       <c r="F171">
-        <f>B171/E171</f>
+        <f t="shared" si="15"/>
         <v>6.8103732085356768E-5</v>
       </c>
       <c r="G171">
-        <f>C171/E171</f>
+        <f t="shared" si="16"/>
         <v>8.1190237426623785E-5</v>
       </c>
       <c r="H171">
-        <f>D171/E171</f>
+        <f t="shared" si="17"/>
         <v>2.0809571800141959E-3</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I171">
+        <v>4.8298892636632298E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>180</v>
       </c>
@@ -5926,19 +6443,22 @@
         <v>255197841</v>
       </c>
       <c r="F172">
-        <f>B172/E172</f>
+        <f t="shared" si="15"/>
         <v>5.9038202570342675E-5</v>
       </c>
       <c r="G172">
-        <f>C172/E172</f>
+        <f t="shared" si="16"/>
         <v>9.7414900258088399E-5</v>
       </c>
       <c r="H172">
-        <f>D172/E172</f>
+        <f t="shared" si="17"/>
         <v>1.1306721935031103E-3</v>
       </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I172">
+        <v>6.3490008604417097E-3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>165</v>
       </c>
@@ -5955,19 +6475,22 @@
         <v>160688119</v>
       </c>
       <c r="F173">
-        <f>B173/E173</f>
+        <f t="shared" si="15"/>
         <v>9.622001334754003E-5</v>
       </c>
       <c r="G173">
-        <f>C173/E173</f>
+        <f t="shared" si="16"/>
         <v>1.9939342776441115E-4</v>
       </c>
       <c r="H173">
-        <f>D173/E173</f>
+        <f t="shared" si="17"/>
         <v>2.1478210014539904E-3</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I173">
+        <v>2.3267835212077401E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>182</v>
       </c>
@@ -5984,19 +6507,22 @@
         <v>252207755</v>
       </c>
       <c r="F174">
-        <f>B174/E174</f>
+        <f t="shared" si="15"/>
         <v>6.0962366171947408E-5</v>
       </c>
       <c r="G174">
-        <f>C174/E174</f>
+        <f t="shared" si="16"/>
         <v>3.3812569711979918E-5</v>
       </c>
       <c r="H174">
-        <f>D174/E174</f>
+        <f t="shared" si="17"/>
         <v>1.9210425932123857E-3</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I174">
+        <v>5.1983920448505097E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>179</v>
       </c>
@@ -6013,19 +6539,22 @@
         <v>180899871</v>
       </c>
       <c r="F175">
-        <f>B175/E175</f>
+        <f t="shared" si="15"/>
         <v>1.8647921075779541E-4</v>
       </c>
       <c r="G175">
-        <f>C175/E175</f>
+        <f t="shared" si="16"/>
         <v>9.6411491778586734E-5</v>
       </c>
       <c r="H175">
-        <f>D175/E175</f>
+        <f t="shared" si="17"/>
         <v>2.6700084057371108E-3</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I175">
+        <v>2.40641127295236E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>178</v>
       </c>
@@ -6042,19 +6571,22 @@
         <v>123717581</v>
       </c>
       <c r="F176">
-        <f>B176/E176</f>
+        <f t="shared" si="15"/>
         <v>1.3890577597241817E-4</v>
       </c>
       <c r="G176">
-        <f>C176/E176</f>
+        <f t="shared" si="16"/>
         <v>4.600284124368452E-5</v>
       </c>
       <c r="H176">
-        <f>D176/E176</f>
+        <f t="shared" si="17"/>
         <v>2.3544875533069065E-3</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I176">
+        <v>3.9556254595224001E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>177</v>
       </c>
@@ -6071,19 +6603,22 @@
         <v>124624572</v>
       </c>
       <c r="F177">
-        <f>B177/E177</f>
+        <f t="shared" si="15"/>
         <v>1.9573037779173759E-4</v>
       </c>
       <c r="G177">
-        <f>C177/E177</f>
+        <f t="shared" si="16"/>
         <v>1.1962696603437643E-4</v>
       </c>
       <c r="H177">
-        <f>D177/E177</f>
+        <f t="shared" si="17"/>
         <v>2.3656949800725333E-3</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I177">
+        <v>2.0871825134919999E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>174</v>
       </c>
@@ -6100,19 +6635,22 @@
         <v>129099235</v>
       </c>
       <c r="F178">
-        <f>B178/E178</f>
+        <f t="shared" si="15"/>
         <v>8.5023165711476919E-5</v>
       </c>
       <c r="G178">
-        <f>C178/E178</f>
+        <f t="shared" si="16"/>
         <v>9.2491307346759255E-5</v>
       </c>
       <c r="H178">
-        <f>D178/E178</f>
+        <f t="shared" si="17"/>
         <v>2.0597265530270417E-3</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I178">
+        <v>2.0796171780441901E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>175</v>
       </c>
@@ -6129,19 +6667,22 @@
         <v>176877743</v>
       </c>
       <c r="F179">
-        <f>B179/E179</f>
+        <f t="shared" si="15"/>
         <v>1.2942725235305834E-4</v>
       </c>
       <c r="G179">
-        <f>C179/E179</f>
+        <f t="shared" si="16"/>
         <v>4.9940379609735071E-5</v>
       </c>
       <c r="H179">
-        <f>D179/E179</f>
+        <f t="shared" si="17"/>
         <v>3.2026120942419702E-3</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I179">
+        <v>3.1251893979372398E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>173</v>
       </c>
@@ -6158,19 +6699,22 @@
         <v>93056969</v>
       </c>
       <c r="F180">
-        <f>B180/E180</f>
+        <f t="shared" si="15"/>
         <v>9.1848051678058309E-5</v>
       </c>
       <c r="G180">
-        <f>C180/E180</f>
+        <f t="shared" si="16"/>
         <v>1.5688197633605602E-4</v>
       </c>
       <c r="H180">
-        <f>D180/E180</f>
+        <f t="shared" si="17"/>
         <v>1.777776400679459E-3</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I180">
+        <v>3.8730851863323798E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>151</v>
       </c>
@@ -6187,19 +6731,22 @@
         <v>253003582</v>
       </c>
       <c r="F181">
-        <f>B181/E181</f>
+        <f t="shared" si="15"/>
         <v>8.109351003790532E-5</v>
       </c>
       <c r="G181">
-        <f>C181/E181</f>
+        <f t="shared" si="16"/>
         <v>7.7971916433426232E-5</v>
       </c>
       <c r="H181">
-        <f>D181/E181</f>
+        <f t="shared" si="17"/>
         <v>2.9935334991245933E-3</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I181">
+        <v>3.2384403553760203E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>150</v>
       </c>
@@ -6216,19 +6763,22 @@
         <v>209698652</v>
       </c>
       <c r="F182">
-        <f>B182/E182</f>
+        <f t="shared" si="15"/>
         <v>6.6225786447311066E-5</v>
       </c>
       <c r="G182">
-        <f>C182/E182</f>
+        <f t="shared" si="16"/>
         <v>8.0954843211609204E-5</v>
       </c>
       <c r="H182">
-        <f>D182/E182</f>
+        <f t="shared" si="17"/>
         <v>1.6905218082222818E-3</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I182">
+        <v>2.45777464794328E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>153</v>
       </c>
@@ -6245,19 +6795,22 @@
         <v>149703144</v>
       </c>
       <c r="F183">
-        <f>B183/E183</f>
+        <f t="shared" si="15"/>
         <v>5.8138006302479329E-5</v>
       </c>
       <c r="G183">
-        <f>C183/E183</f>
+        <f t="shared" si="16"/>
         <v>2.2021188495923773E-5</v>
       </c>
       <c r="H183">
-        <f>D183/E183</f>
+        <f t="shared" si="17"/>
         <v>2.1072765254710082E-3</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I183">
+        <v>4.1202539337210103E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>152</v>
       </c>
@@ -6274,19 +6827,22 @@
         <v>181183793</v>
       </c>
       <c r="F184">
-        <f>B184/E184</f>
+        <f t="shared" si="15"/>
         <v>3.7016723857944179E-5</v>
       </c>
       <c r="G184">
-        <f>C184/E184</f>
+        <f t="shared" si="16"/>
         <v>3.4997238345343784E-5</v>
       </c>
       <c r="H184">
-        <f>D184/E184</f>
+        <f t="shared" si="17"/>
         <v>1.9016687341105118E-3</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I184">
+        <v>3.4691569972796502E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>155</v>
       </c>
@@ -6303,19 +6859,22 @@
         <v>178732939</v>
       </c>
       <c r="F185">
-        <f>B185/E185</f>
+        <f t="shared" si="15"/>
         <v>5.9139268651326768E-5</v>
       </c>
       <c r="G185">
-        <f>C185/E185</f>
+        <f t="shared" si="16"/>
         <v>3.2080912984346942E-5</v>
       </c>
       <c r="H185">
-        <f>D185/E185</f>
+        <f t="shared" si="17"/>
         <v>1.252702627538078E-3</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I185">
+        <v>0.17889285529676299</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>6</v>
       </c>
@@ -6332,19 +6891,22 @@
         <v>262791876</v>
       </c>
       <c r="F186">
-        <f>B186/E186</f>
+        <f t="shared" si="15"/>
         <v>1.1984355701177078E-4</v>
       </c>
       <c r="G186">
-        <f>C186/E186</f>
+        <f t="shared" si="16"/>
         <v>1.2863729672216387E-4</v>
       </c>
       <c r="H186">
-        <f>D186/E186</f>
+        <f t="shared" si="17"/>
         <v>2.0872054794367463E-3</v>
       </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I186">
+        <v>2.41309225597931E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>5</v>
       </c>
@@ -6361,19 +6923,22 @@
         <v>315217088</v>
       </c>
       <c r="F187">
-        <f>B187/E187</f>
+        <f t="shared" si="15"/>
         <v>1.3355021826540287E-4</v>
       </c>
       <c r="G187">
-        <f>C187/E187</f>
+        <f t="shared" si="16"/>
         <v>1.1860091914528504E-4</v>
       </c>
       <c r="H187">
-        <f>D187/E187</f>
+        <f t="shared" si="17"/>
         <v>2.8374770763890185E-3</v>
       </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I187">
+        <v>2.17418675944843E-2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>0</v>
       </c>
@@ -6390,16 +6955,19 @@
         <v>292111463</v>
       </c>
       <c r="F188">
-        <f>B188/E188</f>
+        <f t="shared" si="15"/>
         <v>1.6753882956346974E-4</v>
       </c>
       <c r="G188">
-        <f>C188/E188</f>
+        <f t="shared" si="16"/>
         <v>1.0400064675515695E-4</v>
       </c>
       <c r="H188">
-        <f>D188/E188</f>
+        <f t="shared" si="17"/>
         <v>3.1661543553591562E-3</v>
+      </c>
+      <c r="I188">
+        <v>2.9512738359839599E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Figure Generating/data/RNA_Biofilm_Trans_Defense_Coverage.xlsx
+++ b/Figure Generating/data/RNA_Biofilm_Trans_Defense_Coverage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin Juntao\Desktop\transposase-deep-ocean\Figure Generating\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46E1165-2B0E-4135-86C1-BC393518D81F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E640307-FBB0-423E-9B11-F7EFF08FB31D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="444" windowWidth="21360" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -944,8 +944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -957,7 +957,8 @@
     <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5546875" customWidth="1"/>
-    <col min="9" max="10" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -1024,7 +1025,7 @@
         <v>9.4989363558074698E-3</v>
       </c>
       <c r="J2">
-        <v>9.0065855029165705E-3</v>
+        <v>1.18765463217031E-3</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1059,7 +1060,7 @@
         <v>1.5386391959003499E-2</v>
       </c>
       <c r="J3">
-        <v>1.4109569292194099E-2</v>
+        <v>9.9963850336996698E-4</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1094,7 +1095,7 @@
         <v>6.7310594379989194E-2</v>
       </c>
       <c r="J4">
-        <v>6.5789416169853093E-2</v>
+        <v>8.6386472285234796E-4</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1129,7 +1130,7 @@
         <v>3.4573982504569001E-2</v>
       </c>
       <c r="J5">
-        <v>3.3380235357891003E-2</v>
+        <v>6.4438839184498698E-4</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1164,7 +1165,7 @@
         <v>7.3248925650740607E-2</v>
       </c>
       <c r="J6">
-        <v>7.1870880570316695E-2</v>
+        <v>5.5375869604086905E-4</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -1199,7 +1200,7 @@
         <v>2.7811568623293301E-2</v>
       </c>
       <c r="J7">
-        <v>2.5737630462742699E-2</v>
+        <v>1.15477233862418E-3</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1234,7 +1235,7 @@
         <v>3.0532013901306498E-2</v>
       </c>
       <c r="J8">
-        <v>2.8542106036342701E-2</v>
+        <v>1.1363388313042999E-3</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1269,7 +1270,7 @@
         <v>3.1939831447169803E-2</v>
       </c>
       <c r="J9">
-        <v>2.91035227216353E-2</v>
+        <v>2.0942297749873798E-3</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1304,7 +1305,7 @@
         <v>3.8388076019695197E-2</v>
       </c>
       <c r="J10">
-        <v>3.5761261737396001E-2</v>
+        <v>9.4010432005752495E-4</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1339,7 +1340,7 @@
         <v>3.5548526459626299E-2</v>
       </c>
       <c r="J11">
-        <v>3.27178341309355E-2</v>
+        <v>7.6225366036439203E-4</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1374,7 +1375,7 @@
         <v>3.7304882361871301E-2</v>
       </c>
       <c r="J12">
-        <v>3.2160947001728599E-2</v>
+        <v>3.0120863924626598E-3</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1409,7 +1410,7 @@
         <v>5.1925117036093399E-2</v>
       </c>
       <c r="J13">
-        <v>4.962852121288E-2</v>
+        <v>2.0804751904048E-3</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1444,7 +1445,7 @@
         <v>2.31979813975643E-2</v>
       </c>
       <c r="J14">
-        <v>2.1373014788223999E-2</v>
+        <v>1.0405282108995001E-3</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1479,7 +1480,7 @@
         <v>1.60504297457995E-2</v>
       </c>
       <c r="J15">
-        <v>1.4204983350284099E-2</v>
+        <v>1.48519444951633E-3</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1514,7 +1515,7 @@
         <v>4.0756656705499501E-2</v>
       </c>
       <c r="J16">
-        <v>3.9619420728367397E-2</v>
+        <v>4.8835884015101304E-4</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1549,7 +1550,7 @@
         <v>1.95065167203608E-2</v>
       </c>
       <c r="J17">
-        <v>1.8393461596194802E-2</v>
+        <v>6.1855249987112005E-4</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1584,7 +1585,7 @@
         <v>3.1310135568525403E-2</v>
       </c>
       <c r="J18">
-        <v>2.99109039100608E-2</v>
+        <v>6.0776344622573398E-4</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -1619,7 +1620,7 @@
         <v>3.2598592102787101E-2</v>
       </c>
       <c r="J19">
-        <v>3.1364273849609901E-2</v>
+        <v>5.2614976043285704E-4</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1654,7 +1655,7 @@
         <v>3.3380280672896598E-2</v>
       </c>
       <c r="J20">
-        <v>3.2173446865454397E-2</v>
+        <v>5.1403186462215705E-4</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -1689,7 +1690,7 @@
         <v>5.4384259331017697E-2</v>
       </c>
       <c r="J21">
-        <v>5.3662211273645802E-2</v>
+        <v>4.5916902726447398E-4</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -1724,7 +1725,7 @@
         <v>3.1015212557219798E-2</v>
       </c>
       <c r="J22">
-        <v>2.94106733183047E-2</v>
+        <v>7.4274657393170204E-4</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -1759,7 +1760,7 @@
         <v>1.9435635680405301E-2</v>
       </c>
       <c r="J23">
-        <v>1.8167937737207901E-2</v>
+        <v>5.9641448279616402E-4</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -1794,7 +1795,7 @@
         <v>9.7959572047813803E-2</v>
       </c>
       <c r="J24">
-        <v>9.6010436595741197E-2</v>
+        <v>9.3405268510425696E-4</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -1829,7 +1830,7 @@
         <v>2.9006164810417099E-2</v>
       </c>
       <c r="J25">
-        <v>2.7154825958702201E-2</v>
+        <v>7.91449039564073E-4</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -1864,7 +1865,7 @@
         <v>3.5584883003346703E-2</v>
       </c>
       <c r="J26">
-        <v>3.4521967220358198E-2</v>
+        <v>4.5234068849622701E-4</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -1899,7 +1900,7 @@
         <v>4.7139396521838003E-2</v>
       </c>
       <c r="J27">
-        <v>4.5043840861841503E-2</v>
+        <v>7.03394870458333E-4</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -1934,7 +1935,7 @@
         <v>2.94305701564407E-2</v>
       </c>
       <c r="J28">
-        <v>2.5812406297423301E-2</v>
+        <v>2.0001582968633899E-3</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -1969,7 +1970,7 @@
         <v>1.6140083195109099E-2</v>
       </c>
       <c r="J29">
-        <v>1.3892254331414699E-2</v>
+        <v>8.7932805737020404E-4</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -2004,7 +2005,7 @@
         <v>6.3200848274608701E-2</v>
       </c>
       <c r="J30">
-        <v>6.2104403689918701E-2</v>
+        <v>5.4327608627317305E-4</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -2039,7 +2040,7 @@
         <v>1.8602561206741301E-2</v>
       </c>
       <c r="J31">
-        <v>1.7556420367376001E-2</v>
+        <v>4.55497490352464E-4</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -2074,7 +2075,7 @@
         <v>2.5349072386983799E-2</v>
       </c>
       <c r="J32">
-        <v>2.3998005591406999E-2</v>
+        <v>9.1216799828672398E-4</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -2109,7 +2110,7 @@
         <v>2.4006128084000499E-2</v>
       </c>
       <c r="J33">
-        <v>2.2278033100494501E-2</v>
+        <v>1.5220499745953501E-3</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -2144,7 +2145,7 @@
         <v>4.35784951139764E-2</v>
       </c>
       <c r="J34">
-        <v>4.1904820044621101E-2</v>
+        <v>1.4111088289567801E-3</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -2179,7 +2180,7 @@
         <v>3.4576750436657103E-2</v>
       </c>
       <c r="J35">
-        <v>3.1912865272568702E-2</v>
+        <v>2.4490664686228399E-3</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -2214,7 +2215,7 @@
         <v>3.6805632086990198E-2</v>
       </c>
       <c r="J36">
-        <v>3.49886220746502E-2</v>
+        <v>2.2824276177913399E-3</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -2249,7 +2250,7 @@
         <v>8.3307566630839894E-2</v>
       </c>
       <c r="J37">
-        <v>8.0429535796017998E-2</v>
+        <v>7.4599452673908499E-3</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -2284,7 +2285,7 @@
         <v>5.91436179364608E-2</v>
       </c>
       <c r="J38">
-        <v>5.47133175568408E-2</v>
+        <v>9.91077486503124E-3</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -2319,7 +2320,7 @@
         <v>3.7780535121182797E-2</v>
       </c>
       <c r="J39">
-        <v>3.5201481387206898E-2</v>
+        <v>6.6160963162288904E-3</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -2354,7 +2355,7 @@
         <v>4.3081923015253501E-2</v>
       </c>
       <c r="J40">
-        <v>4.1730841297176503E-2</v>
+        <v>1.61348406666602E-3</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -2389,7 +2390,7 @@
         <v>1.4936182205775601E-2</v>
       </c>
       <c r="J41">
-        <v>1.38030644984801E-2</v>
+        <v>9.7615747166434404E-4</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -2424,7 +2425,7 @@
         <v>5.5263874611240403E-2</v>
       </c>
       <c r="J42">
-        <v>5.2798270277829802E-2</v>
+        <v>1.2578830558373001E-3</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -2459,7 +2460,7 @@
         <v>1.81659746070961E-2</v>
       </c>
       <c r="J43">
-        <v>1.6814948996029901E-2</v>
+        <v>8.6689134554460102E-4</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -2494,7 +2495,7 @@
         <v>4.4835099071042599E-2</v>
       </c>
       <c r="J44">
-        <v>4.3142695912824998E-2</v>
+        <v>1.67738686954025E-2</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -2529,7 +2530,7 @@
         <v>4.4187253886032798E-2</v>
       </c>
       <c r="J45">
-        <v>4.2384999984697899E-2</v>
+        <v>1.37647866860053E-3</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -2564,7 +2565,7 @@
         <v>2.45311327762055E-2</v>
       </c>
       <c r="J46">
-        <v>2.3270533671511599E-2</v>
+        <v>1.1939772687492101E-3</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -2599,7 +2600,7 @@
         <v>2.09262769212353E-2</v>
       </c>
       <c r="J47">
-        <v>1.92342368454545E-2</v>
+        <v>1.68842698242668E-3</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -2634,7 +2635,7 @@
         <v>7.7161096906239707E-2</v>
       </c>
       <c r="J48">
-        <v>7.4924769411341796E-2</v>
+        <v>2.6928895485139799E-3</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -2669,7 +2670,7 @@
         <v>3.6533561719083202E-2</v>
       </c>
       <c r="J49">
-        <v>3.4434884229898599E-2</v>
+        <v>5.3524025871759398E-4</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -2704,7 +2705,7 @@
         <v>3.4924505588712997E-2</v>
       </c>
       <c r="J50">
-        <v>3.3502274381071097E-2</v>
+        <v>1.48519352977226E-3</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -2739,7 +2740,7 @@
         <v>1.41084594277412E-2</v>
       </c>
       <c r="J51">
-        <v>1.28438277962839E-2</v>
+        <v>8.21326218710856E-4</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -2774,7 +2775,7 @@
         <v>3.9224233888560098E-2</v>
       </c>
       <c r="J52">
-        <v>3.8244755209096599E-2</v>
+        <v>1.02651983330548E-3</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -2809,7 +2810,7 @@
         <v>1.0226162620577999E-2</v>
       </c>
       <c r="J53">
-        <v>9.5344835862170903E-3</v>
+        <v>4.8003779504836698E-4</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -2844,7 +2845,7 @@
         <v>1.05146421188661E-2</v>
       </c>
       <c r="J54">
-        <v>9.6816660291955004E-3</v>
+        <v>8.1509195500565799E-4</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -2879,7 +2880,7 @@
         <v>1.5735225453780401E-2</v>
       </c>
       <c r="J55">
-        <v>1.48758393351209E-2</v>
+        <v>6.1733506249881005E-4</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -2914,7 +2915,7 @@
         <v>1.3966771289849699E-2</v>
       </c>
       <c r="J56">
-        <v>1.3016662278248201E-2</v>
+        <v>6.5879365790391501E-4</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -2949,7 +2950,7 @@
         <v>6.3335923045665501E-2</v>
       </c>
       <c r="J57">
-        <v>6.0558221830274699E-2</v>
+        <v>3.4968870111251799E-3</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -2984,7 +2985,7 @@
         <v>1.5489071884850301E-2</v>
       </c>
       <c r="J58">
-        <v>1.3875663294854301E-2</v>
+        <v>1.5464677747688599E-3</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -3019,7 +3020,7 @@
         <v>3.9828388248801201E-2</v>
       </c>
       <c r="J59">
-        <v>3.4722647220429899E-2</v>
+        <v>2.30433348796909E-3</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -3054,7 +3055,7 @@
         <v>4.66408851389351E-2</v>
       </c>
       <c r="J60">
-        <v>4.16931205289768E-2</v>
+        <v>4.22116828886431E-3</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -3089,7 +3090,7 @@
         <v>1.69140994624833E-2</v>
       </c>
       <c r="J61">
-        <v>1.5205364678919701E-2</v>
+        <v>1.1098115553205101E-3</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -3124,7 +3125,7 @@
         <v>2.09195418760675E-2</v>
       </c>
       <c r="J62">
-        <v>1.8760659127850899E-2</v>
+        <v>1.2657392029683601E-3</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -3159,7 +3160,7 @@
         <v>3.6961916956247599E-2</v>
       </c>
       <c r="J63">
-        <v>3.3875359966813401E-2</v>
+        <v>1.73762568668263E-3</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -3194,7 +3195,7 @@
         <v>1.49232795542566E-2</v>
       </c>
       <c r="J64">
-        <v>1.39779680832722E-2</v>
+        <v>1.5724750466596499E-3</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
@@ -3229,7 +3230,7 @@
         <v>3.2240925156384298E-2</v>
       </c>
       <c r="J65">
-        <v>2.9040084682546999E-2</v>
+        <v>9.0566353082090004E-3</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
@@ -3264,7 +3265,7 @@
         <v>5.1451453674886703E-2</v>
       </c>
       <c r="J66">
-        <v>4.7413899606827098E-2</v>
+        <v>2.4421763640667501E-2</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
@@ -3299,7 +3300,7 @@
         <v>6.2926592606822596E-2</v>
       </c>
       <c r="J67">
-        <v>5.84153470209905E-2</v>
+        <v>3.22123825886916E-2</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
@@ -3334,7 +3335,7 @@
         <v>2.48352124848009E-2</v>
       </c>
       <c r="J68">
-        <v>2.18163733460295E-2</v>
+        <v>7.7765971478037698E-3</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
@@ -3369,7 +3370,7 @@
         <v>2.6728630328554E-2</v>
       </c>
       <c r="J69">
-        <v>2.41917274220531E-2</v>
+        <v>1.21977412530634E-2</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
@@ -3404,7 +3405,7 @@
         <v>3.0793461439600999E-2</v>
       </c>
       <c r="J70">
-        <v>2.6888391623332598E-2</v>
+        <v>1.6518851071188799E-2</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
@@ -3439,7 +3440,7 @@
         <v>2.50564776472177E-2</v>
       </c>
       <c r="J71">
-        <v>2.3318701119882899E-2</v>
+        <v>2.05703131417714E-3</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
@@ -3474,7 +3475,7 @@
         <v>1.7214952642249599E-2</v>
       </c>
       <c r="J72">
-        <v>1.5116809562411701E-2</v>
+        <v>3.5737392125976802E-3</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
@@ -3509,7 +3510,7 @@
         <v>2.5162924723191499E-2</v>
       </c>
       <c r="J73">
-        <v>2.1864412961292601E-2</v>
+        <v>9.2066913674540892E-3</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
@@ -3544,7 +3545,7 @@
         <v>3.6142707063145499E-2</v>
       </c>
       <c r="J74">
-        <v>3.30139696931692E-2</v>
+        <v>4.4398519214584996E-3</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
@@ -3579,7 +3580,7 @@
         <v>2.4374880765251902E-2</v>
       </c>
       <c r="J75">
-        <v>2.1832440417567999E-2</v>
+        <v>2.8954530874965101E-3</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
@@ -3614,7 +3615,7 @@
         <v>7.5439069381209395E-2</v>
       </c>
       <c r="J76">
-        <v>7.3867791666174104E-2</v>
+        <v>2.9538581509182101E-2</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
@@ -3649,7 +3650,7 @@
         <v>4.00507001394379E-2</v>
       </c>
       <c r="J77">
-        <v>3.7107146143589398E-2</v>
+        <v>1.4267917566341499E-2</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
@@ -3684,7 +3685,7 @@
         <v>2.4461285920208499E-2</v>
       </c>
       <c r="J78">
-        <v>2.2578834527749E-2</v>
+        <v>1.8300523739837101E-3</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
@@ -3719,7 +3720,7 @@
         <v>1.7899943887834498E-2</v>
       </c>
       <c r="J79">
-        <v>1.5768008971169999E-2</v>
+        <v>2.0483692455849898E-3</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
@@ -3754,7 +3755,7 @@
         <v>3.1750240302920403E-2</v>
       </c>
       <c r="J80">
-        <v>3.0632070777833802E-2</v>
+        <v>1.3040616765716199E-3</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
@@ -3789,7 +3790,7 @@
         <v>4.5708423502022498E-2</v>
       </c>
       <c r="J81">
-        <v>4.4147111895451403E-2</v>
+        <v>2.38426178761451E-3</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
@@ -3824,7 +3825,7 @@
         <v>2.0518279507343001E-2</v>
       </c>
       <c r="J82">
-        <v>1.8194242694626599E-2</v>
+        <v>1.2504173916946799E-3</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
@@ -3859,7 +3860,7 @@
         <v>2.1206280560609098E-2</v>
       </c>
       <c r="J83">
-        <v>1.9909667004096299E-2</v>
+        <v>1.1300160477216801E-3</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
@@ -3894,7 +3895,7 @@
         <v>1.9692856312584401E-2</v>
       </c>
       <c r="J84">
-        <v>1.8582268866270301E-2</v>
+        <v>1.0412837606140601E-3</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
@@ -3929,7 +3930,7 @@
         <v>1.1791397014337301E-2</v>
       </c>
       <c r="J85">
-        <v>1.0782772048689999E-2</v>
+        <v>9.27146592130317E-4</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
@@ -3964,7 +3965,7 @@
         <v>4.7602242512724102E-2</v>
       </c>
       <c r="J86">
-        <v>4.5970590621893799E-2</v>
+        <v>1.63515486531593E-3</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
@@ -3999,7 +4000,7 @@
         <v>1.7149558409863701E-2</v>
       </c>
       <c r="J87">
-        <v>1.5769619152713899E-2</v>
+        <v>1.03500338458345E-3</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
@@ -4034,7 +4035,7 @@
         <v>4.0083509689725703E-2</v>
       </c>
       <c r="J88">
-        <v>3.6495622441662601E-2</v>
+        <v>7.3824550800451498E-3</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
@@ -4069,7 +4070,7 @@
         <v>2.1691216281188801E-2</v>
       </c>
       <c r="J89">
-        <v>2.11397043807353E-2</v>
+        <v>8.2704607272464804E-4</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
@@ -4104,7 +4105,7 @@
         <v>6.1811525747185103E-3</v>
       </c>
       <c r="J90">
-        <v>5.7306995679809397E-3</v>
+        <v>3.7424977996119697E-4</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
@@ -4139,7 +4140,7 @@
         <v>2.8930579071709098E-2</v>
       </c>
       <c r="J91">
-        <v>2.53551862729842E-2</v>
+        <v>1.74745687304044E-3</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
@@ -4174,7 +4175,7 @@
         <v>3.23283931594626E-2</v>
       </c>
       <c r="J92">
-        <v>2.98718177171871E-2</v>
+        <v>1.5129123776339601E-3</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
@@ -4209,7 +4210,7 @@
         <v>2.6113520355478301E-2</v>
       </c>
       <c r="J93">
-        <v>2.4189055183875301E-2</v>
+        <v>1.48815484302091E-3</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
@@ -4244,7 +4245,7 @@
         <v>4.4463910944853198E-2</v>
       </c>
       <c r="J94">
-        <v>4.1879891533477001E-2</v>
+        <v>2.4078763355719602E-3</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
@@ -4279,7 +4280,7 @@
         <v>1.3427040283565599E-2</v>
       </c>
       <c r="J95">
-        <v>1.2253983572794201E-2</v>
+        <v>9.2155240912597503E-4</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
@@ -4314,7 +4315,7 @@
         <v>2.0085752899915599E-2</v>
       </c>
       <c r="J96">
-        <v>1.9028216368319299E-2</v>
+        <v>1.129529602933E-3</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
@@ -4349,7 +4350,7 @@
         <v>1.9848540654254E-2</v>
       </c>
       <c r="J97">
-        <v>1.9102563725726801E-2</v>
+        <v>5.2247045651793395E-4</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
@@ -4384,7 +4385,7 @@
         <v>2.43998544047981E-2</v>
       </c>
       <c r="J98">
-        <v>2.3198222795489599E-2</v>
+        <v>1.16747575861897E-3</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
@@ -4419,7 +4420,7 @@
         <v>1.6034700720822699E-2</v>
       </c>
       <c r="J99">
-        <v>1.45773479579831E-2</v>
+        <v>1.01993482092637E-3</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
@@ -4454,7 +4455,7 @@
         <v>1.9586327441675901E-2</v>
       </c>
       <c r="J100">
-        <v>1.78564102506771E-2</v>
+        <v>1.6350648551175101E-3</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
@@ -4489,7 +4490,7 @@
         <v>1.31686911673608E-2</v>
       </c>
       <c r="J101">
-        <v>1.23192413885148E-2</v>
+        <v>9.4312970480652403E-4</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
@@ -4524,7 +4525,7 @@
         <v>1.88476645899192E-2</v>
       </c>
       <c r="J102">
-        <v>1.8134500484946799E-2</v>
+        <v>6.4348212205249595E-4</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
@@ -4559,7 +4560,7 @@
         <v>2.2263318882176399E-2</v>
       </c>
       <c r="J103">
-        <v>1.9901231825286601E-2</v>
+        <v>1.4717539552756701E-3</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
@@ -4594,7 +4595,7 @@
         <v>2.4993013750217299E-2</v>
       </c>
       <c r="J104">
-        <v>2.2822678267595799E-2</v>
+        <v>2.44844977411622E-3</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
@@ -4629,7 +4630,7 @@
         <v>1.6959035581411399E-2</v>
       </c>
       <c r="J105">
-        <v>1.5758225124817098E-2</v>
+        <v>1.24722353120034E-3</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
@@ -4664,7 +4665,7 @@
         <v>4.33766051558198E-2</v>
       </c>
       <c r="J106">
-        <v>4.1286635006594199E-2</v>
+        <v>1.81467870429407E-3</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
@@ -4699,7 +4700,7 @@
         <v>1.9411720070739599E-2</v>
       </c>
       <c r="J107">
-        <v>1.7682066280552598E-2</v>
+        <v>1.4956051762293099E-3</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
@@ -4734,7 +4735,7 @@
         <v>1.09134958149773E-2</v>
       </c>
       <c r="J108">
-        <v>1.0333181402799501E-2</v>
+        <v>5.0724289197042805E-4</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
@@ -4769,7 +4770,7 @@
         <v>1.9214420289335801E-2</v>
       </c>
       <c r="J109">
-        <v>1.78004384141454E-2</v>
+        <v>1.5073076906830401E-3</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
@@ -4804,7 +4805,7 @@
         <v>7.3294968907626296E-2</v>
       </c>
       <c r="J110">
-        <v>7.1571919628823699E-2</v>
+        <v>2.0132494184837502E-3</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
@@ -4839,7 +4840,7 @@
         <v>6.0588055716698799E-2</v>
       </c>
       <c r="J111">
-        <v>5.8650682201989303E-2</v>
+        <v>2.0391076194050499E-3</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
@@ -4874,7 +4875,7 @@
         <v>1.6762770021710501E-2</v>
       </c>
       <c r="J112">
-        <v>1.5671385154885101E-2</v>
+        <v>9.6999156738145E-4</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.3">
@@ -4909,7 +4910,7 @@
         <v>3.8905825262654202E-2</v>
       </c>
       <c r="J113">
-        <v>3.6231869668990897E-2</v>
+        <v>4.4477478662362201E-3</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
@@ -4944,7 +4945,7 @@
         <v>5.7649569319201E-3</v>
       </c>
       <c r="J114">
-        <v>5.3615625358643801E-3</v>
+        <v>4.5806640386196799E-4</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
@@ -4979,7 +4980,7 @@
         <v>5.4767290278688201E-2</v>
       </c>
       <c r="J115">
-        <v>5.0701616465757902E-2</v>
+        <v>4.7289125423979001E-3</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
@@ -5014,7 +5015,7 @@
         <v>2.1311863416280899E-2</v>
       </c>
       <c r="J116">
-        <v>1.95205377475671E-2</v>
+        <v>2.4961801910883402E-3</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
@@ -5049,7 +5050,7 @@
         <v>1.4609936808737499E-2</v>
       </c>
       <c r="J117">
-        <v>1.4069424407833601E-2</v>
+        <v>8.1123380643565205E-4</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
@@ -5084,7 +5085,7 @@
         <v>2.7622724868488699E-2</v>
       </c>
       <c r="J118">
-        <v>2.66346782851552E-2</v>
+        <v>1.3798246746601101E-3</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">
@@ -5119,7 +5120,7 @@
         <v>1.6792973479377499E-2</v>
       </c>
       <c r="J119">
-        <v>1.57948053080487E-2</v>
+        <v>1.2754429362013401E-3</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
@@ -5154,7 +5155,7 @@
         <v>4.8517274294887003E-2</v>
       </c>
       <c r="J120">
-        <v>4.7016411826508897E-2</v>
+        <v>1.37370452034923E-3</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
@@ -5189,7 +5190,7 @@
         <v>1.26318072990581E-2</v>
       </c>
       <c r="J121">
-        <v>1.16583077864389E-2</v>
+        <v>9.0805338346136696E-4</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
@@ -5224,7 +5225,7 @@
         <v>1.5299101540630701E-2</v>
       </c>
       <c r="J122">
-        <v>1.38039459920049E-2</v>
+        <v>1.30358630686612E-3</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
@@ -5259,7 +5260,7 @@
         <v>2.9109070250165601E-2</v>
       </c>
       <c r="J123">
-        <v>2.6582962117443001E-2</v>
+        <v>2.9165130041022098E-3</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
@@ -5294,7 +5295,7 @@
         <v>2.2820709302071002E-2</v>
       </c>
       <c r="J124">
-        <v>2.0668340390124901E-2</v>
+        <v>1.7667243971440599E-3</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
@@ -5329,7 +5330,7 @@
         <v>2.5185845945431801E-2</v>
       </c>
       <c r="J125">
-        <v>2.24643327768882E-2</v>
+        <v>2.2283264000951099E-3</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
@@ -5364,7 +5365,7 @@
         <v>3.25093288668643E-2</v>
       </c>
       <c r="J126">
-        <v>3.03101626679914E-2</v>
+        <v>1.4530741558260701E-3</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
@@ -5399,7 +5400,7 @@
         <v>4.5294619843974003E-2</v>
       </c>
       <c r="J127">
-        <v>4.2696897982584997E-2</v>
+        <v>4.0107060561861202E-3</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
@@ -5434,7 +5435,7 @@
         <v>1.31703669466131E-2</v>
       </c>
       <c r="J128">
-        <v>1.2025596821055499E-2</v>
+        <v>9.39766405312442E-4</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
@@ -5469,7 +5470,7 @@
         <v>6.1755612729238303E-2</v>
       </c>
       <c r="J129">
-        <v>5.8692004919646101E-2</v>
+        <v>3.4885089002170502E-3</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.3">
@@ -5504,7 +5505,7 @@
         <v>3.7474147062387997E-2</v>
       </c>
       <c r="J130">
-        <v>3.4699891001726303E-2</v>
+        <v>4.2951466505594402E-3</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.3">
@@ -5539,7 +5540,7 @@
         <v>1.4496908540554699E-2</v>
       </c>
       <c r="J131">
-        <v>1.3552474477573399E-2</v>
+        <v>1.9961066501373698E-3</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.3">
@@ -5574,7 +5575,7 @@
         <v>2.9328447814076401E-2</v>
       </c>
       <c r="J132">
-        <v>2.5682415530622199E-2</v>
+        <v>2.9848427740093702E-3</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.3">
@@ -5609,7 +5610,7 @@
         <v>1.349027948429E-2</v>
       </c>
       <c r="J133">
-        <v>1.2575746786918401E-2</v>
+        <v>1.0952377025764801E-3</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.3">
@@ -5644,7 +5645,7 @@
         <v>5.4022013274781101E-2</v>
       </c>
       <c r="J134">
-        <v>5.0893474174078697E-2</v>
+        <v>3.2978756323141902E-3</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.3">
@@ -5679,7 +5680,7 @@
         <v>5.1021827394940697E-2</v>
       </c>
       <c r="J135">
-        <v>4.8731937043838602E-2</v>
+        <v>3.4457169516566399E-3</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.3">
@@ -5714,7 +5715,7 @@
         <v>2.4018565716750501E-2</v>
       </c>
       <c r="J136">
-        <v>2.2694700474790299E-2</v>
+        <v>8.8034587937296999E-4</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.3">
@@ -5749,7 +5750,7 @@
         <v>4.6946192613125701E-2</v>
       </c>
       <c r="J137">
-        <v>4.23056598746527E-2</v>
+        <v>3.5772529924293899E-3</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.3">
@@ -5784,7 +5785,7 @@
         <v>3.4113112496266799E-2</v>
       </c>
       <c r="J138">
-        <v>3.0250932341470801E-2</v>
+        <v>1.9121634866236001E-3</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.3">
@@ -5819,7 +5820,7 @@
         <v>5.1386085381193602E-2</v>
       </c>
       <c r="J139">
-        <v>4.9793379331794098E-2</v>
+        <v>1.71980500378377E-3</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.3">
@@ -5854,7 +5855,7 @@
         <v>2.34070969289343E-2</v>
       </c>
       <c r="J140">
-        <v>2.21335998219955E-2</v>
+        <v>8.9204312555283096E-4</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.3">
@@ -5889,7 +5890,7 @@
         <v>2.14571600394062E-2</v>
       </c>
       <c r="J141">
-        <v>1.95430050589466E-2</v>
+        <v>1.3166688953106199E-3</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.3">
@@ -5924,7 +5925,7 @@
         <v>2.61577120544981E-2</v>
       </c>
       <c r="J142">
-        <v>2.3830106337670302E-2</v>
+        <v>1.8000160551041699E-3</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.3">
@@ -5959,7 +5960,7 @@
         <v>2.4049400156261301E-2</v>
       </c>
       <c r="J143">
-        <v>2.18418596503424E-2</v>
+        <v>1.5385045189134901E-3</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.3">
@@ -5994,7 +5995,7 @@
         <v>2.8526501553008E-2</v>
       </c>
       <c r="J144">
-        <v>2.72631789226058E-2</v>
+        <v>1.2314955582498699E-3</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.3">
@@ -6029,7 +6030,7 @@
         <v>3.31079011888646E-2</v>
       </c>
       <c r="J145">
-        <v>3.1091339966760102E-2</v>
+        <v>3.6141134425174801E-3</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.3">
@@ -6064,7 +6065,7 @@
         <v>1.7625973698628401E-2</v>
       </c>
       <c r="J146">
-        <v>1.6110741030917398E-2</v>
+        <v>2.2430499449017402E-3</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.3">
@@ -6099,7 +6100,7 @@
         <v>1.92522568019136E-2</v>
       </c>
       <c r="J147">
-        <v>1.7969906684348402E-2</v>
+        <v>1.17522366729331E-3</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.3">
@@ -6134,7 +6135,7 @@
         <v>2.2258619409673799E-2</v>
       </c>
       <c r="J148">
-        <v>2.12600872322713E-2</v>
+        <v>1.1724351497295301E-3</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.3">
@@ -6169,7 +6170,7 @@
         <v>1.8988336562499101E-2</v>
       </c>
       <c r="J149">
-        <v>1.6316843539276201E-2</v>
+        <v>2.2094670111183099E-3</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.3">
@@ -6204,7 +6205,7 @@
         <v>1.78708517038637E-2</v>
       </c>
       <c r="J150">
-        <v>1.5598581021454901E-2</v>
+        <v>1.8478885072493801E-3</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.3">
@@ -6239,7 +6240,7 @@
         <v>3.0228675893122399E-2</v>
       </c>
       <c r="J151">
-        <v>2.6689476371923399E-2</v>
+        <v>4.20962415726226E-3</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.3">
@@ -6274,7 +6275,7 @@
         <v>2.83551784556242E-2</v>
       </c>
       <c r="J152">
-        <v>2.4972360572556099E-2</v>
+        <v>1.6986541064443099E-3</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.3">
@@ -6309,7 +6310,7 @@
         <v>3.1013359643812199E-2</v>
       </c>
       <c r="J153">
-        <v>2.7097661224449902E-2</v>
+        <v>3.3071353994232199E-3</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.3">
@@ -6344,7 +6345,7 @@
         <v>6.3215961228171594E-2</v>
       </c>
       <c r="J154">
-        <v>5.8654837360421402E-2</v>
+        <v>2.2695717616373901E-2</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.3">
@@ -6379,7 +6380,7 @@
         <v>1.9480991428850899E-2</v>
       </c>
       <c r="J155">
-        <v>1.7755346496361499E-2</v>
+        <v>2.3485266650935298E-3</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.3">
@@ -6414,7 +6415,7 @@
         <v>3.57200285082689E-2</v>
       </c>
       <c r="J156">
-        <v>3.2604233199340402E-2</v>
+        <v>1.0275846685785E-2</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.3">
@@ -6449,7 +6450,7 @@
         <v>1.03111237578864E-2</v>
       </c>
       <c r="J157">
-        <v>9.5834807745203907E-3</v>
+        <v>2.8695644989932502E-3</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.3">
@@ -6484,7 +6485,7 @@
         <v>4.6072256551097999E-2</v>
       </c>
       <c r="J158">
-        <v>4.1710803802806902E-2</v>
+        <v>3.65767172433016E-3</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.3">
@@ -6519,7 +6520,7 @@
         <v>2.2835374075357202E-2</v>
       </c>
       <c r="J159">
-        <v>2.04909956897153E-2</v>
+        <v>2.5882943473549899E-3</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.3">
@@ -6554,7 +6555,7 @@
         <v>5.7114322879491398E-2</v>
       </c>
       <c r="J160">
-        <v>5.1687276594953598E-2</v>
+        <v>3.3811188711305199E-3</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.3">
@@ -6589,7 +6590,7 @@
         <v>5.4502943267079003E-2</v>
       </c>
       <c r="J161">
-        <v>4.8167879879063402E-2</v>
+        <v>1.8232286698072499E-3</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.3">
@@ -6624,7 +6625,7 @@
         <v>4.7979615860539102E-2</v>
       </c>
       <c r="J162">
-        <v>4.39849707880118E-2</v>
+        <v>3.98418122206547E-3</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.3">
@@ -6659,7 +6660,7 @@
         <v>4.1920035491133302E-2</v>
       </c>
       <c r="J163">
-        <v>3.6687063740792898E-2</v>
+        <v>2.49799361209729E-3</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.3">
@@ -6694,7 +6695,7 @@
         <v>7.4184585051258701E-3</v>
       </c>
       <c r="J164">
-        <v>6.6849009902059499E-3</v>
+        <v>5.0116059469454204E-4</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.3">
@@ -6729,7 +6730,7 @@
         <v>2.0047457472093799E-2</v>
       </c>
       <c r="J165">
-        <v>1.8629742519299199E-2</v>
+        <v>3.0905744882043498E-3</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.3">
@@ -6764,7 +6765,7 @@
         <v>5.0396877114560097E-2</v>
       </c>
       <c r="J166">
-        <v>4.6809208915764199E-2</v>
+        <v>7.4122597325023002E-3</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.3">
@@ -6799,7 +6800,7 @@
         <v>1.8520179913976701E-2</v>
       </c>
       <c r="J167">
-        <v>1.6753609482537499E-2</v>
+        <v>1.38344309374433E-3</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.3">
@@ -6834,7 +6835,7 @@
         <v>2.35376154373661E-2</v>
       </c>
       <c r="J168">
-        <v>2.1571415955158501E-2</v>
+        <v>4.7251474449490601E-3</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.3">
@@ -6869,7 +6870,7 @@
         <v>3.9312564167139998E-2</v>
       </c>
       <c r="J169">
-        <v>3.5403301279292802E-2</v>
+        <v>6.9853105160771504E-3</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.3">
@@ -6904,7 +6905,7 @@
         <v>6.4748973145906498E-3</v>
       </c>
       <c r="J170">
-        <v>5.8821322151293197E-3</v>
+        <v>9.0762454667077201E-4</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.3">
@@ -6939,7 +6940,7 @@
         <v>4.8298892636632298E-2</v>
       </c>
       <c r="J171">
-        <v>4.4870918515056701E-2</v>
+        <v>1.15939234593899E-2</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.3">
@@ -6974,7 +6975,7 @@
         <v>6.3490008604417097E-3</v>
       </c>
       <c r="J172">
-        <v>5.7551643703141302E-3</v>
+        <v>7.4500748775328601E-4</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.3">
@@ -7009,7 +7010,7 @@
         <v>2.3267835212077401E-2</v>
       </c>
       <c r="J173">
-        <v>2.0479488535661498E-2</v>
+        <v>2.0621886267553802E-3</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.3">
@@ -7044,7 +7045,7 @@
         <v>5.1983920448505097E-2</v>
       </c>
       <c r="J174">
-        <v>4.7941783987644399E-2</v>
+        <v>9.4464763042108203E-3</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.3">
@@ -7079,7 +7080,7 @@
         <v>2.40641127295236E-2</v>
       </c>
       <c r="J175">
-        <v>2.1674084940643799E-2</v>
+        <v>3.0397076652609999E-3</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.3">
@@ -7114,7 +7115,7 @@
         <v>3.9556254595224001E-2</v>
       </c>
       <c r="J176">
-        <v>3.5603905597508499E-2</v>
+        <v>5.4173307103411398E-3</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.3">
@@ -7149,7 +7150,7 @@
         <v>2.0871825134919999E-2</v>
       </c>
       <c r="J177">
-        <v>1.8901071918868299E-2</v>
+        <v>2.2099649978768701E-3</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.3">
@@ -7184,7 +7185,7 @@
         <v>2.0796171780441901E-2</v>
       </c>
       <c r="J178">
-        <v>1.8703425387791298E-2</v>
+        <v>1.6750532282560199E-3</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.3">
@@ -7219,7 +7220,7 @@
         <v>3.1251893979372398E-2</v>
       </c>
       <c r="J179">
-        <v>2.8067220019696401E-2</v>
+        <v>2.3624730060786002E-3</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.3">
@@ -7254,7 +7255,7 @@
         <v>3.8730851863323798E-2</v>
       </c>
       <c r="J180">
-        <v>3.5743962590552E-2</v>
+        <v>4.50320042760061E-3</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.3">
@@ -7289,7 +7290,7 @@
         <v>3.2384403553760203E-2</v>
       </c>
       <c r="J181">
-        <v>2.82238446880369E-2</v>
+        <v>5.0308170474616803E-3</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.3">
@@ -7324,7 +7325,7 @@
         <v>2.45777464794328E-2</v>
       </c>
       <c r="J182">
-        <v>2.0468790635909302E-2</v>
+        <v>4.4481628198093804E-3</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.3">
@@ -7359,7 +7360,7 @@
         <v>4.1202539337210103E-2</v>
       </c>
       <c r="J183">
-        <v>3.7336866442576597E-2</v>
+        <v>7.9813018744226208E-3</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.3">
@@ -7394,7 +7395,7 @@
         <v>3.4691569972796502E-2</v>
       </c>
       <c r="J184">
-        <v>3.04198109358725E-2</v>
+        <v>8.1089748901961006E-3</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.3">
@@ -7429,7 +7430,7 @@
         <v>0.17889285529676299</v>
       </c>
       <c r="J185">
-        <v>0.171900362020519</v>
+        <v>0.15006164620936599</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.3">
@@ -7464,7 +7465,7 @@
         <v>2.41309225597931E-2</v>
       </c>
       <c r="J186">
-        <v>2.2953521200457499E-2</v>
+        <v>8.0343152359555099E-4</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.3">
@@ -7499,7 +7500,7 @@
         <v>2.17418675944843E-2</v>
       </c>
       <c r="J187">
-        <v>1.99020740645569E-2</v>
+        <v>1.2471487121475701E-3</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.3">
@@ -7534,7 +7535,7 @@
         <v>2.9512738359839599E-2</v>
       </c>
       <c r="J188">
-        <v>2.7040348520814501E-2</v>
+        <v>1.3059858921183199E-3</v>
       </c>
     </row>
   </sheetData>

--- a/Figure Generating/data/RNA_Biofilm_Trans_Defense_Coverage.xlsx
+++ b/Figure Generating/data/RNA_Biofilm_Trans_Defense_Coverage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin Juntao\Desktop\transposase-deep-ocean\Figure Generating\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E640307-FBB0-423E-9B11-F7EFF08FB31D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0EDF26-3D9A-46D9-A6C5-63FEB1E4E10D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="444" windowWidth="21360" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
   <si>
     <t>TARA_X100000009</t>
   </si>
@@ -625,6 +625,12 @@
   </si>
   <si>
     <t>RNA_sect_CAZ</t>
+  </si>
+  <si>
+    <t>RNA_peptidase</t>
+  </si>
+  <si>
+    <t>RNA_sect_pep</t>
   </si>
 </sst>
 </file>
@@ -942,10 +948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J188"/>
+  <dimension ref="A1:L188"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -961,7 +967,7 @@
     <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>187</v>
       </c>
@@ -992,8 +998,14 @@
       <c r="J1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1027,8 +1039,14 @@
       <c r="J2">
         <v>1.18765463217031E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2">
+        <v>4.0794312656315798E-3</v>
+      </c>
+      <c r="L2">
+        <v>8.4993332548834199E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1062,8 +1080,14 @@
       <c r="J3">
         <v>9.9963850336996698E-4</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3">
+        <v>1.83749905977161E-2</v>
+      </c>
+      <c r="L3">
+        <v>5.5935796745179098E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1097,8 +1121,14 @@
       <c r="J4">
         <v>8.6386472285234796E-4</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4">
+        <v>2.07408040044165E-2</v>
+      </c>
+      <c r="L4">
+        <v>6.3312098159210503E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1132,8 +1162,14 @@
       <c r="J5">
         <v>6.4438839184498698E-4</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5">
+        <v>1.5232386666698201E-2</v>
+      </c>
+      <c r="L5">
+        <v>4.2038892726163997E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1167,8 +1203,14 @@
       <c r="J6">
         <v>5.5375869604086905E-4</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6">
+        <v>2.3098864968045401E-2</v>
+      </c>
+      <c r="L6">
+        <v>6.0002018560213798E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1202,8 +1244,14 @@
       <c r="J7">
         <v>1.15477233862418E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7">
+        <v>3.8219582382081799E-2</v>
+      </c>
+      <c r="L7">
+        <v>1.0443682533453401E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1237,8 +1285,14 @@
       <c r="J8">
         <v>1.1363388313042999E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8">
+        <v>2.7373151836484901E-2</v>
+      </c>
+      <c r="L8">
+        <v>9.5840835614659295E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1272,8 +1326,14 @@
       <c r="J9">
         <v>2.0942297749873798E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9">
+        <v>2.42720709800902E-2</v>
+      </c>
+      <c r="L9">
+        <v>1.03232292943081E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1307,8 +1367,14 @@
       <c r="J10">
         <v>9.4010432005752495E-4</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K10">
+        <v>2.5920441396268201E-2</v>
+      </c>
+      <c r="L10">
+        <v>8.3367189954210701E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1342,8 +1408,14 @@
       <c r="J11">
         <v>7.6225366036439203E-4</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11">
+        <v>3.3193737539498197E-2</v>
+      </c>
+      <c r="L11">
+        <v>1.0758859018796E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1377,8 +1449,14 @@
       <c r="J12">
         <v>3.0120863924626598E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K12">
+        <v>2.9329114267890401E-2</v>
+      </c>
+      <c r="L12">
+        <v>1.24180308016678E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1412,8 +1490,14 @@
       <c r="J13">
         <v>2.0804751904048E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K13">
+        <v>1.6504922532436701E-2</v>
+      </c>
+      <c r="L13">
+        <v>6.4509663714288103E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1447,8 +1531,14 @@
       <c r="J14">
         <v>1.0405282108995001E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K14">
+        <v>1.84771083505678E-2</v>
+      </c>
+      <c r="L14">
+        <v>4.4671267783733997E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1482,8 +1572,14 @@
       <c r="J15">
         <v>1.48519444951633E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K15">
+        <v>2.7390036248064301E-2</v>
+      </c>
+      <c r="L15">
+        <v>8.4519201917901392E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1517,8 +1613,14 @@
       <c r="J16">
         <v>4.8835884015101304E-4</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16">
+        <v>1.8793668018784002E-2</v>
+      </c>
+      <c r="L16">
+        <v>5.3900893332449601E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1552,8 +1654,14 @@
       <c r="J17">
         <v>6.1855249987112005E-4</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17">
+        <v>1.4381955253156799E-2</v>
+      </c>
+      <c r="L17">
+        <v>4.8375925265502096E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1587,8 +1695,14 @@
       <c r="J18">
         <v>6.0776344622573398E-4</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K18">
+        <v>1.7197424803363701E-2</v>
+      </c>
+      <c r="L18">
+        <v>5.3839806750219897E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1622,8 +1736,14 @@
       <c r="J19">
         <v>5.2614976043285704E-4</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K19">
+        <v>2.12141661346926E-2</v>
+      </c>
+      <c r="L19">
+        <v>4.96591430325115E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -1657,8 +1777,14 @@
       <c r="J20">
         <v>5.1403186462215705E-4</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K20">
+        <v>2.09204431793969E-2</v>
+      </c>
+      <c r="L20">
+        <v>4.8598498275575601E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -1692,8 +1818,14 @@
       <c r="J21">
         <v>4.5916902726447398E-4</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K21">
+        <v>1.05504815843557E-2</v>
+      </c>
+      <c r="L21">
+        <v>3.8432228605054901E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1727,8 +1859,14 @@
       <c r="J22">
         <v>7.4274657393170204E-4</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K22">
+        <v>1.89119241707571E-2</v>
+      </c>
+      <c r="L22">
+        <v>7.1966545095778003E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1762,8 +1900,14 @@
       <c r="J23">
         <v>5.9641448279616402E-4</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K23">
+        <v>1.2917342300269599E-2</v>
+      </c>
+      <c r="L23">
+        <v>3.9516061810130499E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1797,8 +1941,14 @@
       <c r="J24">
         <v>9.3405268510425696E-4</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K24">
+        <v>2.7726745320682301E-2</v>
+      </c>
+      <c r="L24">
+        <v>7.3149593220292004E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1832,8 +1982,14 @@
       <c r="J25">
         <v>7.91449039564073E-4</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K25">
+        <v>1.7812531925299399E-2</v>
+      </c>
+      <c r="L25">
+        <v>5.9543653087944497E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1867,8 +2023,14 @@
       <c r="J26">
         <v>4.5234068849622701E-4</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K26">
+        <v>1.5357064816296E-2</v>
+      </c>
+      <c r="L26">
+        <v>4.2276607538400098E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -1902,8 +2064,14 @@
       <c r="J27">
         <v>7.03394870458333E-4</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K27">
+        <v>2.6436559972558799E-2</v>
+      </c>
+      <c r="L27">
+        <v>7.9475344331033301E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -1937,8 +2105,14 @@
       <c r="J28">
         <v>2.0001582968633899E-3</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K28">
+        <v>2.5946787632965498E-2</v>
+      </c>
+      <c r="L28">
+        <v>9.78431598738916E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -1972,8 +2146,14 @@
       <c r="J29">
         <v>8.7932805737020404E-4</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K29">
+        <v>1.4076603864999799E-2</v>
+      </c>
+      <c r="L29">
+        <v>7.2623219734270902E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -2007,8 +2187,14 @@
       <c r="J30">
         <v>5.4327608627317305E-4</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K30">
+        <v>1.60263348496773E-2</v>
+      </c>
+      <c r="L30">
+        <v>3.9098819473279102E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -2042,8 +2228,14 @@
       <c r="J31">
         <v>4.55497490352464E-4</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K31">
+        <v>1.1632371150178599E-2</v>
+      </c>
+      <c r="L31">
+        <v>3.3846441551502199E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -2077,8 +2269,14 @@
       <c r="J32">
         <v>9.1216799828672398E-4</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K32">
+        <v>1.56020045876255E-2</v>
+      </c>
+      <c r="L32">
+        <v>3.8479008164106301E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -2112,8 +2310,14 @@
       <c r="J33">
         <v>1.5220499745953501E-3</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K33">
+        <v>1.65295267620508E-2</v>
+      </c>
+      <c r="L33">
+        <v>6.2428920175199602E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -2147,8 +2351,14 @@
       <c r="J34">
         <v>1.4111088289567801E-3</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K34">
+        <v>1.7470251815274E-2</v>
+      </c>
+      <c r="L34">
+        <v>4.5225886418832403E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -2182,8 +2392,14 @@
       <c r="J35">
         <v>2.4490664686228399E-3</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K35">
+        <v>2.2417764043729398E-2</v>
+      </c>
+      <c r="L35">
+        <v>1.0808566403165999E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -2217,8 +2433,14 @@
       <c r="J36">
         <v>2.2824276177913399E-3</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K36">
+        <v>1.7008080447388701E-2</v>
+      </c>
+      <c r="L36">
+        <v>5.8901971189119096E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2252,8 +2474,14 @@
       <c r="J37">
         <v>7.4599452673908499E-3</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K37">
+        <v>2.0442841030483602E-2</v>
+      </c>
+      <c r="L37">
+        <v>5.3719812623644397E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>34</v>
       </c>
@@ -2287,8 +2515,14 @@
       <c r="J38">
         <v>9.91077486503124E-3</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K38">
+        <v>2.1326083618126799E-2</v>
+      </c>
+      <c r="L38">
+        <v>7.4176335924214503E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>33</v>
       </c>
@@ -2322,8 +2556,14 @@
       <c r="J39">
         <v>6.6160963162288904E-3</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K39">
+        <v>1.46135679781964E-2</v>
+      </c>
+      <c r="L39">
+        <v>4.2326909903071704E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -2357,8 +2597,14 @@
       <c r="J40">
         <v>1.61348406666602E-3</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K40">
+        <v>1.47487202236883E-2</v>
+      </c>
+      <c r="L40">
+        <v>5.1378433873533703E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -2392,8 +2638,14 @@
       <c r="J41">
         <v>9.7615747166434404E-4</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K41">
+        <v>1.1319912383917099E-2</v>
+      </c>
+      <c r="L41">
+        <v>3.38033053078949E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -2427,8 +2679,14 @@
       <c r="J42">
         <v>1.2578830558373001E-3</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K42">
+        <v>1.6084070002217898E-2</v>
+      </c>
+      <c r="L42">
+        <v>5.1991878819812902E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -2462,8 +2720,14 @@
       <c r="J43">
         <v>8.6689134554460102E-4</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K43">
+        <v>1.252150915125E-2</v>
+      </c>
+      <c r="L43">
+        <v>3.71466181796901E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>57</v>
       </c>
@@ -2497,8 +2761,14 @@
       <c r="J44">
         <v>1.67738686954025E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K44">
+        <v>1.38012912609532E-2</v>
+      </c>
+      <c r="L44">
+        <v>4.7011550983149901E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>90</v>
       </c>
@@ -2532,8 +2802,14 @@
       <c r="J45">
         <v>1.37647866860053E-3</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K45">
+        <v>1.5921986899589399E-2</v>
+      </c>
+      <c r="L45">
+        <v>5.4886342821838501E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>89</v>
       </c>
@@ -2567,8 +2843,14 @@
       <c r="J46">
         <v>1.1939772687492101E-3</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K46">
+        <v>1.18021783167021E-2</v>
+      </c>
+      <c r="L46">
+        <v>3.84529339444727E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -2602,8 +2884,14 @@
       <c r="J47">
         <v>1.68842698242668E-3</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K47">
+        <v>1.6193396855552499E-2</v>
+      </c>
+      <c r="L47">
+        <v>4.9708419549208196E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>106</v>
       </c>
@@ -2637,8 +2925,14 @@
       <c r="J48">
         <v>2.6928895485139799E-3</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K48">
+        <v>1.6329031738351998E-2</v>
+      </c>
+      <c r="L48">
+        <v>6.4897331061067199E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>105</v>
       </c>
@@ -2672,8 +2966,14 @@
       <c r="J49">
         <v>5.3524025871759398E-4</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K49">
+        <v>2.3027449267998702E-2</v>
+      </c>
+      <c r="L49">
+        <v>4.6865164305892899E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>108</v>
       </c>
@@ -2707,8 +3007,14 @@
       <c r="J50">
         <v>1.48519352977226E-3</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K50">
+        <v>1.3812868380167201E-2</v>
+      </c>
+      <c r="L50">
+        <v>4.6474055676165903E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>107</v>
       </c>
@@ -2742,8 +3048,14 @@
       <c r="J51">
         <v>8.21326218710856E-4</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K51">
+        <v>9.78317078138209E-3</v>
+      </c>
+      <c r="L51">
+        <v>4.11144191396824E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>111</v>
       </c>
@@ -2777,8 +3089,14 @@
       <c r="J52">
         <v>1.02651983330548E-3</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K52">
+        <v>1.64839599839765E-2</v>
+      </c>
+      <c r="L52">
+        <v>3.1365905501956901E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>109</v>
       </c>
@@ -2812,8 +3130,14 @@
       <c r="J53">
         <v>4.8003779504836698E-4</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K53">
+        <v>7.3920577512682504E-3</v>
+      </c>
+      <c r="L53">
+        <v>2.1070644415699699E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>110</v>
       </c>
@@ -2847,8 +3171,14 @@
       <c r="J54">
         <v>8.1509195500565799E-4</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K54">
+        <v>1.00425602167278E-2</v>
+      </c>
+      <c r="L54">
+        <v>4.0400416690045101E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>114</v>
       </c>
@@ -2882,8 +3212,14 @@
       <c r="J55">
         <v>6.1733506249881005E-4</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K55">
+        <v>1.0587099044226E-2</v>
+      </c>
+      <c r="L55">
+        <v>3.0958937528363199E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>112</v>
       </c>
@@ -2917,8 +3253,14 @@
       <c r="J56">
         <v>6.5879365790391501E-4</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K56">
+        <v>1.05696861859839E-2</v>
+      </c>
+      <c r="L56">
+        <v>3.471157182146E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>100</v>
       </c>
@@ -2952,8 +3294,14 @@
       <c r="J57">
         <v>3.4968870111251799E-3</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K57">
+        <v>1.6968211946244701E-2</v>
+      </c>
+      <c r="L57">
+        <v>5.9951148328732896E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>99</v>
       </c>
@@ -2987,8 +3335,14 @@
       <c r="J58">
         <v>1.5464677747688599E-3</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K58">
+        <v>1.72707613758314E-2</v>
+      </c>
+      <c r="L58">
+        <v>7.5002979754909297E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>95</v>
       </c>
@@ -3022,8 +3376,14 @@
       <c r="J59">
         <v>2.30433348796909E-3</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K59">
+        <v>2.4710775862572601E-2</v>
+      </c>
+      <c r="L59">
+        <v>1.2219987282863E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>98</v>
       </c>
@@ -3057,8 +3417,14 @@
       <c r="J60">
         <v>4.22116828886431E-3</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K60">
+        <v>1.8301910278064201E-2</v>
+      </c>
+      <c r="L60">
+        <v>5.8089588291962901E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>97</v>
       </c>
@@ -3092,8 +3458,14 @@
       <c r="J61">
         <v>1.1098115553205101E-3</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K61">
+        <v>1.48624413812386E-2</v>
+      </c>
+      <c r="L61">
+        <v>5.5616204478045302E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>94</v>
       </c>
@@ -3127,8 +3499,14 @@
       <c r="J62">
         <v>1.2657392029683601E-3</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K62">
+        <v>1.6623559510817301E-2</v>
+      </c>
+      <c r="L62">
+        <v>6.8362087569562597E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>46</v>
       </c>
@@ -3162,8 +3540,14 @@
       <c r="J63">
         <v>1.73762568668263E-3</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K63">
+        <v>2.4814012464605802E-2</v>
+      </c>
+      <c r="L63">
+        <v>6.9249914640650599E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>42</v>
       </c>
@@ -3197,8 +3581,14 @@
       <c r="J64">
         <v>1.5724750466596499E-3</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K64">
+        <v>1.4115626294858701E-2</v>
+      </c>
+      <c r="L64">
+        <v>5.3645051281851E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>51</v>
       </c>
@@ -3232,8 +3622,14 @@
       <c r="J65">
         <v>9.0566353082090004E-3</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K65">
+        <v>1.7429404998554599E-2</v>
+      </c>
+      <c r="L65">
+        <v>5.6960577916992002E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>49</v>
       </c>
@@ -3267,8 +3663,14 @@
       <c r="J66">
         <v>2.4421763640667501E-2</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K66">
+        <v>1.57524746180485E-2</v>
+      </c>
+      <c r="L66">
+        <v>6.2104034622192097E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>50</v>
       </c>
@@ -3302,8 +3704,14 @@
       <c r="J67">
         <v>3.22123825886916E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K67">
+        <v>1.5403683763287299E-2</v>
+      </c>
+      <c r="L67">
+        <v>6.1950678389048703E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>52</v>
       </c>
@@ -3337,8 +3745,14 @@
       <c r="J68">
         <v>7.7765971478037698E-3</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K68">
+        <v>1.5771017600256999E-2</v>
+      </c>
+      <c r="L68">
+        <v>6.1908310595294802E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>54</v>
       </c>
@@ -3372,8 +3786,14 @@
       <c r="J69">
         <v>1.21977412530634E-2</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K69">
+        <v>1.9428681099237802E-2</v>
+      </c>
+      <c r="L69">
+        <v>9.2184664291773098E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>53</v>
       </c>
@@ -3407,8 +3827,14 @@
       <c r="J70">
         <v>1.6518851071188799E-2</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K70">
+        <v>1.6803326322734E-2</v>
+      </c>
+      <c r="L70">
+        <v>6.7737451531776202E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>60</v>
       </c>
@@ -3442,8 +3868,14 @@
       <c r="J71">
         <v>2.05703131417714E-3</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K71">
+        <v>1.7858685196347601E-2</v>
+      </c>
+      <c r="L71">
+        <v>5.5079685329171802E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>56</v>
       </c>
@@ -3477,8 +3909,14 @@
       <c r="J72">
         <v>3.5737392125976802E-3</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K72">
+        <v>1.53612557888785E-2</v>
+      </c>
+      <c r="L72">
+        <v>7.4840330325699296E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>55</v>
       </c>
@@ -3512,8 +3950,14 @@
       <c r="J73">
         <v>9.2066913674540892E-3</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K73">
+        <v>2.4954502027600401E-2</v>
+      </c>
+      <c r="L73">
+        <v>1.0518682298216399E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>48</v>
       </c>
@@ -3547,8 +3991,14 @@
       <c r="J74">
         <v>4.4398519214584996E-3</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K74">
+        <v>1.9268060482401001E-2</v>
+      </c>
+      <c r="L74">
+        <v>5.3116468592529402E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>47</v>
       </c>
@@ -3582,8 +4032,14 @@
       <c r="J75">
         <v>2.8954530874965101E-3</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K75">
+        <v>1.97707012735641E-2</v>
+      </c>
+      <c r="L75">
+        <v>5.8359954591725403E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>58</v>
       </c>
@@ -3617,8 +4073,14 @@
       <c r="J76">
         <v>2.9538581509182101E-2</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K76">
+        <v>1.46849655749279E-2</v>
+      </c>
+      <c r="L76">
+        <v>6.0335542042057296E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>59</v>
       </c>
@@ -3652,8 +4114,14 @@
       <c r="J77">
         <v>1.4267917566341499E-2</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K77">
+        <v>1.5732870590775001E-2</v>
+      </c>
+      <c r="L77">
+        <v>5.40062690248699E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>61</v>
       </c>
@@ -3687,8 +4155,14 @@
       <c r="J78">
         <v>1.8300523739837101E-3</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K78">
+        <v>1.9588626223525599E-2</v>
+      </c>
+      <c r="L78">
+        <v>5.5080253724245198E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +4196,14 @@
       <c r="J79">
         <v>2.0483692455849898E-3</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K79">
+        <v>1.35362070398721E-2</v>
+      </c>
+      <c r="L79">
+        <v>4.3440853108519199E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>73</v>
       </c>
@@ -3757,8 +4237,14 @@
       <c r="J80">
         <v>1.3040616765716199E-3</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K80">
+        <v>1.30992411684328E-2</v>
+      </c>
+      <c r="L80">
+        <v>3.534647241102E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -3792,8 +4278,14 @@
       <c r="J81">
         <v>2.38426178761451E-3</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K81">
+        <v>1.6258019588303099E-2</v>
+      </c>
+      <c r="L81">
+        <v>6.3673741940728302E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>77</v>
       </c>
@@ -3827,8 +4319,14 @@
       <c r="J82">
         <v>1.2504173916946799E-3</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K82">
+        <v>1.64970854973292E-2</v>
+      </c>
+      <c r="L82">
+        <v>7.1426248983906399E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -3862,8 +4360,14 @@
       <c r="J83">
         <v>1.1300160477216801E-3</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K83">
+        <v>1.8194252826431601E-2</v>
+      </c>
+      <c r="L83">
+        <v>5.0241104027201697E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>80</v>
       </c>
@@ -3897,8 +4401,14 @@
       <c r="J84">
         <v>1.0412837606140601E-3</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K84">
+        <v>1.4461641739210799E-2</v>
+      </c>
+      <c r="L84">
+        <v>4.4322672743752796E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>81</v>
       </c>
@@ -3932,8 +4442,14 @@
       <c r="J85">
         <v>9.27146592130317E-4</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K85">
+        <v>1.1238382597518999E-2</v>
+      </c>
+      <c r="L85">
+        <v>4.4860761210041697E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -3967,8 +4483,14 @@
       <c r="J86">
         <v>1.63515486531593E-3</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K86">
+        <v>1.48804101666509E-2</v>
+      </c>
+      <c r="L86">
+        <v>3.99517011504456E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>83</v>
       </c>
@@ -4002,8 +4524,14 @@
       <c r="J87">
         <v>1.03500338458345E-3</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K87">
+        <v>1.70194482845792E-2</v>
+      </c>
+      <c r="L87">
+        <v>5.6162579428451201E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>84</v>
       </c>
@@ -4037,8 +4565,14 @@
       <c r="J88">
         <v>7.3824550800451498E-3</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K88">
+        <v>3.3848880863066602E-2</v>
+      </c>
+      <c r="L88">
+        <v>1.9651628289127102E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>92</v>
       </c>
@@ -4072,8 +4606,14 @@
       <c r="J89">
         <v>8.2704607272464804E-4</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K89">
+        <v>7.4684011140078999E-3</v>
+      </c>
+      <c r="L89">
+        <v>2.2655046360199401E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>91</v>
       </c>
@@ -4107,8 +4647,14 @@
       <c r="J90">
         <v>3.7424977996119697E-4</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K90">
+        <v>5.84762507410822E-3</v>
+      </c>
+      <c r="L90">
+        <v>2.0167808550573402E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>78</v>
       </c>
@@ -4142,8 +4688,14 @@
       <c r="J91">
         <v>1.74745687304044E-3</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K91">
+        <v>2.5302004999987301E-2</v>
+      </c>
+      <c r="L91">
+        <v>1.4499401803911899E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>75</v>
       </c>
@@ -4177,8 +4729,14 @@
       <c r="J92">
         <v>1.5129123776339601E-3</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K92">
+        <v>1.97577282054778E-2</v>
+      </c>
+      <c r="L92">
+        <v>8.5449009167646393E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>76</v>
       </c>
@@ -4212,8 +4770,14 @@
       <c r="J93">
         <v>1.48815484302091E-3</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K93">
+        <v>1.2179446050713499E-2</v>
+      </c>
+      <c r="L93">
+        <v>5.6935417290658701E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>74</v>
       </c>
@@ -4247,8 +4811,14 @@
       <c r="J94">
         <v>2.4078763355719602E-3</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K94">
+        <v>1.53195762549858E-2</v>
+      </c>
+      <c r="L94">
+        <v>6.3611892862461801E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>67</v>
       </c>
@@ -4282,8 +4852,14 @@
       <c r="J95">
         <v>9.2155240912597503E-4</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K95">
+        <v>1.1511496175792999E-2</v>
+      </c>
+      <c r="L95">
+        <v>4.9235044614266204E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>66</v>
       </c>
@@ -4317,8 +4893,14 @@
       <c r="J96">
         <v>1.129529602933E-3</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K96">
+        <v>1.5687564815827702E-2</v>
+      </c>
+      <c r="L96">
+        <v>4.2348868715546203E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>65</v>
       </c>
@@ -4352,8 +4934,14 @@
       <c r="J97">
         <v>5.2247045651793395E-4</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K97">
+        <v>1.0346397638517199E-2</v>
+      </c>
+      <c r="L97">
+        <v>3.0431711749714999E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>69</v>
       </c>
@@ -4387,8 +4975,14 @@
       <c r="J98">
         <v>1.16747575861897E-3</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K98">
+        <v>1.7026129952145599E-2</v>
+      </c>
+      <c r="L98">
+        <v>4.2354128259537403E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>68</v>
       </c>
@@ -4422,8 +5016,14 @@
       <c r="J99">
         <v>1.01993482092637E-3</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K99">
+        <v>1.48755853386547E-2</v>
+      </c>
+      <c r="L99">
+        <v>6.1670946976577698E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>71</v>
       </c>
@@ -4457,8 +5057,14 @@
       <c r="J100">
         <v>1.6350648551175101E-3</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K100">
+        <v>1.7204769867630199E-2</v>
+      </c>
+      <c r="L100">
+        <v>8.6967743378458303E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>72</v>
       </c>
@@ -4492,8 +5098,14 @@
       <c r="J101">
         <v>9.4312970480652403E-4</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K101">
+        <v>1.32368464358985E-2</v>
+      </c>
+      <c r="L101">
+        <v>3.4185162919858898E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>70</v>
       </c>
@@ -4527,8 +5139,14 @@
       <c r="J102">
         <v>6.4348212205249595E-4</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K102">
+        <v>9.9131512440282891E-3</v>
+      </c>
+      <c r="L102">
+        <v>2.7892535011963902E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>63</v>
       </c>
@@ -4562,8 +5180,14 @@
       <c r="J103">
         <v>1.4717539552756701E-3</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K103">
+        <v>2.4931088201062001E-2</v>
+      </c>
+      <c r="L103">
+        <v>1.0426043999017399E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>64</v>
       </c>
@@ -4597,8 +5221,14 @@
       <c r="J104">
         <v>2.44844977411622E-3</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K104">
+        <v>2.1810256520099301E-2</v>
+      </c>
+      <c r="L104">
+        <v>8.6807336299597002E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>87</v>
       </c>
@@ -4632,8 +5262,14 @@
       <c r="J105">
         <v>1.24722353120034E-3</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K105">
+        <v>1.4575933652666699E-2</v>
+      </c>
+      <c r="L105">
+        <v>4.7700618409301301E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>116</v>
       </c>
@@ -4667,8 +5303,14 @@
       <c r="J106">
         <v>1.81467870429407E-3</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K106">
+        <v>1.94896915478165E-2</v>
+      </c>
+      <c r="L106">
+        <v>5.5732172458285599E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>115</v>
       </c>
@@ -4702,8 +5344,14 @@
       <c r="J107">
         <v>1.4956051762293099E-3</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K107">
+        <v>1.44100982242564E-2</v>
+      </c>
+      <c r="L107">
+        <v>4.0686586098832604E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>88</v>
       </c>
@@ -4737,8 +5385,14 @@
       <c r="J108">
         <v>5.0724289197042805E-4</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K108">
+        <v>5.2320687262637803E-3</v>
+      </c>
+      <c r="L108">
+        <v>1.76335297701682E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>86</v>
       </c>
@@ -4772,8 +5426,14 @@
       <c r="J109">
         <v>1.5073076906830401E-3</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K109">
+        <v>1.41938163735658E-2</v>
+      </c>
+      <c r="L109">
+        <v>4.7889793464389596E-3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>96</v>
       </c>
@@ -4807,8 +5467,14 @@
       <c r="J110">
         <v>2.0132494184837502E-3</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K110">
+        <v>1.51526381146807E-2</v>
+      </c>
+      <c r="L110">
+        <v>4.9922913899517803E-3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>102</v>
       </c>
@@ -4842,8 +5508,14 @@
       <c r="J111">
         <v>2.0391076194050499E-3</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K111">
+        <v>2.110341625214E-2</v>
+      </c>
+      <c r="L111">
+        <v>6.14059571666376E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>101</v>
       </c>
@@ -4877,8 +5549,14 @@
       <c r="J112">
         <v>9.6999156738145E-4</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K112">
+        <v>1.30916722759173E-2</v>
+      </c>
+      <c r="L112">
+        <v>4.7658786729942101E-3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>137</v>
       </c>
@@ -4912,8 +5590,14 @@
       <c r="J113">
         <v>4.4477478662362201E-3</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K113">
+        <v>1.50828953255154E-2</v>
+      </c>
+      <c r="L113">
+        <v>4.8294747545335201E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>136</v>
       </c>
@@ -4947,8 +5631,14 @@
       <c r="J114">
         <v>4.5806640386196799E-4</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K114">
+        <v>5.7058479216384904E-3</v>
+      </c>
+      <c r="L114">
+        <v>1.5256133824711499E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>138</v>
       </c>
@@ -4982,8 +5672,14 @@
       <c r="J115">
         <v>4.7289125423979001E-3</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K115">
+        <v>1.4494082539276899E-2</v>
+      </c>
+      <c r="L115">
+        <v>3.5287613755054601E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>147</v>
       </c>
@@ -5017,8 +5713,14 @@
       <c r="J116">
         <v>2.4961801910883402E-3</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K116">
+        <v>1.8435260282609198E-2</v>
+      </c>
+      <c r="L116">
+        <v>6.4948147628476399E-3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>135</v>
       </c>
@@ -5052,8 +5754,14 @@
       <c r="J117">
         <v>8.1123380643565205E-4</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K117">
+        <v>7.2563447743135201E-3</v>
+      </c>
+      <c r="L117">
+        <v>1.90636420060159E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>134</v>
       </c>
@@ -5087,8 +5795,14 @@
       <c r="J118">
         <v>1.3798246746601101E-3</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K118">
+        <v>1.2953680197316001E-2</v>
+      </c>
+      <c r="L118">
+        <v>3.4844325862294799E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>133</v>
       </c>
@@ -5122,8 +5836,14 @@
       <c r="J119">
         <v>1.2754429362013401E-3</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K119">
+        <v>1.14603284258054E-2</v>
+      </c>
+      <c r="L119">
+        <v>3.4085412854331998E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>104</v>
       </c>
@@ -5157,8 +5877,14 @@
       <c r="J120">
         <v>1.37370452034923E-3</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K120">
+        <v>1.6541965810627401E-2</v>
+      </c>
+      <c r="L120">
+        <v>5.8546375128501801E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>103</v>
       </c>
@@ -5192,8 +5918,14 @@
       <c r="J121">
         <v>9.0805338346136696E-4</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K121">
+        <v>8.23236834689192E-3</v>
+      </c>
+      <c r="L121">
+        <v>2.7569525648387001E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>113</v>
       </c>
@@ -5227,8 +5959,14 @@
       <c r="J122">
         <v>1.30358630686612E-3</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K122">
+        <v>1.37140298266671E-2</v>
+      </c>
+      <c r="L122">
+        <v>5.3190725179351698E-3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>117</v>
       </c>
@@ -5262,8 +6000,14 @@
       <c r="J123">
         <v>2.9165130041022098E-3</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K123">
+        <v>1.7793965589724899E-2</v>
+      </c>
+      <c r="L123">
+        <v>6.4901374895953599E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>118</v>
       </c>
@@ -5297,8 +6041,14 @@
       <c r="J124">
         <v>1.7667243971440599E-3</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K124">
+        <v>1.6337949679842999E-2</v>
+      </c>
+      <c r="L124">
+        <v>5.12593684711753E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>119</v>
       </c>
@@ -5332,8 +6082,14 @@
       <c r="J125">
         <v>2.2283264000951099E-3</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K125">
+        <v>1.7258401271752499E-2</v>
+      </c>
+      <c r="L125">
+        <v>6.1787282668868499E-3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>123</v>
       </c>
@@ -5367,8 +6123,14 @@
       <c r="J126">
         <v>1.4530741558260701E-3</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K126">
+        <v>1.5726067712468799E-2</v>
+      </c>
+      <c r="L126">
+        <v>5.6457356222445404E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>148</v>
       </c>
@@ -5402,8 +6164,14 @@
       <c r="J127">
         <v>4.0107060561861202E-3</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K127">
+        <v>1.68362331920235E-2</v>
+      </c>
+      <c r="L127">
+        <v>5.2743697969837898E-3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>145</v>
       </c>
@@ -5437,8 +6205,14 @@
       <c r="J128">
         <v>9.39766405312442E-4</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K128">
+        <v>1.25280503773188E-2</v>
+      </c>
+      <c r="L128">
+        <v>4.0581509660931802E-3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>146</v>
       </c>
@@ -5472,8 +6246,14 @@
       <c r="J129">
         <v>3.4885089002170502E-3</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K129">
+        <v>1.4796201843114301E-2</v>
+      </c>
+      <c r="L129">
+        <v>5.4388067625391603E-3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>140</v>
       </c>
@@ -5507,8 +6287,14 @@
       <c r="J130">
         <v>4.2951466505594402E-3</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K130">
+        <v>1.4095103763546399E-2</v>
+      </c>
+      <c r="L130">
+        <v>4.6807064555970902E-3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>139</v>
       </c>
@@ -5542,8 +6328,14 @@
       <c r="J131">
         <v>1.9961066501373698E-3</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K131">
+        <v>1.3498376225422401E-2</v>
+      </c>
+      <c r="L131">
+        <v>5.5497059047137001E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>142</v>
       </c>
@@ -5577,8 +6369,14 @@
       <c r="J132">
         <v>2.9848427740093702E-3</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K132">
+        <v>1.3513716471025601E-2</v>
+      </c>
+      <c r="L132">
+        <v>4.69985686662318E-3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>141</v>
       </c>
@@ -5612,8 +6410,14 @@
       <c r="J133">
         <v>1.0952377025764801E-3</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K133">
+        <v>1.1093786295831499E-2</v>
+      </c>
+      <c r="L133">
+        <v>4.3715879360161601E-3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>144</v>
       </c>
@@ -5647,8 +6451,14 @@
       <c r="J134">
         <v>3.2978756323141902E-3</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K134">
+        <v>1.72299033513462E-2</v>
+      </c>
+      <c r="L134">
+        <v>7.0029123109756298E-3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>143</v>
       </c>
@@ -5682,8 +6492,14 @@
       <c r="J135">
         <v>3.4457169516566399E-3</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K135">
+        <v>1.7652692797563301E-2</v>
+      </c>
+      <c r="L135">
+        <v>6.5985697962318299E-3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>129</v>
       </c>
@@ -5717,8 +6533,14 @@
       <c r="J136">
         <v>8.8034587937296999E-4</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K136">
+        <v>1.96155233928825E-2</v>
+      </c>
+      <c r="L136">
+        <v>4.5864953944465599E-3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>121</v>
       </c>
@@ -5752,8 +6574,14 @@
       <c r="J137">
         <v>3.5772529924293899E-3</v>
       </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K137">
+        <v>2.8131799309356199E-2</v>
+      </c>
+      <c r="L137">
+        <v>1.30818512477411E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>122</v>
       </c>
@@ -5787,8 +6615,14 @@
       <c r="J138">
         <v>1.9121634866236001E-3</v>
       </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K138">
+        <v>2.0640116329583302E-2</v>
+      </c>
+      <c r="L138">
+        <v>9.70213685199868E-3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>120</v>
       </c>
@@ -5822,8 +6656,14 @@
       <c r="J139">
         <v>1.71980500378377E-3</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K139">
+        <v>1.7142360437130799E-2</v>
+      </c>
+      <c r="L139">
+        <v>4.72910781859267E-3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>126</v>
       </c>
@@ -5857,8 +6697,14 @@
       <c r="J140">
         <v>8.9204312555283096E-4</v>
       </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K140">
+        <v>1.1879400235068401E-2</v>
+      </c>
+      <c r="L140">
+        <v>3.8270209048448601E-3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>124</v>
       </c>
@@ -5892,8 +6738,14 @@
       <c r="J141">
         <v>1.3166688953106199E-3</v>
       </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K141">
+        <v>9.8397935335201095E-3</v>
+      </c>
+      <c r="L141">
+        <v>3.8741651472878899E-3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>125</v>
       </c>
@@ -5927,8 +6779,14 @@
       <c r="J142">
         <v>1.8000160551041699E-3</v>
       </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K142">
+        <v>1.53738451350874E-2</v>
+      </c>
+      <c r="L142">
+        <v>7.0131628920579699E-3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>127</v>
       </c>
@@ -5962,8 +6820,14 @@
       <c r="J143">
         <v>1.5385045189134901E-3</v>
       </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K143">
+        <v>1.5781259363042002E-2</v>
+      </c>
+      <c r="L143">
+        <v>5.6862413317773997E-3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>128</v>
       </c>
@@ -5997,8 +6861,14 @@
       <c r="J144">
         <v>1.2314955582498699E-3</v>
       </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K144">
+        <v>1.4697004285694501E-2</v>
+      </c>
+      <c r="L144">
+        <v>4.6567802168568798E-3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>149</v>
       </c>
@@ -6032,8 +6902,14 @@
       <c r="J145">
         <v>3.6141134425174801E-3</v>
       </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K145">
+        <v>1.6126712485158599E-2</v>
+      </c>
+      <c r="L145">
+        <v>5.5721386168142298E-3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>131</v>
       </c>
@@ -6067,8 +6943,14 @@
       <c r="J146">
         <v>2.2430499449017402E-3</v>
       </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K146">
+        <v>1.6135978164760201E-2</v>
+      </c>
+      <c r="L146">
+        <v>7.7173679095753397E-3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>132</v>
       </c>
@@ -6102,8 +6984,14 @@
       <c r="J147">
         <v>1.17522366729331E-3</v>
       </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K147">
+        <v>1.2297197922111701E-2</v>
+      </c>
+      <c r="L147">
+        <v>3.5272097503594802E-3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>130</v>
       </c>
@@ -6137,8 +7025,14 @@
       <c r="J148">
         <v>1.1724351497295301E-3</v>
       </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K148">
+        <v>1.39094153421864E-2</v>
+      </c>
+      <c r="L148">
+        <v>4.0930953875343203E-3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>158</v>
       </c>
@@ -6172,8 +7066,14 @@
       <c r="J149">
         <v>2.2094670111183099E-3</v>
       </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K149">
+        <v>2.21290245515087E-2</v>
+      </c>
+      <c r="L149">
+        <v>7.5011030390514499E-3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>157</v>
       </c>
@@ -6207,8 +7107,14 @@
       <c r="J150">
         <v>1.8478885072493801E-3</v>
       </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K150">
+        <v>1.95668289343419E-2</v>
+      </c>
+      <c r="L150">
+        <v>7.4087785965482296E-3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>156</v>
       </c>
@@ -6242,8 +7148,14 @@
       <c r="J151">
         <v>4.20962415726226E-3</v>
       </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K151">
+        <v>1.8789491384869E-2</v>
+      </c>
+      <c r="L151">
+        <v>8.5195050240252593E-3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>160</v>
       </c>
@@ -6277,8 +7189,14 @@
       <c r="J152">
         <v>1.6986541064443099E-3</v>
       </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K152">
+        <v>2.8238709492057899E-2</v>
+      </c>
+      <c r="L152">
+        <v>1.0287127374566701E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>159</v>
       </c>
@@ -6312,8 +7230,14 @@
       <c r="J153">
         <v>3.3071353994232199E-3</v>
       </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K153">
+        <v>2.7072297836130101E-2</v>
+      </c>
+      <c r="L153">
+        <v>1.1374233943639501E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>162</v>
       </c>
@@ -6347,8 +7271,14 @@
       <c r="J154">
         <v>2.2695717616373901E-2</v>
       </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K154">
+        <v>3.5551734318124598E-2</v>
+      </c>
+      <c r="L154">
+        <v>1.6543542637844199E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>163</v>
       </c>
@@ -6382,8 +7312,14 @@
       <c r="J155">
         <v>2.3485266650935298E-3</v>
       </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K155">
+        <v>1.9090750120196499E-2</v>
+      </c>
+      <c r="L155">
+        <v>6.78053120771738E-3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>161</v>
       </c>
@@ -6417,8 +7353,14 @@
       <c r="J156">
         <v>1.0275846685785E-2</v>
       </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K156">
+        <v>2.4024637804086001E-2</v>
+      </c>
+      <c r="L156">
+        <v>9.4257126163888594E-3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>154</v>
       </c>
@@ -6452,8 +7394,14 @@
       <c r="J157">
         <v>2.8695644989932502E-3</v>
       </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K157">
+        <v>1.0773732466980299E-2</v>
+      </c>
+      <c r="L157">
+        <v>3.2355270639740901E-3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>164</v>
       </c>
@@ -6487,8 +7435,14 @@
       <c r="J158">
         <v>3.65767172433016E-3</v>
       </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K158">
+        <v>2.5164598167470902E-2</v>
+      </c>
+      <c r="L158">
+        <v>9.5109127864204997E-3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>166</v>
       </c>
@@ -6522,8 +7476,14 @@
       <c r="J159">
         <v>2.5882943473549899E-3</v>
       </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K159">
+        <v>2.6152492260038601E-2</v>
+      </c>
+      <c r="L159">
+        <v>1.28582726750052E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>168</v>
       </c>
@@ -6557,8 +7517,14 @@
       <c r="J160">
         <v>3.3811188711305199E-3</v>
       </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K160">
+        <v>2.7326400703692799E-2</v>
+      </c>
+      <c r="L160">
+        <v>9.9512485551887797E-3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>167</v>
       </c>
@@ -6592,8 +7558,14 @@
       <c r="J161">
         <v>1.8232286698072499E-3</v>
       </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K161">
+        <v>2.1810861092448099E-2</v>
+      </c>
+      <c r="L161">
+        <v>7.5250814368182902E-3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>170</v>
       </c>
@@ -6627,8 +7599,14 @@
       <c r="J162">
         <v>3.98418122206547E-3</v>
       </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K162">
+        <v>1.9576153163649399E-2</v>
+      </c>
+      <c r="L162">
+        <v>7.3185354749690599E-3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>169</v>
       </c>
@@ -6662,8 +7640,14 @@
       <c r="J163">
         <v>2.49799361209729E-3</v>
       </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K163">
+        <v>1.62428431318241E-2</v>
+      </c>
+      <c r="L163">
+        <v>5.6021536658492702E-3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>171</v>
       </c>
@@ -6697,8 +7681,14 @@
       <c r="J164">
         <v>5.0116059469454204E-4</v>
       </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K164">
+        <v>1.04421602966449E-2</v>
+      </c>
+      <c r="L164">
+        <v>2.95541349193028E-3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>172</v>
       </c>
@@ -6732,8 +7722,14 @@
       <c r="J165">
         <v>3.0905744882043498E-3</v>
       </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K165">
+        <v>1.8205618349748601E-2</v>
+      </c>
+      <c r="L165">
+        <v>6.9851036928435502E-3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>176</v>
       </c>
@@ -6767,8 +7763,14 @@
       <c r="J166">
         <v>7.4122597325023002E-3</v>
       </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K166">
+        <v>1.5211865898079E-2</v>
+      </c>
+      <c r="L166">
+        <v>5.3966481409358901E-3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>185</v>
       </c>
@@ -6802,8 +7804,14 @@
       <c r="J167">
         <v>1.38344309374433E-3</v>
       </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K167">
+        <v>1.2935177539280999E-2</v>
+      </c>
+      <c r="L167">
+        <v>4.4145722117330298E-3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>186</v>
       </c>
@@ -6837,8 +7845,14 @@
       <c r="J168">
         <v>4.7251474449490601E-3</v>
       </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K168">
+        <v>1.46200039727808E-2</v>
+      </c>
+      <c r="L168">
+        <v>5.0096647841722103E-3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>184</v>
       </c>
@@ -6872,8 +7886,14 @@
       <c r="J169">
         <v>6.9853105160771504E-3</v>
       </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K169">
+        <v>1.9130214949365999E-2</v>
+      </c>
+      <c r="L169">
+        <v>7.2769055785717896E-3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>183</v>
       </c>
@@ -6907,8 +7927,14 @@
       <c r="J170">
         <v>9.0762454667077201E-4</v>
       </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K170">
+        <v>7.7111555832417699E-3</v>
+      </c>
+      <c r="L170">
+        <v>2.3716529064501499E-3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>181</v>
       </c>
@@ -6942,8 +7968,14 @@
       <c r="J171">
         <v>1.15939234593899E-2</v>
       </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K171">
+        <v>1.8330390667348099E-2</v>
+      </c>
+      <c r="L171">
+        <v>6.6131768592431698E-3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>180</v>
       </c>
@@ -6977,8 +8009,14 @@
       <c r="J172">
         <v>7.4500748775328601E-4</v>
       </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K172">
+        <v>9.6919956038241592E-3</v>
+      </c>
+      <c r="L172">
+        <v>3.0263051588580799E-3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>165</v>
       </c>
@@ -7012,8 +8050,14 @@
       <c r="J173">
         <v>2.0621886267553802E-3</v>
       </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K173">
+        <v>1.9279809418230098E-2</v>
+      </c>
+      <c r="L173">
+        <v>8.2206809945145603E-3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>182</v>
       </c>
@@ -7047,8 +8091,14 @@
       <c r="J174">
         <v>9.4464763042108203E-3</v>
       </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K174">
+        <v>1.7625630108322202E-2</v>
+      </c>
+      <c r="L174">
+        <v>5.3722977739415704E-3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>179</v>
       </c>
@@ -7082,8 +8132,14 @@
       <c r="J175">
         <v>3.0397076652609999E-3</v>
       </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K175">
+        <v>2.8931387791221799E-2</v>
+      </c>
+      <c r="L175">
+        <v>1.3956595598128301E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>178</v>
       </c>
@@ -7117,8 +8173,14 @@
       <c r="J176">
         <v>5.4173307103411398E-3</v>
       </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K176">
+        <v>2.0739786008580299E-2</v>
+      </c>
+      <c r="L176">
+        <v>7.7052504963060304E-3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>177</v>
       </c>
@@ -7152,8 +8214,14 @@
       <c r="J177">
         <v>2.2099649978768701E-3</v>
       </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K177">
+        <v>2.0364683876429701E-2</v>
+      </c>
+      <c r="L177">
+        <v>8.4624612076078902E-3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>174</v>
       </c>
@@ -7187,8 +8255,14 @@
       <c r="J178">
         <v>1.6750532282560199E-3</v>
       </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K178">
+        <v>1.78654236799724E-2</v>
+      </c>
+      <c r="L178">
+        <v>7.2465270586805899E-3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>175</v>
       </c>
@@ -7222,8 +8296,14 @@
       <c r="J179">
         <v>2.3624730060786002E-3</v>
       </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K179">
+        <v>2.2582094949387298E-2</v>
+      </c>
+      <c r="L179">
+        <v>7.7683292712532803E-3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>173</v>
       </c>
@@ -7257,8 +8337,14 @@
       <c r="J180">
         <v>4.50320042760061E-3</v>
       </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K180">
+        <v>1.55866057073139E-2</v>
+      </c>
+      <c r="L180">
+        <v>6.06983979295804E-3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>151</v>
       </c>
@@ -7292,8 +8378,14 @@
       <c r="J181">
         <v>5.0308170474616803E-3</v>
       </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K181">
+        <v>2.6137171817320198E-2</v>
+      </c>
+      <c r="L181">
+        <v>8.9846093060770207E-3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>150</v>
       </c>
@@ -7327,8 +8419,14 @@
       <c r="J182">
         <v>4.4481628198093804E-3</v>
       </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K182">
+        <v>1.50543970151028E-2</v>
+      </c>
+      <c r="L182">
+        <v>5.0515256342023602E-3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>153</v>
       </c>
@@ -7362,8 +8460,14 @@
       <c r="J183">
         <v>7.9813018744226208E-3</v>
       </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K183">
+        <v>1.76002450357261E-2</v>
+      </c>
+      <c r="L183">
+        <v>7.0043933452068304E-3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>152</v>
       </c>
@@ -7397,8 +8501,14 @@
       <c r="J184">
         <v>8.1089748901961006E-3</v>
       </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K184">
+        <v>1.62072961865381E-2</v>
+      </c>
+      <c r="L184">
+        <v>6.0264866899388796E-3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>155</v>
       </c>
@@ -7432,8 +8542,14 @@
       <c r="J185">
         <v>0.15006164620936599</v>
       </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K185">
+        <v>1.07792450410375E-2</v>
+      </c>
+      <c r="L185">
+        <v>3.8590038874579298E-3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>6</v>
       </c>
@@ -7467,8 +8583,14 @@
       <c r="J186">
         <v>8.0343152359555099E-4</v>
       </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K186">
+        <v>1.6419501431637701E-2</v>
+      </c>
+      <c r="L186">
+        <v>5.9156721056031099E-3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>5</v>
       </c>
@@ -7502,8 +8624,14 @@
       <c r="J187">
         <v>1.2471487121475701E-3</v>
       </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K187">
+        <v>2.89036378366202E-2</v>
+      </c>
+      <c r="L187">
+        <v>9.5731460376410407E-3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>0</v>
       </c>
@@ -7536,6 +8664,12 @@
       </c>
       <c r="J188">
         <v>1.3059858921183199E-3</v>
+      </c>
+      <c r="K188">
+        <v>3.0695970433888199E-2</v>
+      </c>
+      <c r="L188">
+        <v>1.0585602141164401E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Figure Generating/data/RNA_Biofilm_Trans_Defense_Coverage.xlsx
+++ b/Figure Generating/data/RNA_Biofilm_Trans_Defense_Coverage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin Juntao\Desktop\transposase-deep-ocean\Figure Generating\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0EDF26-3D9A-46D9-A6C5-63FEB1E4E10D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA975C6-726A-400D-9B47-9BDB28D8F460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
   <si>
     <t>TARA_X100000009</t>
   </si>
@@ -631,6 +631,9 @@
   </si>
   <si>
     <t>RNA_sect_pep</t>
+  </si>
+  <si>
+    <t>RNA_signalT</t>
   </si>
 </sst>
 </file>
@@ -948,10 +951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L188"/>
+  <dimension ref="A1:M188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="I186" sqref="I186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -967,7 +970,7 @@
     <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>187</v>
       </c>
@@ -1004,8 +1007,11 @@
       <c r="L1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1045,8 +1051,11 @@
       <c r="L2">
         <v>8.4993332548834199E-4</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M2">
+        <v>9.9373249291460496E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1086,8 +1095,11 @@
       <c r="L3">
         <v>5.5935796745179098E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M3">
+        <v>1.7098526547449501E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1127,8 +1139,11 @@
       <c r="L4">
         <v>6.3312098159210503E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M4">
+        <v>2.4498787595307299E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1168,8 +1183,11 @@
       <c r="L5">
         <v>4.2038892726163997E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M5">
+        <v>1.7187803850883801E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1209,8 +1227,11 @@
       <c r="L6">
         <v>6.0002018560213798E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M6">
+        <v>1.88219502126505E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1250,8 +1271,11 @@
       <c r="L7">
         <v>1.0443682533453401E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M7">
+        <v>3.1640170315563199E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1291,8 +1315,11 @@
       <c r="L8">
         <v>9.5840835614659295E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M8">
+        <v>3.6599762105984099E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1332,8 +1359,11 @@
       <c r="L9">
         <v>1.03232292943081E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M9">
+        <v>8.1870781539129696E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1373,8 +1403,11 @@
       <c r="L10">
         <v>8.3367189954210701E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M10">
+        <v>4.7977752009480601E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1414,8 +1447,11 @@
       <c r="L11">
         <v>1.0758859018796E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11">
+        <v>2.5399781524840901E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1455,8 +1491,11 @@
       <c r="L12">
         <v>1.24180308016678E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M12">
+        <v>8.9709639789168506E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1496,8 +1535,11 @@
       <c r="L13">
         <v>6.4509663714288103E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M13">
+        <v>3.3665283834665299E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1537,8 +1579,11 @@
       <c r="L14">
         <v>4.4671267783733997E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M14">
+        <v>2.7010868254466001E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1578,8 +1623,11 @@
       <c r="L15">
         <v>8.4519201917901392E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M15">
+        <v>4.8513267940258802E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1619,8 +1667,11 @@
       <c r="L16">
         <v>5.3900893332449601E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M16">
+        <v>1.78803862861267E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1660,8 +1711,11 @@
       <c r="L17">
         <v>4.8375925265502096E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M17">
+        <v>1.32378528722002E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1701,8 +1755,11 @@
       <c r="L18">
         <v>5.3839806750219897E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M18">
+        <v>1.5833305651949299E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1742,8 +1799,11 @@
       <c r="L19">
         <v>4.96591430325115E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M19">
+        <v>1.9570912617887502E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -1783,8 +1843,11 @@
       <c r="L20">
         <v>4.8598498275575601E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M20">
+        <v>1.98224267243226E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -1824,8 +1887,11 @@
       <c r="L21">
         <v>3.8432228605054901E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M21">
+        <v>1.0719833225535599E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1865,8 +1931,11 @@
       <c r="L22">
         <v>7.1966545095778003E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M22">
+        <v>1.5527957874816999E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1906,8 +1975,11 @@
       <c r="L23">
         <v>3.9516061810130499E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M23">
+        <v>1.2004244779675801E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1947,8 +2019,11 @@
       <c r="L24">
         <v>7.3149593220292004E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M24">
+        <v>1.9628928485704101E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1988,8 +2063,11 @@
       <c r="L25">
         <v>5.9543653087944497E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M25">
+        <v>1.6889784257155701E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -2029,8 +2107,11 @@
       <c r="L26">
         <v>4.2276607538400098E-3</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M26">
+        <v>1.3005843342821901E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -2070,8 +2151,11 @@
       <c r="L27">
         <v>7.9475344331033301E-3</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M27">
+        <v>2.84572941073562E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -2111,8 +2195,11 @@
       <c r="L28">
         <v>9.78431598738916E-3</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M28">
+        <v>4.6445393227968496E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -2152,8 +2239,11 @@
       <c r="L29">
         <v>7.2623219734270902E-3</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M29">
+        <v>4.4384612587806604E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -2193,8 +2283,11 @@
       <c r="L30">
         <v>3.9098819473279102E-3</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M30">
+        <v>1.5743671481404E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -2234,8 +2327,11 @@
       <c r="L31">
         <v>3.3846441551502199E-3</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M31">
+        <v>1.20436103125434E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -2275,8 +2371,11 @@
       <c r="L32">
         <v>3.8479008164106301E-3</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M32">
+        <v>2.6615160159019001E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -2316,8 +2415,11 @@
       <c r="L33">
         <v>6.2428920175199602E-3</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M33">
+        <v>3.5285664289506601E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -2357,8 +2459,11 @@
       <c r="L34">
         <v>4.5225886418832403E-3</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M34">
+        <v>2.4900448149809298E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -2398,8 +2503,11 @@
       <c r="L35">
         <v>1.0808566403165999E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M35">
+        <v>1.0048710015219601E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2547,11 @@
       <c r="L36">
         <v>5.8901971189119096E-3</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M36">
+        <v>2.5464798958402999E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2480,8 +2591,11 @@
       <c r="L37">
         <v>5.3719812623644397E-3</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M37">
+        <v>2.2876273459473901E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>34</v>
       </c>
@@ -2521,8 +2635,11 @@
       <c r="L38">
         <v>7.4176335924214503E-3</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M38">
+        <v>5.1910214931514204E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>33</v>
       </c>
@@ -2562,8 +2679,11 @@
       <c r="L39">
         <v>4.2326909903071704E-3</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M39">
+        <v>2.06699223324767E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -2603,8 +2723,11 @@
       <c r="L40">
         <v>5.1378433873533703E-3</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M40">
+        <v>2.7676782724577499E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -2644,8 +2767,11 @@
       <c r="L41">
         <v>3.38033053078949E-3</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M41">
+        <v>2.7255827257653001E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -2685,8 +2811,11 @@
       <c r="L42">
         <v>5.1991878819812902E-3</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M42">
+        <v>1.49355371652928E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -2726,8 +2855,11 @@
       <c r="L43">
         <v>3.71466181796901E-3</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M43">
+        <v>1.69149020273744E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>57</v>
       </c>
@@ -2767,8 +2899,11 @@
       <c r="L44">
         <v>4.7011550983149901E-3</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M44">
+        <v>2.7090697891991602E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>90</v>
       </c>
@@ -2808,8 +2943,11 @@
       <c r="L45">
         <v>5.4886342821838501E-3</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M45">
+        <v>1.5890476935916901E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>89</v>
       </c>
@@ -2849,8 +2987,11 @@
       <c r="L46">
         <v>3.84529339444727E-3</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M46">
+        <v>1.7554928148813701E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -2890,8 +3031,11 @@
       <c r="L47">
         <v>4.9708419549208196E-3</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M47">
+        <v>2.2647125596970798E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>106</v>
       </c>
@@ -2931,8 +3075,11 @@
       <c r="L48">
         <v>6.4897331061067199E-3</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M48">
+        <v>2.17290712479853E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>105</v>
       </c>
@@ -2972,8 +3119,11 @@
       <c r="L49">
         <v>4.6865164305892899E-3</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M49">
+        <v>2.8444614455226599E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>108</v>
       </c>
@@ -3013,8 +3163,11 @@
       <c r="L50">
         <v>4.6474055676165903E-3</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M50">
+        <v>3.5140104152425601E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>107</v>
       </c>
@@ -3054,8 +3207,11 @@
       <c r="L51">
         <v>4.11144191396824E-3</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M51">
+        <v>2.28177857955357E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>111</v>
       </c>
@@ -3095,8 +3251,11 @@
       <c r="L52">
         <v>3.1365905501956901E-3</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M52">
+        <v>1.30015194078929E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>109</v>
       </c>
@@ -3136,8 +3295,11 @@
       <c r="L53">
         <v>2.1070644415699699E-3</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M53">
+        <v>1.6212115064335301E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>110</v>
       </c>
@@ -3177,8 +3339,11 @@
       <c r="L54">
         <v>4.0400416690045101E-3</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M54">
+        <v>3.7055154941253898E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>114</v>
       </c>
@@ -3218,8 +3383,11 @@
       <c r="L55">
         <v>3.0958937528363199E-3</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M55">
+        <v>1.3694580651259401E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>112</v>
       </c>
@@ -3259,8 +3427,11 @@
       <c r="L56">
         <v>3.471157182146E-3</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M56">
+        <v>1.82260794116014E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>100</v>
       </c>
@@ -3300,8 +3471,11 @@
       <c r="L57">
         <v>5.9951148328732896E-3</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M57">
+        <v>1.4585323621623899E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>99</v>
       </c>
@@ -3341,8 +3515,11 @@
       <c r="L58">
         <v>7.5002979754909297E-3</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M58">
+        <v>3.6413282441035001E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>95</v>
       </c>
@@ -3382,8 +3559,11 @@
       <c r="L59">
         <v>1.2219987282863E-2</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M59">
+        <v>9.8039449446446405E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>98</v>
       </c>
@@ -3423,8 +3603,11 @@
       <c r="L60">
         <v>5.8089588291962901E-3</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M60">
+        <v>2.1316240173525599E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>97</v>
       </c>
@@ -3464,8 +3647,11 @@
       <c r="L61">
         <v>5.5616204478045302E-3</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M61">
+        <v>3.58544158383648E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>94</v>
       </c>
@@ -3505,8 +3691,11 @@
       <c r="L62">
         <v>6.8362087569562597E-3</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M62">
+        <v>4.6125082542245698E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>46</v>
       </c>
@@ -3546,8 +3735,11 @@
       <c r="L63">
         <v>6.9249914640650599E-3</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M63">
+        <v>1.9629746993464498E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>42</v>
       </c>
@@ -3587,8 +3779,11 @@
       <c r="L64">
         <v>5.3645051281851E-3</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M64">
+        <v>7.1880766684277496E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>51</v>
       </c>
@@ -3628,8 +3823,11 @@
       <c r="L65">
         <v>5.6960577916992002E-3</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M65">
+        <v>3.1326727685183501E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>49</v>
       </c>
@@ -3669,8 +3867,11 @@
       <c r="L66">
         <v>6.2104034622192097E-3</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M66">
+        <v>3.1072005853626499E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>50</v>
       </c>
@@ -3710,8 +3911,11 @@
       <c r="L67">
         <v>6.1950678389048703E-3</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M67">
+        <v>3.0386287798409E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>52</v>
       </c>
@@ -3751,8 +3955,11 @@
       <c r="L68">
         <v>6.1908310595294802E-3</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M68">
+        <v>2.7303160246612201E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>54</v>
       </c>
@@ -3792,8 +3999,11 @@
       <c r="L69">
         <v>9.2184664291773098E-3</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M69">
+        <v>2.8404029951773998E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>53</v>
       </c>
@@ -3833,8 +4043,11 @@
       <c r="L70">
         <v>6.7737451531776202E-3</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M70">
+        <v>3.2485350506999502E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>60</v>
       </c>
@@ -3874,8 +4087,11 @@
       <c r="L71">
         <v>5.5079685329171802E-3</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M71">
+        <v>1.82411841424365E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>56</v>
       </c>
@@ -3915,8 +4131,11 @@
       <c r="L72">
         <v>7.4840330325699296E-3</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M72">
+        <v>2.6601573027516599E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>55</v>
       </c>
@@ -3956,8 +4175,11 @@
       <c r="L73">
         <v>1.0518682298216399E-2</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M73">
+        <v>5.0873362459730401E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>48</v>
       </c>
@@ -3997,8 +4219,11 @@
       <c r="L74">
         <v>5.3116468592529402E-3</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M74">
+        <v>2.4431481343983302E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>47</v>
       </c>
@@ -4038,8 +4263,11 @@
       <c r="L75">
         <v>5.8359954591725403E-3</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M75">
+        <v>2.64829450544581E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>58</v>
       </c>
@@ -4079,8 +4307,11 @@
       <c r="L76">
         <v>6.0335542042057296E-3</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M76">
+        <v>2.3558887255184899E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>59</v>
       </c>
@@ -4120,8 +4351,11 @@
       <c r="L77">
         <v>5.40062690248699E-3</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M77">
+        <v>2.7600024761338599E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>61</v>
       </c>
@@ -4161,8 +4395,11 @@
       <c r="L78">
         <v>5.5080253724245198E-3</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M78">
+        <v>1.5341475314011299E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>62</v>
       </c>
@@ -4202,8 +4439,11 @@
       <c r="L79">
         <v>4.3440853108519199E-3</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M79">
+        <v>1.9126184277843399E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>73</v>
       </c>
@@ -4243,8 +4483,11 @@
       <c r="L80">
         <v>3.534647241102E-3</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M80">
+        <v>3.3211138533632799E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -4284,8 +4527,11 @@
       <c r="L81">
         <v>6.3673741940728302E-3</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M81">
+        <v>1.2176881713860999E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>77</v>
       </c>
@@ -4325,8 +4571,11 @@
       <c r="L82">
         <v>7.1426248983906399E-3</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M82">
+        <v>2.3709263440678001E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -4366,8 +4615,11 @@
       <c r="L83">
         <v>5.0241104027201697E-3</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M83">
+        <v>1.4625961861976799E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>80</v>
       </c>
@@ -4407,8 +4659,11 @@
       <c r="L84">
         <v>4.4322672743752796E-3</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M84">
+        <v>1.4098940549511401E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>81</v>
       </c>
@@ -4448,8 +4703,11 @@
       <c r="L85">
         <v>4.4860761210041697E-3</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M85">
+        <v>3.5168946686928802E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -4489,8 +4747,11 @@
       <c r="L86">
         <v>3.99517011504456E-3</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M86">
+        <v>1.37947301876395E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>83</v>
       </c>
@@ -4530,8 +4791,11 @@
       <c r="L87">
         <v>5.6162579428451201E-3</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M87">
+        <v>1.60837715227598E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>84</v>
       </c>
@@ -4571,8 +4835,11 @@
       <c r="L88">
         <v>1.9651628289127102E-2</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M88">
+        <v>1.15848480953188E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>92</v>
       </c>
@@ -4612,8 +4879,11 @@
       <c r="L89">
         <v>2.2655046360199401E-3</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M89">
+        <v>1.55964876219264E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>91</v>
       </c>
@@ -4653,8 +4923,11 @@
       <c r="L90">
         <v>2.0167808550573402E-3</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M90">
+        <v>7.57463512486055E-4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>78</v>
       </c>
@@ -4694,8 +4967,11 @@
       <c r="L91">
         <v>1.4499401803911899E-2</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M91">
+        <v>6.1478057744003903E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>75</v>
       </c>
@@ -4735,8 +5011,11 @@
       <c r="L92">
         <v>8.5449009167646393E-3</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M92">
+        <v>9.5754496507802003E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>76</v>
       </c>
@@ -4776,8 +5055,11 @@
       <c r="L93">
         <v>5.6935417290658701E-3</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M93">
+        <v>1.43781314906875E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>74</v>
       </c>
@@ -4817,8 +5099,11 @@
       <c r="L94">
         <v>6.3611892862461801E-3</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M94">
+        <v>4.1209565660823696E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>67</v>
       </c>
@@ -4858,8 +5143,11 @@
       <c r="L95">
         <v>4.9235044614266204E-3</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M95">
+        <v>1.91905577513604E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>66</v>
       </c>
@@ -4899,8 +5187,11 @@
       <c r="L96">
         <v>4.2348868715546203E-3</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M96">
+        <v>1.5234988781717201E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>65</v>
       </c>
@@ -4940,8 +5231,11 @@
       <c r="L97">
         <v>3.0431711749714999E-3</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M97">
+        <v>1.0397600830659101E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>69</v>
       </c>
@@ -4981,8 +5275,11 @@
       <c r="L98">
         <v>4.2354128259537403E-3</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M98">
+        <v>1.89655969116575E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>68</v>
       </c>
@@ -5022,8 +5319,11 @@
       <c r="L99">
         <v>6.1670946976577698E-3</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M99">
+        <v>4.3321429615896896E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>71</v>
       </c>
@@ -5063,8 +5363,11 @@
       <c r="L100">
         <v>8.6967743378458303E-3</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M100">
+        <v>5.3496863305656697E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>72</v>
       </c>
@@ -5104,8 +5407,11 @@
       <c r="L101">
         <v>3.4185162919858898E-3</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M101">
+        <v>1.36388982638603E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>70</v>
       </c>
@@ -5145,8 +5451,11 @@
       <c r="L102">
         <v>2.7892535011963902E-3</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M102">
+        <v>1.07107524298145E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>63</v>
       </c>
@@ -5186,8 +5495,11 @@
       <c r="L103">
         <v>1.0426043999017399E-2</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M103">
+        <v>2.0788378103915898E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>64</v>
       </c>
@@ -5227,8 +5539,11 @@
       <c r="L104">
         <v>8.6807336299597002E-3</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M104">
+        <v>1.81123809838808E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>87</v>
       </c>
@@ -5268,8 +5583,11 @@
       <c r="L105">
         <v>4.7700618409301301E-3</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M105">
+        <v>7.2042307518093004E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>116</v>
       </c>
@@ -5309,8 +5627,11 @@
       <c r="L106">
         <v>5.5732172458285599E-3</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M106">
+        <v>2.3098626940298698E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>115</v>
       </c>
@@ -5350,8 +5671,11 @@
       <c r="L107">
         <v>4.0686586098832604E-3</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M107">
+        <v>2.6178180506483198E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>88</v>
       </c>
@@ -5391,8 +5715,11 @@
       <c r="L108">
         <v>1.76335297701682E-3</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M108">
+        <v>4.34587059872669E-4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>86</v>
       </c>
@@ -5432,8 +5759,11 @@
       <c r="L109">
         <v>4.7889793464389596E-3</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M109">
+        <v>1.7971633924918299E-3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>96</v>
       </c>
@@ -5473,8 +5803,11 @@
       <c r="L110">
         <v>4.9922913899517803E-3</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M110">
+        <v>1.3967309822904999E-3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>102</v>
       </c>
@@ -5514,8 +5847,11 @@
       <c r="L111">
         <v>6.14059571666376E-3</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M111">
+        <v>2.05082496281798E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>101</v>
       </c>
@@ -5555,8 +5891,11 @@
       <c r="L112">
         <v>4.7658786729942101E-3</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M112">
+        <v>1.1743652264432001E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>137</v>
       </c>
@@ -5596,8 +5935,11 @@
       <c r="L113">
         <v>4.8294747545335201E-3</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M113">
+        <v>1.87565669509958E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>136</v>
       </c>
@@ -5637,8 +5979,11 @@
       <c r="L114">
         <v>1.5256133824711499E-3</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M114">
+        <v>1.50570193849309E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>138</v>
       </c>
@@ -5678,8 +6023,11 @@
       <c r="L115">
         <v>3.5287613755054601E-3</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M115">
+        <v>2.1641088049915301E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>147</v>
       </c>
@@ -5719,8 +6067,11 @@
       <c r="L116">
         <v>6.4948147628476399E-3</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M116">
+        <v>2.6220283054359098E-3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>135</v>
       </c>
@@ -5760,8 +6111,11 @@
       <c r="L117">
         <v>1.90636420060159E-3</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M117">
+        <v>1.48434221359766E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>134</v>
       </c>
@@ -5801,8 +6155,11 @@
       <c r="L118">
         <v>3.4844325862294799E-3</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M118">
+        <v>2.2443968835655398E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>133</v>
       </c>
@@ -5842,8 +6199,11 @@
       <c r="L119">
         <v>3.4085412854331998E-3</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M119">
+        <v>2.76919949919209E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>104</v>
       </c>
@@ -5883,8 +6243,11 @@
       <c r="L120">
         <v>5.8546375128501801E-3</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M120">
+        <v>2.7181984227620101E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>103</v>
       </c>
@@ -5924,8 +6287,11 @@
       <c r="L121">
         <v>2.7569525648387001E-3</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M121">
+        <v>2.1463778385875502E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>113</v>
       </c>
@@ -5965,8 +6331,11 @@
       <c r="L122">
         <v>5.3190725179351698E-3</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M122">
+        <v>5.1467836487619498E-3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>117</v>
       </c>
@@ -6006,8 +6375,11 @@
       <c r="L123">
         <v>6.4901374895953599E-3</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M123">
+        <v>4.0728455476604503E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>118</v>
       </c>
@@ -6047,8 +6419,11 @@
       <c r="L124">
         <v>5.12593684711753E-3</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M124">
+        <v>2.4643080551626701E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>119</v>
       </c>
@@ -6088,8 +6463,11 @@
       <c r="L125">
         <v>6.1787282668868499E-3</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M125">
+        <v>3.73983683900925E-3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>123</v>
       </c>
@@ -6129,8 +6507,11 @@
       <c r="L126">
         <v>5.6457356222445404E-3</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M126">
+        <v>1.66689972455257E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>148</v>
       </c>
@@ -6170,8 +6551,11 @@
       <c r="L127">
         <v>5.2743697969837898E-3</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M127">
+        <v>1.9140526619594101E-3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>145</v>
       </c>
@@ -6211,8 +6595,11 @@
       <c r="L128">
         <v>4.0581509660931802E-3</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M128">
+        <v>1.9828083785938199E-3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>146</v>
       </c>
@@ -6252,8 +6639,11 @@
       <c r="L129">
         <v>5.4388067625391603E-3</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M129">
+        <v>1.8907091188333201E-3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>140</v>
       </c>
@@ -6293,8 +6683,11 @@
       <c r="L130">
         <v>4.6807064555970902E-3</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M130">
+        <v>1.6856744692650099E-3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>139</v>
       </c>
@@ -6334,8 +6727,11 @@
       <c r="L131">
         <v>5.5497059047137001E-3</v>
       </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M131">
+        <v>4.6066705741384297E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>142</v>
       </c>
@@ -6375,8 +6771,11 @@
       <c r="L132">
         <v>4.69985686662318E-3</v>
       </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M132">
+        <v>1.96576024329535E-3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>141</v>
       </c>
@@ -6416,8 +6815,11 @@
       <c r="L133">
         <v>4.3715879360161601E-3</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M133">
+        <v>4.3352151552093201E-3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>144</v>
       </c>
@@ -6457,8 +6859,11 @@
       <c r="L134">
         <v>7.0029123109756298E-3</v>
       </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M134">
+        <v>3.5549752894528E-3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>143</v>
       </c>
@@ -6498,8 +6903,11 @@
       <c r="L135">
         <v>6.5985697962318299E-3</v>
       </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M135">
+        <v>4.66067338272016E-3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>129</v>
       </c>
@@ -6539,8 +6947,11 @@
       <c r="L136">
         <v>4.5864953944465599E-3</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M136">
+        <v>1.9932370799928701E-3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>121</v>
       </c>
@@ -6580,8 +6991,11 @@
       <c r="L137">
         <v>1.30818512477411E-2</v>
       </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M137">
+        <v>8.0826389434637096E-3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>122</v>
       </c>
@@ -6621,8 +7035,11 @@
       <c r="L138">
         <v>9.70213685199868E-3</v>
       </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M138">
+        <v>6.4276219324612199E-3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>120</v>
       </c>
@@ -6662,8 +7079,11 @@
       <c r="L139">
         <v>4.72910781859267E-3</v>
       </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M139">
+        <v>1.41557068881146E-3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>126</v>
       </c>
@@ -6703,8 +7123,11 @@
       <c r="L140">
         <v>3.8270209048448601E-3</v>
       </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M140">
+        <v>2.63889126417125E-3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>124</v>
       </c>
@@ -6744,8 +7167,11 @@
       <c r="L141">
         <v>3.8741651472878899E-3</v>
       </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M141">
+        <v>2.25471006709935E-3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>125</v>
       </c>
@@ -6785,8 +7211,11 @@
       <c r="L142">
         <v>7.0131628920579699E-3</v>
       </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M142">
+        <v>5.4290035805567398E-3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>127</v>
       </c>
@@ -6826,8 +7255,11 @@
       <c r="L143">
         <v>5.6862413317773997E-3</v>
       </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M143">
+        <v>1.8714078245570501E-3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>128</v>
       </c>
@@ -6867,8 +7299,11 @@
       <c r="L144">
         <v>4.6567802168568798E-3</v>
       </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M144">
+        <v>3.6807017750878999E-3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>149</v>
       </c>
@@ -6908,8 +7343,11 @@
       <c r="L145">
         <v>5.5721386168142298E-3</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M145">
+        <v>3.4069535165989402E-3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>131</v>
       </c>
@@ -6949,8 +7387,11 @@
       <c r="L146">
         <v>7.7173679095753397E-3</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M146">
+        <v>6.1564530058789797E-3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>132</v>
       </c>
@@ -6990,8 +7431,11 @@
       <c r="L147">
         <v>3.5272097503594802E-3</v>
       </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M147">
+        <v>2.1033119628923401E-3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>130</v>
       </c>
@@ -7031,8 +7475,11 @@
       <c r="L148">
         <v>4.0930953875343203E-3</v>
       </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M148">
+        <v>2.0296373718025501E-3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>158</v>
       </c>
@@ -7072,8 +7519,11 @@
       <c r="L149">
         <v>7.5011030390514499E-3</v>
       </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M149">
+        <v>2.9744409083589901E-3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>157</v>
       </c>
@@ -7113,8 +7563,11 @@
       <c r="L150">
         <v>7.4087785965482296E-3</v>
       </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M150">
+        <v>2.8764138114806999E-3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>156</v>
       </c>
@@ -7154,8 +7607,11 @@
       <c r="L151">
         <v>8.5195050240252593E-3</v>
       </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M151">
+        <v>3.7162007103219898E-3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>160</v>
       </c>
@@ -7195,8 +7651,11 @@
       <c r="L152">
         <v>1.0287127374566701E-2</v>
       </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M152">
+        <v>4.6560900345206198E-3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>159</v>
       </c>
@@ -7236,8 +7695,11 @@
       <c r="L153">
         <v>1.1374233943639501E-2</v>
       </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M153">
+        <v>4.8793089495396498E-3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>162</v>
       </c>
@@ -7277,8 +7739,11 @@
       <c r="L154">
         <v>1.6543542637844199E-2</v>
       </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M154">
+        <v>4.7976716414937998E-3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>163</v>
       </c>
@@ -7318,8 +7783,11 @@
       <c r="L155">
         <v>6.78053120771738E-3</v>
       </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M155">
+        <v>2.5981388914402001E-3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>161</v>
       </c>
@@ -7359,8 +7827,11 @@
       <c r="L156">
         <v>9.4257126163888594E-3</v>
       </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M156">
+        <v>4.2266702176110499E-3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>154</v>
       </c>
@@ -7400,8 +7871,11 @@
       <c r="L157">
         <v>3.2355270639740901E-3</v>
       </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M157">
+        <v>2.1346065788390299E-3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>164</v>
       </c>
@@ -7441,8 +7915,11 @@
       <c r="L158">
         <v>9.5109127864204997E-3</v>
       </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M158">
+        <v>5.2667442835610404E-3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>166</v>
       </c>
@@ -7482,8 +7959,11 @@
       <c r="L159">
         <v>1.28582726750052E-2</v>
       </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M159">
+        <v>5.8018574983936498E-3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>168</v>
       </c>
@@ -7523,8 +8003,11 @@
       <c r="L160">
         <v>9.9512485551887797E-3</v>
       </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M160">
+        <v>4.8152960402597896E-3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>167</v>
       </c>
@@ -7564,8 +8047,11 @@
       <c r="L161">
         <v>7.5250814368182902E-3</v>
       </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M161">
+        <v>5.3997764417043903E-3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>170</v>
       </c>
@@ -7605,8 +8091,11 @@
       <c r="L162">
         <v>7.3185354749690599E-3</v>
       </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M162">
+        <v>3.2371350115796798E-3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>169</v>
       </c>
@@ -7646,8 +8135,11 @@
       <c r="L163">
         <v>5.6021536658492702E-3</v>
       </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M163">
+        <v>3.89032194888313E-3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>171</v>
       </c>
@@ -7687,8 +8179,11 @@
       <c r="L164">
         <v>2.95541349193028E-3</v>
       </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M164">
+        <v>1.53558802884074E-3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>172</v>
       </c>
@@ -7728,8 +8223,11 @@
       <c r="L165">
         <v>6.9851036928435502E-3</v>
       </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M165">
+        <v>2.9945668220737001E-3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>176</v>
       </c>
@@ -7769,8 +8267,11 @@
       <c r="L166">
         <v>5.3966481409358901E-3</v>
       </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M166">
+        <v>2.6568775884958E-3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>185</v>
       </c>
@@ -7810,8 +8311,11 @@
       <c r="L167">
         <v>4.4145722117330298E-3</v>
       </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M167">
+        <v>3.7813502419760401E-3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>186</v>
       </c>
@@ -7851,8 +8355,11 @@
       <c r="L168">
         <v>5.0096647841722103E-3</v>
       </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M168">
+        <v>2.1707400048794601E-3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>184</v>
       </c>
@@ -7892,8 +8399,11 @@
       <c r="L169">
         <v>7.2769055785717896E-3</v>
       </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M169">
+        <v>3.10089949342823E-3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>183</v>
       </c>
@@ -7933,8 +8443,11 @@
       <c r="L170">
         <v>2.3716529064501499E-3</v>
       </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M170">
+        <v>1.3990757983284E-3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>181</v>
       </c>
@@ -7974,8 +8487,11 @@
       <c r="L171">
         <v>6.6131768592431698E-3</v>
       </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M171">
+        <v>3.1128128883972802E-3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>180</v>
       </c>
@@ -8015,8 +8531,11 @@
       <c r="L172">
         <v>3.0263051588580799E-3</v>
       </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M172">
+        <v>1.6397881650874399E-3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>165</v>
       </c>
@@ -8056,8 +8575,11 @@
       <c r="L173">
         <v>8.2206809945145603E-3</v>
       </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M173">
+        <v>3.2388599847810199E-3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>182</v>
       </c>
@@ -8097,8 +8619,11 @@
       <c r="L174">
         <v>5.3722977739415704E-3</v>
       </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M174">
+        <v>2.9091766167054401E-3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>179</v>
       </c>
@@ -8138,8 +8663,11 @@
       <c r="L175">
         <v>1.3956595598128301E-2</v>
       </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M175">
+        <v>3.6374531356343901E-3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>178</v>
       </c>
@@ -8179,8 +8707,11 @@
       <c r="L176">
         <v>7.7052504963060304E-3</v>
       </c>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M176">
+        <v>4.4739688177279999E-3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>177</v>
       </c>
@@ -8220,8 +8751,11 @@
       <c r="L177">
         <v>8.4624612076078902E-3</v>
       </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M177">
+        <v>3.1571846126403499E-3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>174</v>
       </c>
@@ -8261,8 +8795,11 @@
       <c r="L178">
         <v>7.2465270586805899E-3</v>
       </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M178">
+        <v>2.7546010951954702E-3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>175</v>
       </c>
@@ -8302,8 +8839,11 @@
       <c r="L179">
         <v>7.7683292712532803E-3</v>
       </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M179">
+        <v>3.9443474840133996E-3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>173</v>
       </c>
@@ -8343,8 +8883,11 @@
       <c r="L180">
         <v>6.06983979295804E-3</v>
       </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M180">
+        <v>3.1702351793645202E-3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>151</v>
       </c>
@@ -8384,8 +8927,11 @@
       <c r="L181">
         <v>8.9846093060770207E-3</v>
       </c>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M181">
+        <v>3.1594300595969198E-3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>150</v>
       </c>
@@ -8425,8 +8971,11 @@
       <c r="L182">
         <v>5.0515256342023602E-3</v>
       </c>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M182">
+        <v>2.5384819116594801E-3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>153</v>
       </c>
@@ -8466,8 +9015,11 @@
       <c r="L183">
         <v>7.0043933452068304E-3</v>
       </c>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M183">
+        <v>2.8097522901725401E-3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>152</v>
       </c>
@@ -8507,8 +9059,11 @@
       <c r="L184">
         <v>6.0264866899388796E-3</v>
       </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M184">
+        <v>4.1914990187210399E-3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>155</v>
       </c>
@@ -8548,8 +9103,11 @@
       <c r="L185">
         <v>3.8590038874579298E-3</v>
       </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M185">
+        <v>2.2510671417385899E-3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>6</v>
       </c>
@@ -8589,8 +9147,11 @@
       <c r="L186">
         <v>5.9156721056031099E-3</v>
       </c>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M186">
+        <v>1.93764749338869E-3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>5</v>
       </c>
@@ -8630,8 +9191,11 @@
       <c r="L187">
         <v>9.5731460376410407E-3</v>
       </c>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M187">
+        <v>3.0339917510783299E-3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>0</v>
       </c>
@@ -8670,6 +9234,9 @@
       </c>
       <c r="L188">
         <v>1.0585602141164401E-2</v>
+      </c>
+      <c r="M188">
+        <v>3.63703217176735E-3</v>
       </c>
     </row>
   </sheetData>
